--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Cuatro cuadras " sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Cuatro cuadras" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Textos" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Elementos" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="357">
   <si>
     <t>edificio los venados</t>
   </si>
@@ -512,13 +512,10 @@
     <t>longitud</t>
   </si>
   <si>
-    <t xml:space="preserve">Infraestructura pública y social </t>
-  </si>
-  <si>
     <t>Caminabilidad</t>
   </si>
   <si>
-    <t>Ruido_10 sec</t>
+    <t>puntoRuido</t>
   </si>
   <si>
     <t>pm25 puntos fijos</t>
@@ -557,7 +554,7 @@
     <t xml:space="preserve">Perfil </t>
   </si>
   <si>
-    <t>Ilustración</t>
+    <t>ilustracion</t>
   </si>
   <si>
     <t>Texto</t>
@@ -1308,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1361,14 +1358,8 @@
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2405,24 +2396,22 @@
     <col customWidth="1" min="2" max="2" width="16.63"/>
     <col customWidth="1" min="3" max="3" width="6.63"/>
     <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="11.75"/>
-    <col customWidth="1" min="6" max="6" width="8.63"/>
-    <col customWidth="1" min="7" max="7" width="26.13"/>
-    <col customWidth="1" min="8" max="8" width="8.63"/>
-    <col customWidth="1" min="9" max="9" width="12.38"/>
-    <col customWidth="1" min="10" max="10" width="11.5"/>
-    <col customWidth="1" min="11" max="11" width="15.25"/>
-    <col customWidth="1" min="12" max="12" width="14.13"/>
-    <col customWidth="1" min="13" max="13" width="10.25"/>
-    <col customWidth="1" min="14" max="14" width="10.0"/>
-    <col customWidth="1" min="15" max="15" width="10.5"/>
-    <col customWidth="1" min="16" max="16" width="8.63"/>
-    <col customWidth="1" min="17" max="19" width="13.63"/>
-    <col customWidth="1" min="20" max="20" width="8.5"/>
-    <col customWidth="1" min="21" max="21" width="8.0"/>
-    <col customWidth="1" min="22" max="22" width="7.0"/>
-    <col customWidth="1" min="23" max="23" width="18.38"/>
-    <col customWidth="1" min="24" max="24" width="20.88"/>
+    <col customWidth="1" min="5" max="5" width="12.38"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="15.25"/>
+    <col customWidth="1" min="8" max="8" width="14.13"/>
+    <col customWidth="1" min="9" max="9" width="13.25"/>
+    <col customWidth="1" min="10" max="10" width="10.0"/>
+    <col customWidth="1" min="11" max="11" width="10.5"/>
+    <col customWidth="1" min="12" max="12" width="8.63"/>
+    <col customWidth="1" min="13" max="13" width="13.38"/>
+    <col customWidth="1" min="14" max="14" width="15.38"/>
+    <col customWidth="1" min="15" max="15" width="15.75"/>
+    <col customWidth="1" min="16" max="16" width="8.5"/>
+    <col customWidth="1" min="17" max="17" width="8.0"/>
+    <col customWidth="1" min="18" max="18" width="7.0"/>
+    <col customWidth="1" min="19" max="19" width="40.88"/>
+    <col customWidth="1" min="20" max="20" width="20.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2439,64 +2428,52 @@
         <v>146</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="K1" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="W1" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -2504,396 +2481,396 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4.59779533018865</v>
+      </c>
+      <c r="D2" s="22">
+        <v>-74.0756536703986</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="24">
-        <v>4.59779533018865</v>
-      </c>
-      <c r="D2" s="24">
-        <v>-74.0756536703986</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="O2" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="S2" s="26" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="22">
+        <v>4.601444</v>
+      </c>
+      <c r="D3" s="22">
+        <v>-74.073396</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="K3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="24">
-        <v>4.601444</v>
-      </c>
-      <c r="D3" s="24">
-        <v>-74.073396</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="O3" s="1" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="W3" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="X3" s="29"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="22">
+        <v>4.605297</v>
+      </c>
+      <c r="D4" s="22">
+        <v>-74.071588</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="24">
-        <v>4.605297</v>
-      </c>
-      <c r="D4" s="24">
-        <v>-74.071588</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="L4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="V4" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="22">
+        <v>4.61134</v>
+      </c>
+      <c r="D5" s="22">
+        <v>-74.069874</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="24">
-        <v>4.61134</v>
-      </c>
-      <c r="D5" s="24">
-        <v>-74.069874</v>
-      </c>
-      <c r="I5" s="30" t="s">
+      <c r="J5" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="W5" s="1" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="S5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4.618599</v>
+      </c>
+      <c r="D6" s="22">
+        <v>-74.068069</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="24">
-        <v>4.618599</v>
-      </c>
-      <c r="D6" s="24">
-        <v>-74.068069</v>
-      </c>
-      <c r="I6" s="30" t="s">
+      <c r="R6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="22">
+        <v>4.62475</v>
+      </c>
+      <c r="D7" s="22">
+        <v>-74.066423</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="N6" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="24">
-        <v>4.62475</v>
-      </c>
-      <c r="D7" s="24">
-        <v>-74.066423</v>
-      </c>
-      <c r="I7" s="25" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="S7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J7" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="W7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="X7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>4.631393</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>-74.064257</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26" t="s">
+      <c r="E8" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="S8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="W8" s="1" t="s">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="22">
+        <v>4.6282521</v>
+      </c>
+      <c r="D9" s="22">
+        <v>-74.0670904</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="24">
-        <v>4.6282521</v>
-      </c>
-      <c r="D9" s="24">
-        <v>-74.0670904</v>
-      </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4.639489</v>
+      </c>
+      <c r="D10" s="22">
+        <v>-74.062897</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="24">
-        <v>4.639489</v>
-      </c>
-      <c r="D10" s="24">
-        <v>-74.062897</v>
-      </c>
-      <c r="I10" s="25" t="s">
+      <c r="F10" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="J10" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="K10" s="32" t="s">
+      <c r="H10" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L10" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
+      <c r="N10" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="22">
+        <v>4.641975</v>
+      </c>
+      <c r="D11" s="22">
+        <v>-74.062267</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="24">
-        <v>4.641975</v>
-      </c>
-      <c r="D11" s="24">
-        <v>-74.062267</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="J11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4.645357</v>
+      </c>
+      <c r="D12" s="22">
+        <v>-74.061291</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="24">
-        <v>4.645357</v>
-      </c>
-      <c r="D12" s="24">
-        <v>-74.061291</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="F12" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="K12" s="32" t="s">
+      <c r="H12" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="R12" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="22">
+        <v>4.6507</v>
+      </c>
+      <c r="D13" s="22">
+        <v>-74.05822</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="27">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="24">
-        <v>4.6507</v>
-      </c>
-      <c r="D13" s="24">
-        <v>-74.05822</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -2901,490 +2878,490 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="24">
+        <v>215</v>
+      </c>
+      <c r="C14" s="22">
         <v>4.652758</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>-74.056551</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="E14" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
-        <v>210</v>
+      <c r="Q14" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>14.0</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="22">
+        <v>4.65487400724876</v>
+      </c>
+      <c r="D15" s="22">
+        <v>-74.0554333681108</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="24">
-        <v>4.65487400724876</v>
-      </c>
-      <c r="D15" s="24">
-        <v>-74.0554333681108</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="J15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="X15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="22">
+        <v>4.65671780613089</v>
+      </c>
+      <c r="D16" s="22">
+        <v>-74.0543665308446</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="24">
-        <v>4.65671780613089</v>
-      </c>
-      <c r="D16" s="24">
-        <v>-74.0543665308446</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="J16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="22">
+        <v>4.65869671902702</v>
+      </c>
+      <c r="D17" s="22">
+        <v>-74.0527981659214</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="24">
-        <v>4.65869671902702</v>
-      </c>
-      <c r="D17" s="24">
-        <v>-74.0527981659214</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="22">
+        <v>4.66306901162081</v>
+      </c>
+      <c r="D18" s="22">
+        <v>-74.0486994996409</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="24">
-        <v>4.66306901162081</v>
-      </c>
-      <c r="D18" s="24">
-        <v>-74.0486994996409</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="H18" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="32" t="s">
-        <v>225</v>
-      </c>
+      <c r="J18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="W18" s="1" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="27">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>4.66516565077258</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>-74.0468160288417</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="E19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="29">
         <v>4.0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="22">
+        <v>4.67138521212362</v>
+      </c>
+      <c r="D20" s="22">
+        <v>-74.0438000439461</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="24">
-        <v>4.67138521212362</v>
-      </c>
-      <c r="D20" s="24">
-        <v>-74.0438000439461</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="J20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="T20" s="1"/>
-      <c r="W20" s="1" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="25">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="27">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>4.67447260123109</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <v>-74.0417018437693</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="E21" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="T21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="X21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="24">
+        <v>234</v>
+      </c>
+      <c r="C22" s="22">
         <v>4.67985737530602</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <v>-74.0382125791768</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="E22" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="V22" s="1" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="27">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="31" t="s">
+      <c r="C23" s="22">
+        <v>4.6851414298036</v>
+      </c>
+      <c r="D23" s="22">
+        <v>-74.0356604991655</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="24">
-        <v>4.6851414298036</v>
-      </c>
-      <c r="D23" s="24">
-        <v>-74.0356604991655</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="J23" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="K23" s="32" t="s">
+      <c r="H23" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="L23" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="N23" s="26" t="s">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="S23" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="W23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X23" s="1"/>
+      <c r="T23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4.69366275843025</v>
+      </c>
+      <c r="D24" s="22">
+        <v>-74.0332252216773</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="24">
-        <v>4.69366275843025</v>
-      </c>
-      <c r="D24" s="24">
-        <v>-74.0332252216773</v>
-      </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="S24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N24" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="W24" s="1" t="s">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="27">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>4.70213634871971</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>-74.0285922020549</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
+      <c r="E25" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="22">
+        <v>4.71168163739051</v>
+      </c>
+      <c r="D26" s="22">
+        <v>-74.029166381959</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="24">
-        <v>4.71168163739051</v>
-      </c>
-      <c r="D26" s="24">
-        <v>-74.029166381959</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="J26" s="31">
-        <v>6.0</v>
-      </c>
-      <c r="K26" s="32" t="s">
+      <c r="H26" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="L26" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="27">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="27" t="s">
+      <c r="C27" s="22">
+        <v>4.71618941013746</v>
+      </c>
+      <c r="D27" s="22">
+        <v>-74.028746372056</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="24">
-        <v>4.71618941013746</v>
-      </c>
-      <c r="D27" s="24">
-        <v>-74.028746372056</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26" t="s">
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="S27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="W27" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="X27" s="1"/>
+      <c r="T27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="22">
+        <v>4.72271112809495</v>
+      </c>
+      <c r="D28" s="22">
+        <v>-74.0261459774934</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="24">
-        <v>4.72271112809495</v>
-      </c>
-      <c r="D28" s="24">
-        <v>-74.0261459774934</v>
-      </c>
-      <c r="I28" s="25" t="s">
+      <c r="J28" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N28" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="27">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="22">
+        <v>4.72561860463364</v>
+      </c>
+      <c r="D29" s="22">
+        <v>-74.0248846037107</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="R29" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" s="24">
-        <v>4.72561860463364</v>
-      </c>
-      <c r="D29" s="24">
-        <v>-74.0248846037107</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="V29" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30">
@@ -3392,170 +3369,170 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="22">
+        <v>4.72759203191308</v>
+      </c>
+      <c r="D30" s="22">
+        <v>-74.0246188787511</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="24">
-        <v>4.72759203191308</v>
-      </c>
-      <c r="D30" s="24">
-        <v>-74.0246188787511</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="J30" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="25">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="N30" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="27">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="31" t="s">
+      <c r="C31" s="22">
+        <v>4.73504479371492</v>
+      </c>
+      <c r="D31" s="22">
+        <v>-74.0243405599811</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="24">
-        <v>4.73504479371492</v>
-      </c>
-      <c r="D31" s="24">
-        <v>-74.0243405599811</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="K31" s="32" t="s">
+      <c r="H31" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="L31" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="M31" s="26" t="s">
+      <c r="J31" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N31" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="22">
+        <v>4.73928285919624</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-74.0227685844767</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="24">
-        <v>4.73928285919624</v>
-      </c>
-      <c r="D32" s="24">
-        <v>-74.0227685844767</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q32" s="1" t="s">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="25">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="27">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="22">
+        <v>4.74104500723192</v>
+      </c>
+      <c r="D33" s="22">
+        <v>-74.0223245655917</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="24">
-        <v>4.74104500723192</v>
-      </c>
-      <c r="D33" s="24">
-        <v>-74.0223245655917</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="X33" s="1"/>
+      <c r="T33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="22">
+        <v>4.74704550134667</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-74.0226372775582</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C34" s="24">
-        <v>4.74704550134667</v>
-      </c>
-      <c r="D34" s="24">
-        <v>-74.0226372775582</v>
-      </c>
-      <c r="I34" s="30" t="s">
+      <c r="G34" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="H34" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L34" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="25">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="27">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="22">
+        <v>4.75396347261005</v>
+      </c>
+      <c r="D35" s="22">
+        <v>-74.0244240661433</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="24">
-        <v>4.75396347261005</v>
-      </c>
-      <c r="D35" s="24">
-        <v>-74.0244240661433</v>
-      </c>
-      <c r="I35" s="30" t="s">
+      <c r="R35" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="36">
@@ -3563,84 +3540,84 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4.75617544590708</v>
+      </c>
+      <c r="D36" s="22">
+        <v>-74.0246792916686</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="24">
-        <v>4.75617544590708</v>
-      </c>
-      <c r="D36" s="24">
-        <v>-74.0246792916686</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="W36" s="1" t="s">
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="25">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="27">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="22">
+        <v>4.76052434895997</v>
+      </c>
+      <c r="D37" s="22">
+        <v>-74.0263419552712</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="24">
-        <v>4.76052434895997</v>
-      </c>
-      <c r="D37" s="24">
-        <v>-74.0263419552712</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="X37" s="1"/>
+      <c r="T37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="22">
+        <v>4.76566235110988</v>
+      </c>
+      <c r="D38" s="22">
+        <v>-74.027549403371</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="24">
-        <v>4.76566235110988</v>
-      </c>
-      <c r="D38" s="24">
-        <v>-74.027549403371</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="K38" s="32" t="s">
+      <c r="H38" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L38" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="T38" s="1" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="25">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="27">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="22">
+        <v>4.7689779473818</v>
+      </c>
+      <c r="D39" s="22">
+        <v>-74.0273381986581</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>283</v>
-      </c>
-      <c r="C39" s="24">
-        <v>4.7689779473818</v>
-      </c>
-      <c r="D39" s="24">
-        <v>-74.0273381986581</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -3648,58 +3625,58 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="22">
+        <v>4.76966052997788</v>
+      </c>
+      <c r="D40" s="22">
+        <v>-74.0270269840824</v>
+      </c>
+      <c r="E40" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C40" s="24">
-        <v>4.76966052997788</v>
-      </c>
-      <c r="D40" s="24">
-        <v>-74.0270269840824</v>
-      </c>
-      <c r="I40" s="30" t="s">
+      <c r="S40" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="25">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="27">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="22">
+        <v>4.7771118817951</v>
+      </c>
+      <c r="D41" s="22">
+        <v>-74.0260495949368</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="24">
-        <v>4.7771118817951</v>
-      </c>
-      <c r="D41" s="24">
-        <v>-74.0260495949368</v>
-      </c>
-      <c r="I41" s="30" t="s">
+      <c r="S41" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="W41" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="X41" s="1"/>
+      <c r="T41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="22">
+        <v>4.79861514914944</v>
+      </c>
+      <c r="D42" s="22">
+        <v>-74.0307002114146</v>
+      </c>
+      <c r="E42" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="C42" s="24">
-        <v>4.79861514914944</v>
-      </c>
-      <c r="D42" s="24">
-        <v>-74.0307002114146</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3723,4280 +3700,4280 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B6" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="C6" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="s">
+      <c r="B25" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="26" t="s">
+      <c r="B26" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="26" t="s">
+      <c r="B30" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="26" t="s">
+      <c r="B31" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="26" t="s">
+      <c r="B33" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="26" t="s">
+    <row r="35">
+      <c r="A35" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="26" t="s">
+    <row r="36">
+      <c r="A36" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>336</v>
-      </c>
-    </row>
     <row r="37">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
     </row>
     <row r="38">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
     </row>
     <row r="40">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
     </row>
     <row r="41">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
     </row>
     <row r="43">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
     </row>
     <row r="44">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
     </row>
     <row r="47">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
     </row>
     <row r="48">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
     </row>
     <row r="49">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
     </row>
     <row r="51">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
     </row>
     <row r="52">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
     </row>
     <row r="53">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
     </row>
     <row r="54">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
     </row>
     <row r="55">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
     </row>
     <row r="56">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
     </row>
     <row r="57">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
     </row>
     <row r="58">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
     </row>
     <row r="59">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
     </row>
     <row r="60">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
     </row>
     <row r="61">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
     </row>
     <row r="62">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
     </row>
     <row r="63">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
     </row>
     <row r="64">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
     </row>
     <row r="65">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
     </row>
     <row r="67">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
     </row>
     <row r="68">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
     </row>
     <row r="69">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
     </row>
     <row r="70">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
     </row>
     <row r="71">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
     </row>
     <row r="72">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
     </row>
     <row r="73">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
     </row>
     <row r="74">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
     </row>
     <row r="75">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
     </row>
     <row r="76">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
     </row>
     <row r="77">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
     </row>
     <row r="78">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
     </row>
     <row r="79">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
     </row>
     <row r="80">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
     </row>
     <row r="81">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
     </row>
     <row r="82">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
     </row>
     <row r="83">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
     </row>
     <row r="84">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
     </row>
     <row r="85">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
     </row>
     <row r="86">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
     </row>
     <row r="87">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
     </row>
     <row r="88">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
     </row>
     <row r="89">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
     </row>
     <row r="90">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
     </row>
     <row r="91">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="35"/>
     </row>
     <row r="92">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
     </row>
     <row r="93">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
     </row>
     <row r="94">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
     </row>
     <row r="95">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
     </row>
     <row r="96">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
     </row>
     <row r="97">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
     </row>
     <row r="98">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="35"/>
     </row>
     <row r="99">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="35"/>
     </row>
     <row r="100">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="35"/>
     </row>
     <row r="101">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
     </row>
     <row r="102">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
     </row>
     <row r="103">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
     </row>
     <row r="104">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
     </row>
     <row r="105">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
     </row>
     <row r="106">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
     </row>
     <row r="107">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
     </row>
     <row r="108">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
     </row>
     <row r="109">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
     </row>
     <row r="110">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
     </row>
     <row r="111">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
     </row>
     <row r="112">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
     </row>
     <row r="113">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
     </row>
     <row r="114">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
     </row>
     <row r="115">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
     </row>
     <row r="116">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
     </row>
     <row r="117">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
     </row>
     <row r="118">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
     </row>
     <row r="119">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
     </row>
     <row r="120">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
     </row>
     <row r="121">
-      <c r="A121" s="37"/>
-      <c r="B121" s="37"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
     </row>
     <row r="122">
-      <c r="A122" s="37"/>
-      <c r="B122" s="37"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
     </row>
     <row r="123">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
     </row>
     <row r="124">
-      <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
     </row>
     <row r="125">
-      <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
     </row>
     <row r="126">
-      <c r="A126" s="37"/>
-      <c r="B126" s="37"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
     </row>
     <row r="127">
-      <c r="A127" s="37"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
     </row>
     <row r="128">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
     </row>
     <row r="129">
-      <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
     </row>
     <row r="130">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
     </row>
     <row r="131">
-      <c r="A131" s="37"/>
-      <c r="B131" s="37"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
     </row>
     <row r="132">
-      <c r="A132" s="37"/>
-      <c r="B132" s="37"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
     </row>
     <row r="133">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
     </row>
     <row r="134">
-      <c r="A134" s="37"/>
-      <c r="B134" s="37"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
     </row>
     <row r="135">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="35"/>
     </row>
     <row r="136">
-      <c r="A136" s="37"/>
-      <c r="B136" s="37"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
     </row>
     <row r="137">
-      <c r="A137" s="37"/>
-      <c r="B137" s="37"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="35"/>
     </row>
     <row r="138">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="35"/>
     </row>
     <row r="139">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="35"/>
     </row>
     <row r="140">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
     </row>
     <row r="141">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
     </row>
     <row r="142">
-      <c r="A142" s="37"/>
-      <c r="B142" s="37"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="35"/>
     </row>
     <row r="143">
-      <c r="A143" s="37"/>
-      <c r="B143" s="37"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="35"/>
     </row>
     <row r="144">
-      <c r="A144" s="37"/>
-      <c r="B144" s="37"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
     </row>
     <row r="145">
-      <c r="A145" s="37"/>
-      <c r="B145" s="37"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="35"/>
     </row>
     <row r="146">
-      <c r="A146" s="37"/>
-      <c r="B146" s="37"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="35"/>
     </row>
     <row r="147">
-      <c r="A147" s="37"/>
-      <c r="B147" s="37"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="35"/>
     </row>
     <row r="148">
-      <c r="A148" s="37"/>
-      <c r="B148" s="37"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="35"/>
     </row>
     <row r="149">
-      <c r="A149" s="37"/>
-      <c r="B149" s="37"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="35"/>
     </row>
     <row r="150">
-      <c r="A150" s="37"/>
-      <c r="B150" s="37"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="35"/>
     </row>
     <row r="151">
-      <c r="A151" s="37"/>
-      <c r="B151" s="37"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
     </row>
     <row r="152">
-      <c r="A152" s="37"/>
-      <c r="B152" s="37"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="35"/>
     </row>
     <row r="153">
-      <c r="A153" s="37"/>
-      <c r="B153" s="37"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="35"/>
     </row>
     <row r="154">
-      <c r="A154" s="37"/>
-      <c r="B154" s="37"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="35"/>
     </row>
     <row r="155">
-      <c r="A155" s="37"/>
-      <c r="B155" s="37"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="35"/>
     </row>
     <row r="156">
-      <c r="A156" s="37"/>
-      <c r="B156" s="37"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
     </row>
     <row r="157">
-      <c r="A157" s="37"/>
-      <c r="B157" s="37"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
     </row>
     <row r="158">
-      <c r="A158" s="37"/>
-      <c r="B158" s="37"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="35"/>
     </row>
     <row r="159">
-      <c r="A159" s="37"/>
-      <c r="B159" s="37"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
     </row>
     <row r="160">
-      <c r="A160" s="37"/>
-      <c r="B160" s="37"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
     </row>
     <row r="161">
-      <c r="A161" s="37"/>
-      <c r="B161" s="37"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
     </row>
     <row r="162">
-      <c r="A162" s="37"/>
-      <c r="B162" s="37"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
     </row>
     <row r="163">
-      <c r="A163" s="37"/>
-      <c r="B163" s="37"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="35"/>
     </row>
     <row r="164">
-      <c r="A164" s="37"/>
-      <c r="B164" s="37"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="35"/>
     </row>
     <row r="165">
-      <c r="A165" s="37"/>
-      <c r="B165" s="37"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="35"/>
     </row>
     <row r="166">
-      <c r="A166" s="37"/>
-      <c r="B166" s="37"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="35"/>
     </row>
     <row r="167">
-      <c r="A167" s="37"/>
-      <c r="B167" s="37"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="35"/>
     </row>
     <row r="168">
-      <c r="A168" s="37"/>
-      <c r="B168" s="37"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="35"/>
     </row>
     <row r="169">
-      <c r="A169" s="37"/>
-      <c r="B169" s="37"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="35"/>
     </row>
     <row r="170">
-      <c r="A170" s="37"/>
-      <c r="B170" s="37"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="35"/>
     </row>
     <row r="171">
-      <c r="A171" s="37"/>
-      <c r="B171" s="37"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="35"/>
     </row>
     <row r="172">
-      <c r="A172" s="37"/>
-      <c r="B172" s="37"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="35"/>
     </row>
     <row r="173">
-      <c r="A173" s="37"/>
-      <c r="B173" s="37"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="35"/>
     </row>
     <row r="174">
-      <c r="A174" s="37"/>
-      <c r="B174" s="37"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="35"/>
     </row>
     <row r="175">
-      <c r="A175" s="37"/>
-      <c r="B175" s="37"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
     </row>
     <row r="176">
-      <c r="A176" s="37"/>
-      <c r="B176" s="37"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
     </row>
     <row r="177">
-      <c r="A177" s="37"/>
-      <c r="B177" s="37"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
     </row>
     <row r="178">
-      <c r="A178" s="37"/>
-      <c r="B178" s="37"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
     </row>
     <row r="179">
-      <c r="A179" s="37"/>
-      <c r="B179" s="37"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
     </row>
     <row r="180">
-      <c r="A180" s="37"/>
-      <c r="B180" s="37"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
     </row>
     <row r="181">
-      <c r="A181" s="37"/>
-      <c r="B181" s="37"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
     </row>
     <row r="182">
-      <c r="A182" s="37"/>
-      <c r="B182" s="37"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
     </row>
     <row r="183">
-      <c r="A183" s="37"/>
-      <c r="B183" s="37"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
     </row>
     <row r="184">
-      <c r="A184" s="37"/>
-      <c r="B184" s="37"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
     </row>
     <row r="185">
-      <c r="A185" s="37"/>
-      <c r="B185" s="37"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
     </row>
     <row r="186">
-      <c r="A186" s="37"/>
-      <c r="B186" s="37"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="35"/>
     </row>
     <row r="187">
-      <c r="A187" s="37"/>
-      <c r="B187" s="37"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="35"/>
     </row>
     <row r="188">
-      <c r="A188" s="37"/>
-      <c r="B188" s="37"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="35"/>
     </row>
     <row r="189">
-      <c r="A189" s="37"/>
-      <c r="B189" s="37"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="35"/>
     </row>
     <row r="190">
-      <c r="A190" s="37"/>
-      <c r="B190" s="37"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="35"/>
     </row>
     <row r="191">
-      <c r="A191" s="37"/>
-      <c r="B191" s="37"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="35"/>
     </row>
     <row r="192">
-      <c r="A192" s="37"/>
-      <c r="B192" s="37"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
     </row>
     <row r="193">
-      <c r="A193" s="37"/>
-      <c r="B193" s="37"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="35"/>
     </row>
     <row r="194">
-      <c r="A194" s="37"/>
-      <c r="B194" s="37"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="35"/>
     </row>
     <row r="195">
-      <c r="A195" s="37"/>
-      <c r="B195" s="37"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="35"/>
     </row>
     <row r="196">
-      <c r="A196" s="37"/>
-      <c r="B196" s="37"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
     </row>
     <row r="197">
-      <c r="A197" s="37"/>
-      <c r="B197" s="37"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
     </row>
     <row r="198">
-      <c r="A198" s="37"/>
-      <c r="B198" s="37"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="35"/>
     </row>
     <row r="199">
-      <c r="A199" s="37"/>
-      <c r="B199" s="37"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
     </row>
     <row r="200">
-      <c r="A200" s="37"/>
-      <c r="B200" s="37"/>
+      <c r="A200" s="35"/>
+      <c r="B200" s="35"/>
     </row>
     <row r="201">
-      <c r="A201" s="37"/>
-      <c r="B201" s="37"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
     </row>
     <row r="202">
-      <c r="A202" s="37"/>
-      <c r="B202" s="37"/>
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
     </row>
     <row r="203">
-      <c r="A203" s="37"/>
-      <c r="B203" s="37"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="35"/>
     </row>
     <row r="204">
-      <c r="A204" s="37"/>
-      <c r="B204" s="37"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
     </row>
     <row r="205">
-      <c r="A205" s="37"/>
-      <c r="B205" s="37"/>
+      <c r="A205" s="35"/>
+      <c r="B205" s="35"/>
     </row>
     <row r="206">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
+      <c r="A206" s="35"/>
+      <c r="B206" s="35"/>
     </row>
     <row r="207">
-      <c r="A207" s="37"/>
-      <c r="B207" s="37"/>
+      <c r="A207" s="35"/>
+      <c r="B207" s="35"/>
     </row>
     <row r="208">
-      <c r="A208" s="37"/>
-      <c r="B208" s="37"/>
+      <c r="A208" s="35"/>
+      <c r="B208" s="35"/>
     </row>
     <row r="209">
-      <c r="A209" s="37"/>
-      <c r="B209" s="37"/>
+      <c r="A209" s="35"/>
+      <c r="B209" s="35"/>
     </row>
     <row r="210">
-      <c r="A210" s="37"/>
-      <c r="B210" s="37"/>
+      <c r="A210" s="35"/>
+      <c r="B210" s="35"/>
     </row>
     <row r="211">
-      <c r="A211" s="37"/>
-      <c r="B211" s="37"/>
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
     </row>
     <row r="212">
-      <c r="A212" s="37"/>
-      <c r="B212" s="37"/>
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
     </row>
     <row r="213">
-      <c r="A213" s="37"/>
-      <c r="B213" s="37"/>
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
     </row>
     <row r="214">
-      <c r="A214" s="37"/>
-      <c r="B214" s="37"/>
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
     </row>
     <row r="215">
-      <c r="A215" s="37"/>
-      <c r="B215" s="37"/>
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
     </row>
     <row r="216">
-      <c r="A216" s="37"/>
-      <c r="B216" s="37"/>
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
     </row>
     <row r="217">
-      <c r="A217" s="37"/>
-      <c r="B217" s="37"/>
+      <c r="A217" s="35"/>
+      <c r="B217" s="35"/>
     </row>
     <row r="218">
-      <c r="A218" s="37"/>
-      <c r="B218" s="37"/>
+      <c r="A218" s="35"/>
+      <c r="B218" s="35"/>
     </row>
     <row r="219">
-      <c r="A219" s="37"/>
-      <c r="B219" s="37"/>
+      <c r="A219" s="35"/>
+      <c r="B219" s="35"/>
     </row>
     <row r="220">
-      <c r="A220" s="37"/>
-      <c r="B220" s="37"/>
+      <c r="A220" s="35"/>
+      <c r="B220" s="35"/>
     </row>
     <row r="221">
-      <c r="A221" s="37"/>
-      <c r="B221" s="37"/>
+      <c r="A221" s="35"/>
+      <c r="B221" s="35"/>
     </row>
     <row r="222">
-      <c r="A222" s="37"/>
-      <c r="B222" s="37"/>
+      <c r="A222" s="35"/>
+      <c r="B222" s="35"/>
     </row>
     <row r="223">
-      <c r="A223" s="37"/>
-      <c r="B223" s="37"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="35"/>
     </row>
     <row r="224">
-      <c r="A224" s="37"/>
-      <c r="B224" s="37"/>
+      <c r="A224" s="35"/>
+      <c r="B224" s="35"/>
     </row>
     <row r="225">
-      <c r="A225" s="37"/>
-      <c r="B225" s="37"/>
+      <c r="A225" s="35"/>
+      <c r="B225" s="35"/>
     </row>
     <row r="226">
-      <c r="A226" s="37"/>
-      <c r="B226" s="37"/>
+      <c r="A226" s="35"/>
+      <c r="B226" s="35"/>
     </row>
     <row r="227">
-      <c r="A227" s="37"/>
-      <c r="B227" s="37"/>
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
     </row>
     <row r="228">
-      <c r="A228" s="37"/>
-      <c r="B228" s="37"/>
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
     </row>
     <row r="229">
-      <c r="A229" s="37"/>
-      <c r="B229" s="37"/>
+      <c r="A229" s="35"/>
+      <c r="B229" s="35"/>
     </row>
     <row r="230">
-      <c r="A230" s="37"/>
-      <c r="B230" s="37"/>
+      <c r="A230" s="35"/>
+      <c r="B230" s="35"/>
     </row>
     <row r="231">
-      <c r="A231" s="37"/>
-      <c r="B231" s="37"/>
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
     </row>
     <row r="232">
-      <c r="A232" s="37"/>
-      <c r="B232" s="37"/>
+      <c r="A232" s="35"/>
+      <c r="B232" s="35"/>
     </row>
     <row r="233">
-      <c r="A233" s="37"/>
-      <c r="B233" s="37"/>
+      <c r="A233" s="35"/>
+      <c r="B233" s="35"/>
     </row>
     <row r="234">
-      <c r="A234" s="37"/>
-      <c r="B234" s="37"/>
+      <c r="A234" s="35"/>
+      <c r="B234" s="35"/>
     </row>
     <row r="235">
-      <c r="A235" s="37"/>
-      <c r="B235" s="37"/>
+      <c r="A235" s="35"/>
+      <c r="B235" s="35"/>
     </row>
     <row r="236">
-      <c r="A236" s="37"/>
-      <c r="B236" s="37"/>
+      <c r="A236" s="35"/>
+      <c r="B236" s="35"/>
     </row>
     <row r="237">
-      <c r="A237" s="37"/>
-      <c r="B237" s="37"/>
+      <c r="A237" s="35"/>
+      <c r="B237" s="35"/>
     </row>
     <row r="238">
-      <c r="A238" s="37"/>
-      <c r="B238" s="37"/>
+      <c r="A238" s="35"/>
+      <c r="B238" s="35"/>
     </row>
     <row r="239">
-      <c r="A239" s="37"/>
-      <c r="B239" s="37"/>
+      <c r="A239" s="35"/>
+      <c r="B239" s="35"/>
     </row>
     <row r="240">
-      <c r="A240" s="37"/>
-      <c r="B240" s="37"/>
+      <c r="A240" s="35"/>
+      <c r="B240" s="35"/>
     </row>
     <row r="241">
-      <c r="A241" s="37"/>
-      <c r="B241" s="37"/>
+      <c r="A241" s="35"/>
+      <c r="B241" s="35"/>
     </row>
     <row r="242">
-      <c r="A242" s="37"/>
-      <c r="B242" s="37"/>
+      <c r="A242" s="35"/>
+      <c r="B242" s="35"/>
     </row>
     <row r="243">
-      <c r="A243" s="37"/>
-      <c r="B243" s="37"/>
+      <c r="A243" s="35"/>
+      <c r="B243" s="35"/>
     </row>
     <row r="244">
-      <c r="A244" s="37"/>
-      <c r="B244" s="37"/>
+      <c r="A244" s="35"/>
+      <c r="B244" s="35"/>
     </row>
     <row r="245">
-      <c r="A245" s="37"/>
-      <c r="B245" s="37"/>
+      <c r="A245" s="35"/>
+      <c r="B245" s="35"/>
     </row>
     <row r="246">
-      <c r="A246" s="37"/>
-      <c r="B246" s="37"/>
+      <c r="A246" s="35"/>
+      <c r="B246" s="35"/>
     </row>
     <row r="247">
-      <c r="A247" s="37"/>
-      <c r="B247" s="37"/>
+      <c r="A247" s="35"/>
+      <c r="B247" s="35"/>
     </row>
     <row r="248">
-      <c r="A248" s="37"/>
-      <c r="B248" s="37"/>
+      <c r="A248" s="35"/>
+      <c r="B248" s="35"/>
     </row>
     <row r="249">
-      <c r="A249" s="37"/>
-      <c r="B249" s="37"/>
+      <c r="A249" s="35"/>
+      <c r="B249" s="35"/>
     </row>
     <row r="250">
-      <c r="A250" s="37"/>
-      <c r="B250" s="37"/>
+      <c r="A250" s="35"/>
+      <c r="B250" s="35"/>
     </row>
     <row r="251">
-      <c r="A251" s="37"/>
-      <c r="B251" s="37"/>
+      <c r="A251" s="35"/>
+      <c r="B251" s="35"/>
     </row>
     <row r="252">
-      <c r="A252" s="37"/>
-      <c r="B252" s="37"/>
+      <c r="A252" s="35"/>
+      <c r="B252" s="35"/>
     </row>
     <row r="253">
-      <c r="A253" s="37"/>
-      <c r="B253" s="37"/>
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
     </row>
     <row r="254">
-      <c r="A254" s="37"/>
-      <c r="B254" s="37"/>
+      <c r="A254" s="35"/>
+      <c r="B254" s="35"/>
     </row>
     <row r="255">
-      <c r="A255" s="37"/>
-      <c r="B255" s="37"/>
+      <c r="A255" s="35"/>
+      <c r="B255" s="35"/>
     </row>
     <row r="256">
-      <c r="A256" s="37"/>
-      <c r="B256" s="37"/>
+      <c r="A256" s="35"/>
+      <c r="B256" s="35"/>
     </row>
     <row r="257">
-      <c r="A257" s="37"/>
-      <c r="B257" s="37"/>
+      <c r="A257" s="35"/>
+      <c r="B257" s="35"/>
     </row>
     <row r="258">
-      <c r="A258" s="37"/>
-      <c r="B258" s="37"/>
+      <c r="A258" s="35"/>
+      <c r="B258" s="35"/>
     </row>
     <row r="259">
-      <c r="A259" s="37"/>
-      <c r="B259" s="37"/>
+      <c r="A259" s="35"/>
+      <c r="B259" s="35"/>
     </row>
     <row r="260">
-      <c r="A260" s="37"/>
-      <c r="B260" s="37"/>
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
     </row>
     <row r="261">
-      <c r="A261" s="37"/>
-      <c r="B261" s="37"/>
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
     </row>
     <row r="262">
-      <c r="A262" s="37"/>
-      <c r="B262" s="37"/>
+      <c r="A262" s="35"/>
+      <c r="B262" s="35"/>
     </row>
     <row r="263">
-      <c r="A263" s="37"/>
-      <c r="B263" s="37"/>
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
     </row>
     <row r="264">
-      <c r="A264" s="37"/>
-      <c r="B264" s="37"/>
+      <c r="A264" s="35"/>
+      <c r="B264" s="35"/>
     </row>
     <row r="265">
-      <c r="A265" s="37"/>
-      <c r="B265" s="37"/>
+      <c r="A265" s="35"/>
+      <c r="B265" s="35"/>
     </row>
     <row r="266">
-      <c r="A266" s="37"/>
-      <c r="B266" s="37"/>
+      <c r="A266" s="35"/>
+      <c r="B266" s="35"/>
     </row>
     <row r="267">
-      <c r="A267" s="37"/>
-      <c r="B267" s="37"/>
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
     </row>
     <row r="268">
-      <c r="A268" s="37"/>
-      <c r="B268" s="37"/>
+      <c r="A268" s="35"/>
+      <c r="B268" s="35"/>
     </row>
     <row r="269">
-      <c r="A269" s="37"/>
-      <c r="B269" s="37"/>
+      <c r="A269" s="35"/>
+      <c r="B269" s="35"/>
     </row>
     <row r="270">
-      <c r="A270" s="37"/>
-      <c r="B270" s="37"/>
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
     </row>
     <row r="271">
-      <c r="A271" s="37"/>
-      <c r="B271" s="37"/>
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
     </row>
     <row r="272">
-      <c r="A272" s="37"/>
-      <c r="B272" s="37"/>
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
     </row>
     <row r="273">
-      <c r="A273" s="37"/>
-      <c r="B273" s="37"/>
+      <c r="A273" s="35"/>
+      <c r="B273" s="35"/>
     </row>
     <row r="274">
-      <c r="A274" s="37"/>
-      <c r="B274" s="37"/>
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
     </row>
     <row r="275">
-      <c r="A275" s="37"/>
-      <c r="B275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
     </row>
     <row r="276">
-      <c r="A276" s="37"/>
-      <c r="B276" s="37"/>
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
     </row>
     <row r="277">
-      <c r="A277" s="37"/>
-      <c r="B277" s="37"/>
+      <c r="A277" s="35"/>
+      <c r="B277" s="35"/>
     </row>
     <row r="278">
-      <c r="A278" s="37"/>
-      <c r="B278" s="37"/>
+      <c r="A278" s="35"/>
+      <c r="B278" s="35"/>
     </row>
     <row r="279">
-      <c r="A279" s="37"/>
-      <c r="B279" s="37"/>
+      <c r="A279" s="35"/>
+      <c r="B279" s="35"/>
     </row>
     <row r="280">
-      <c r="A280" s="37"/>
-      <c r="B280" s="37"/>
+      <c r="A280" s="35"/>
+      <c r="B280" s="35"/>
     </row>
     <row r="281">
-      <c r="A281" s="37"/>
-      <c r="B281" s="37"/>
+      <c r="A281" s="35"/>
+      <c r="B281" s="35"/>
     </row>
     <row r="282">
-      <c r="A282" s="37"/>
-      <c r="B282" s="37"/>
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
     </row>
     <row r="283">
-      <c r="A283" s="37"/>
-      <c r="B283" s="37"/>
+      <c r="A283" s="35"/>
+      <c r="B283" s="35"/>
     </row>
     <row r="284">
-      <c r="A284" s="37"/>
-      <c r="B284" s="37"/>
+      <c r="A284" s="35"/>
+      <c r="B284" s="35"/>
     </row>
     <row r="285">
-      <c r="A285" s="37"/>
-      <c r="B285" s="37"/>
+      <c r="A285" s="35"/>
+      <c r="B285" s="35"/>
     </row>
     <row r="286">
-      <c r="A286" s="37"/>
-      <c r="B286" s="37"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="35"/>
     </row>
     <row r="287">
-      <c r="A287" s="37"/>
-      <c r="B287" s="37"/>
+      <c r="A287" s="35"/>
+      <c r="B287" s="35"/>
     </row>
     <row r="288">
-      <c r="A288" s="37"/>
-      <c r="B288" s="37"/>
+      <c r="A288" s="35"/>
+      <c r="B288" s="35"/>
     </row>
     <row r="289">
-      <c r="A289" s="37"/>
-      <c r="B289" s="37"/>
+      <c r="A289" s="35"/>
+      <c r="B289" s="35"/>
     </row>
     <row r="290">
-      <c r="A290" s="37"/>
-      <c r="B290" s="37"/>
+      <c r="A290" s="35"/>
+      <c r="B290" s="35"/>
     </row>
     <row r="291">
-      <c r="A291" s="37"/>
-      <c r="B291" s="37"/>
+      <c r="A291" s="35"/>
+      <c r="B291" s="35"/>
     </row>
     <row r="292">
-      <c r="A292" s="37"/>
-      <c r="B292" s="37"/>
+      <c r="A292" s="35"/>
+      <c r="B292" s="35"/>
     </row>
     <row r="293">
-      <c r="A293" s="37"/>
-      <c r="B293" s="37"/>
+      <c r="A293" s="35"/>
+      <c r="B293" s="35"/>
     </row>
     <row r="294">
-      <c r="A294" s="37"/>
-      <c r="B294" s="37"/>
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
     </row>
     <row r="295">
-      <c r="A295" s="37"/>
-      <c r="B295" s="37"/>
+      <c r="A295" s="35"/>
+      <c r="B295" s="35"/>
     </row>
     <row r="296">
-      <c r="A296" s="37"/>
-      <c r="B296" s="37"/>
+      <c r="A296" s="35"/>
+      <c r="B296" s="35"/>
     </row>
     <row r="297">
-      <c r="A297" s="37"/>
-      <c r="B297" s="37"/>
+      <c r="A297" s="35"/>
+      <c r="B297" s="35"/>
     </row>
     <row r="298">
-      <c r="A298" s="37"/>
-      <c r="B298" s="37"/>
+      <c r="A298" s="35"/>
+      <c r="B298" s="35"/>
     </row>
     <row r="299">
-      <c r="A299" s="37"/>
-      <c r="B299" s="37"/>
+      <c r="A299" s="35"/>
+      <c r="B299" s="35"/>
     </row>
     <row r="300">
-      <c r="A300" s="37"/>
-      <c r="B300" s="37"/>
+      <c r="A300" s="35"/>
+      <c r="B300" s="35"/>
     </row>
     <row r="301">
-      <c r="A301" s="37"/>
-      <c r="B301" s="37"/>
+      <c r="A301" s="35"/>
+      <c r="B301" s="35"/>
     </row>
     <row r="302">
-      <c r="A302" s="37"/>
-      <c r="B302" s="37"/>
+      <c r="A302" s="35"/>
+      <c r="B302" s="35"/>
     </row>
     <row r="303">
-      <c r="A303" s="37"/>
-      <c r="B303" s="37"/>
+      <c r="A303" s="35"/>
+      <c r="B303" s="35"/>
     </row>
     <row r="304">
-      <c r="A304" s="37"/>
-      <c r="B304" s="37"/>
+      <c r="A304" s="35"/>
+      <c r="B304" s="35"/>
     </row>
     <row r="305">
-      <c r="A305" s="37"/>
-      <c r="B305" s="37"/>
+      <c r="A305" s="35"/>
+      <c r="B305" s="35"/>
     </row>
     <row r="306">
-      <c r="A306" s="37"/>
-      <c r="B306" s="37"/>
+      <c r="A306" s="35"/>
+      <c r="B306" s="35"/>
     </row>
     <row r="307">
-      <c r="A307" s="37"/>
-      <c r="B307" s="37"/>
+      <c r="A307" s="35"/>
+      <c r="B307" s="35"/>
     </row>
     <row r="308">
-      <c r="A308" s="37"/>
-      <c r="B308" s="37"/>
+      <c r="A308" s="35"/>
+      <c r="B308" s="35"/>
     </row>
     <row r="309">
-      <c r="A309" s="37"/>
-      <c r="B309" s="37"/>
+      <c r="A309" s="35"/>
+      <c r="B309" s="35"/>
     </row>
     <row r="310">
-      <c r="A310" s="37"/>
-      <c r="B310" s="37"/>
+      <c r="A310" s="35"/>
+      <c r="B310" s="35"/>
     </row>
     <row r="311">
-      <c r="A311" s="37"/>
-      <c r="B311" s="37"/>
+      <c r="A311" s="35"/>
+      <c r="B311" s="35"/>
     </row>
     <row r="312">
-      <c r="A312" s="37"/>
-      <c r="B312" s="37"/>
+      <c r="A312" s="35"/>
+      <c r="B312" s="35"/>
     </row>
     <row r="313">
-      <c r="A313" s="37"/>
-      <c r="B313" s="37"/>
+      <c r="A313" s="35"/>
+      <c r="B313" s="35"/>
     </row>
     <row r="314">
-      <c r="A314" s="37"/>
-      <c r="B314" s="37"/>
+      <c r="A314" s="35"/>
+      <c r="B314" s="35"/>
     </row>
     <row r="315">
-      <c r="A315" s="37"/>
-      <c r="B315" s="37"/>
+      <c r="A315" s="35"/>
+      <c r="B315" s="35"/>
     </row>
     <row r="316">
-      <c r="A316" s="37"/>
-      <c r="B316" s="37"/>
+      <c r="A316" s="35"/>
+      <c r="B316" s="35"/>
     </row>
     <row r="317">
-      <c r="A317" s="37"/>
-      <c r="B317" s="37"/>
+      <c r="A317" s="35"/>
+      <c r="B317" s="35"/>
     </row>
     <row r="318">
-      <c r="A318" s="37"/>
-      <c r="B318" s="37"/>
+      <c r="A318" s="35"/>
+      <c r="B318" s="35"/>
     </row>
     <row r="319">
-      <c r="A319" s="37"/>
-      <c r="B319" s="37"/>
+      <c r="A319" s="35"/>
+      <c r="B319" s="35"/>
     </row>
     <row r="320">
-      <c r="A320" s="37"/>
-      <c r="B320" s="37"/>
+      <c r="A320" s="35"/>
+      <c r="B320" s="35"/>
     </row>
     <row r="321">
-      <c r="A321" s="37"/>
-      <c r="B321" s="37"/>
+      <c r="A321" s="35"/>
+      <c r="B321" s="35"/>
     </row>
     <row r="322">
-      <c r="A322" s="37"/>
-      <c r="B322" s="37"/>
+      <c r="A322" s="35"/>
+      <c r="B322" s="35"/>
     </row>
     <row r="323">
-      <c r="A323" s="37"/>
-      <c r="B323" s="37"/>
+      <c r="A323" s="35"/>
+      <c r="B323" s="35"/>
     </row>
     <row r="324">
-      <c r="A324" s="37"/>
-      <c r="B324" s="37"/>
+      <c r="A324" s="35"/>
+      <c r="B324" s="35"/>
     </row>
     <row r="325">
-      <c r="A325" s="37"/>
-      <c r="B325" s="37"/>
+      <c r="A325" s="35"/>
+      <c r="B325" s="35"/>
     </row>
     <row r="326">
-      <c r="A326" s="37"/>
-      <c r="B326" s="37"/>
+      <c r="A326" s="35"/>
+      <c r="B326" s="35"/>
     </row>
     <row r="327">
-      <c r="A327" s="37"/>
-      <c r="B327" s="37"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="35"/>
     </row>
     <row r="328">
-      <c r="A328" s="37"/>
-      <c r="B328" s="37"/>
+      <c r="A328" s="35"/>
+      <c r="B328" s="35"/>
     </row>
     <row r="329">
-      <c r="A329" s="37"/>
-      <c r="B329" s="37"/>
+      <c r="A329" s="35"/>
+      <c r="B329" s="35"/>
     </row>
     <row r="330">
-      <c r="A330" s="37"/>
-      <c r="B330" s="37"/>
+      <c r="A330" s="35"/>
+      <c r="B330" s="35"/>
     </row>
     <row r="331">
-      <c r="A331" s="37"/>
-      <c r="B331" s="37"/>
+      <c r="A331" s="35"/>
+      <c r="B331" s="35"/>
     </row>
     <row r="332">
-      <c r="A332" s="37"/>
-      <c r="B332" s="37"/>
+      <c r="A332" s="35"/>
+      <c r="B332" s="35"/>
     </row>
     <row r="333">
-      <c r="A333" s="37"/>
-      <c r="B333" s="37"/>
+      <c r="A333" s="35"/>
+      <c r="B333" s="35"/>
     </row>
     <row r="334">
-      <c r="A334" s="37"/>
-      <c r="B334" s="37"/>
+      <c r="A334" s="35"/>
+      <c r="B334" s="35"/>
     </row>
     <row r="335">
-      <c r="A335" s="37"/>
-      <c r="B335" s="37"/>
+      <c r="A335" s="35"/>
+      <c r="B335" s="35"/>
     </row>
     <row r="336">
-      <c r="A336" s="37"/>
-      <c r="B336" s="37"/>
+      <c r="A336" s="35"/>
+      <c r="B336" s="35"/>
     </row>
     <row r="337">
-      <c r="A337" s="37"/>
-      <c r="B337" s="37"/>
+      <c r="A337" s="35"/>
+      <c r="B337" s="35"/>
     </row>
     <row r="338">
-      <c r="A338" s="37"/>
-      <c r="B338" s="37"/>
+      <c r="A338" s="35"/>
+      <c r="B338" s="35"/>
     </row>
     <row r="339">
-      <c r="A339" s="37"/>
-      <c r="B339" s="37"/>
+      <c r="A339" s="35"/>
+      <c r="B339" s="35"/>
     </row>
     <row r="340">
-      <c r="A340" s="37"/>
-      <c r="B340" s="37"/>
+      <c r="A340" s="35"/>
+      <c r="B340" s="35"/>
     </row>
     <row r="341">
-      <c r="A341" s="37"/>
-      <c r="B341" s="37"/>
+      <c r="A341" s="35"/>
+      <c r="B341" s="35"/>
     </row>
     <row r="342">
-      <c r="A342" s="37"/>
-      <c r="B342" s="37"/>
+      <c r="A342" s="35"/>
+      <c r="B342" s="35"/>
     </row>
     <row r="343">
-      <c r="A343" s="37"/>
-      <c r="B343" s="37"/>
+      <c r="A343" s="35"/>
+      <c r="B343" s="35"/>
     </row>
     <row r="344">
-      <c r="A344" s="37"/>
-      <c r="B344" s="37"/>
+      <c r="A344" s="35"/>
+      <c r="B344" s="35"/>
     </row>
     <row r="345">
-      <c r="A345" s="37"/>
-      <c r="B345" s="37"/>
+      <c r="A345" s="35"/>
+      <c r="B345" s="35"/>
     </row>
     <row r="346">
-      <c r="A346" s="37"/>
-      <c r="B346" s="37"/>
+      <c r="A346" s="35"/>
+      <c r="B346" s="35"/>
     </row>
     <row r="347">
-      <c r="A347" s="37"/>
-      <c r="B347" s="37"/>
+      <c r="A347" s="35"/>
+      <c r="B347" s="35"/>
     </row>
     <row r="348">
-      <c r="A348" s="37"/>
-      <c r="B348" s="37"/>
+      <c r="A348" s="35"/>
+      <c r="B348" s="35"/>
     </row>
     <row r="349">
-      <c r="A349" s="37"/>
-      <c r="B349" s="37"/>
+      <c r="A349" s="35"/>
+      <c r="B349" s="35"/>
     </row>
     <row r="350">
-      <c r="A350" s="37"/>
-      <c r="B350" s="37"/>
+      <c r="A350" s="35"/>
+      <c r="B350" s="35"/>
     </row>
     <row r="351">
-      <c r="A351" s="37"/>
-      <c r="B351" s="37"/>
+      <c r="A351" s="35"/>
+      <c r="B351" s="35"/>
     </row>
     <row r="352">
-      <c r="A352" s="37"/>
-      <c r="B352" s="37"/>
+      <c r="A352" s="35"/>
+      <c r="B352" s="35"/>
     </row>
     <row r="353">
-      <c r="A353" s="37"/>
-      <c r="B353" s="37"/>
+      <c r="A353" s="35"/>
+      <c r="B353" s="35"/>
     </row>
     <row r="354">
-      <c r="A354" s="37"/>
-      <c r="B354" s="37"/>
+      <c r="A354" s="35"/>
+      <c r="B354" s="35"/>
     </row>
     <row r="355">
-      <c r="A355" s="37"/>
-      <c r="B355" s="37"/>
+      <c r="A355" s="35"/>
+      <c r="B355" s="35"/>
     </row>
     <row r="356">
-      <c r="A356" s="37"/>
-      <c r="B356" s="37"/>
+      <c r="A356" s="35"/>
+      <c r="B356" s="35"/>
     </row>
     <row r="357">
-      <c r="A357" s="37"/>
-      <c r="B357" s="37"/>
+      <c r="A357" s="35"/>
+      <c r="B357" s="35"/>
     </row>
     <row r="358">
-      <c r="A358" s="37"/>
-      <c r="B358" s="37"/>
+      <c r="A358" s="35"/>
+      <c r="B358" s="35"/>
     </row>
     <row r="359">
-      <c r="A359" s="37"/>
-      <c r="B359" s="37"/>
+      <c r="A359" s="35"/>
+      <c r="B359" s="35"/>
     </row>
     <row r="360">
-      <c r="A360" s="37"/>
-      <c r="B360" s="37"/>
+      <c r="A360" s="35"/>
+      <c r="B360" s="35"/>
     </row>
     <row r="361">
-      <c r="A361" s="37"/>
-      <c r="B361" s="37"/>
+      <c r="A361" s="35"/>
+      <c r="B361" s="35"/>
     </row>
     <row r="362">
-      <c r="A362" s="37"/>
-      <c r="B362" s="37"/>
+      <c r="A362" s="35"/>
+      <c r="B362" s="35"/>
     </row>
     <row r="363">
-      <c r="A363" s="37"/>
-      <c r="B363" s="37"/>
+      <c r="A363" s="35"/>
+      <c r="B363" s="35"/>
     </row>
     <row r="364">
-      <c r="A364" s="37"/>
-      <c r="B364" s="37"/>
+      <c r="A364" s="35"/>
+      <c r="B364" s="35"/>
     </row>
     <row r="365">
-      <c r="A365" s="37"/>
-      <c r="B365" s="37"/>
+      <c r="A365" s="35"/>
+      <c r="B365" s="35"/>
     </row>
     <row r="366">
-      <c r="A366" s="37"/>
-      <c r="B366" s="37"/>
+      <c r="A366" s="35"/>
+      <c r="B366" s="35"/>
     </row>
     <row r="367">
-      <c r="A367" s="37"/>
-      <c r="B367" s="37"/>
+      <c r="A367" s="35"/>
+      <c r="B367" s="35"/>
     </row>
     <row r="368">
-      <c r="A368" s="37"/>
-      <c r="B368" s="37"/>
+      <c r="A368" s="35"/>
+      <c r="B368" s="35"/>
     </row>
     <row r="369">
-      <c r="A369" s="37"/>
-      <c r="B369" s="37"/>
+      <c r="A369" s="35"/>
+      <c r="B369" s="35"/>
     </row>
     <row r="370">
-      <c r="A370" s="37"/>
-      <c r="B370" s="37"/>
+      <c r="A370" s="35"/>
+      <c r="B370" s="35"/>
     </row>
     <row r="371">
-      <c r="A371" s="37"/>
-      <c r="B371" s="37"/>
+      <c r="A371" s="35"/>
+      <c r="B371" s="35"/>
     </row>
     <row r="372">
-      <c r="A372" s="37"/>
-      <c r="B372" s="37"/>
+      <c r="A372" s="35"/>
+      <c r="B372" s="35"/>
     </row>
     <row r="373">
-      <c r="A373" s="37"/>
-      <c r="B373" s="37"/>
+      <c r="A373" s="35"/>
+      <c r="B373" s="35"/>
     </row>
     <row r="374">
-      <c r="A374" s="37"/>
-      <c r="B374" s="37"/>
+      <c r="A374" s="35"/>
+      <c r="B374" s="35"/>
     </row>
     <row r="375">
-      <c r="A375" s="37"/>
-      <c r="B375" s="37"/>
+      <c r="A375" s="35"/>
+      <c r="B375" s="35"/>
     </row>
     <row r="376">
-      <c r="A376" s="37"/>
-      <c r="B376" s="37"/>
+      <c r="A376" s="35"/>
+      <c r="B376" s="35"/>
     </row>
     <row r="377">
-      <c r="A377" s="37"/>
-      <c r="B377" s="37"/>
+      <c r="A377" s="35"/>
+      <c r="B377" s="35"/>
     </row>
     <row r="378">
-      <c r="A378" s="37"/>
-      <c r="B378" s="37"/>
+      <c r="A378" s="35"/>
+      <c r="B378" s="35"/>
     </row>
     <row r="379">
-      <c r="A379" s="37"/>
-      <c r="B379" s="37"/>
+      <c r="A379" s="35"/>
+      <c r="B379" s="35"/>
     </row>
     <row r="380">
-      <c r="A380" s="37"/>
-      <c r="B380" s="37"/>
+      <c r="A380" s="35"/>
+      <c r="B380" s="35"/>
     </row>
     <row r="381">
-      <c r="A381" s="37"/>
-      <c r="B381" s="37"/>
+      <c r="A381" s="35"/>
+      <c r="B381" s="35"/>
     </row>
     <row r="382">
-      <c r="A382" s="37"/>
-      <c r="B382" s="37"/>
+      <c r="A382" s="35"/>
+      <c r="B382" s="35"/>
     </row>
     <row r="383">
-      <c r="A383" s="37"/>
-      <c r="B383" s="37"/>
+      <c r="A383" s="35"/>
+      <c r="B383" s="35"/>
     </row>
     <row r="384">
-      <c r="A384" s="37"/>
-      <c r="B384" s="37"/>
+      <c r="A384" s="35"/>
+      <c r="B384" s="35"/>
     </row>
     <row r="385">
-      <c r="A385" s="37"/>
-      <c r="B385" s="37"/>
+      <c r="A385" s="35"/>
+      <c r="B385" s="35"/>
     </row>
     <row r="386">
-      <c r="A386" s="37"/>
-      <c r="B386" s="37"/>
+      <c r="A386" s="35"/>
+      <c r="B386" s="35"/>
     </row>
     <row r="387">
-      <c r="A387" s="37"/>
-      <c r="B387" s="37"/>
+      <c r="A387" s="35"/>
+      <c r="B387" s="35"/>
     </row>
     <row r="388">
-      <c r="A388" s="37"/>
-      <c r="B388" s="37"/>
+      <c r="A388" s="35"/>
+      <c r="B388" s="35"/>
     </row>
     <row r="389">
-      <c r="A389" s="37"/>
-      <c r="B389" s="37"/>
+      <c r="A389" s="35"/>
+      <c r="B389" s="35"/>
     </row>
     <row r="390">
-      <c r="A390" s="37"/>
-      <c r="B390" s="37"/>
+      <c r="A390" s="35"/>
+      <c r="B390" s="35"/>
     </row>
     <row r="391">
-      <c r="A391" s="37"/>
-      <c r="B391" s="37"/>
+      <c r="A391" s="35"/>
+      <c r="B391" s="35"/>
     </row>
     <row r="392">
-      <c r="A392" s="37"/>
-      <c r="B392" s="37"/>
+      <c r="A392" s="35"/>
+      <c r="B392" s="35"/>
     </row>
     <row r="393">
-      <c r="A393" s="37"/>
-      <c r="B393" s="37"/>
+      <c r="A393" s="35"/>
+      <c r="B393" s="35"/>
     </row>
     <row r="394">
-      <c r="A394" s="37"/>
-      <c r="B394" s="37"/>
+      <c r="A394" s="35"/>
+      <c r="B394" s="35"/>
     </row>
     <row r="395">
-      <c r="A395" s="37"/>
-      <c r="B395" s="37"/>
+      <c r="A395" s="35"/>
+      <c r="B395" s="35"/>
     </row>
     <row r="396">
-      <c r="A396" s="37"/>
-      <c r="B396" s="37"/>
+      <c r="A396" s="35"/>
+      <c r="B396" s="35"/>
     </row>
     <row r="397">
-      <c r="A397" s="37"/>
-      <c r="B397" s="37"/>
+      <c r="A397" s="35"/>
+      <c r="B397" s="35"/>
     </row>
     <row r="398">
-      <c r="A398" s="37"/>
-      <c r="B398" s="37"/>
+      <c r="A398" s="35"/>
+      <c r="B398" s="35"/>
     </row>
     <row r="399">
-      <c r="A399" s="37"/>
-      <c r="B399" s="37"/>
+      <c r="A399" s="35"/>
+      <c r="B399" s="35"/>
     </row>
     <row r="400">
-      <c r="A400" s="37"/>
-      <c r="B400" s="37"/>
+      <c r="A400" s="35"/>
+      <c r="B400" s="35"/>
     </row>
     <row r="401">
-      <c r="A401" s="37"/>
-      <c r="B401" s="37"/>
+      <c r="A401" s="35"/>
+      <c r="B401" s="35"/>
     </row>
     <row r="402">
-      <c r="A402" s="37"/>
-      <c r="B402" s="37"/>
+      <c r="A402" s="35"/>
+      <c r="B402" s="35"/>
     </row>
     <row r="403">
-      <c r="A403" s="37"/>
-      <c r="B403" s="37"/>
+      <c r="A403" s="35"/>
+      <c r="B403" s="35"/>
     </row>
     <row r="404">
-      <c r="A404" s="37"/>
-      <c r="B404" s="37"/>
+      <c r="A404" s="35"/>
+      <c r="B404" s="35"/>
     </row>
     <row r="405">
-      <c r="A405" s="37"/>
-      <c r="B405" s="37"/>
+      <c r="A405" s="35"/>
+      <c r="B405" s="35"/>
     </row>
     <row r="406">
-      <c r="A406" s="37"/>
-      <c r="B406" s="37"/>
+      <c r="A406" s="35"/>
+      <c r="B406" s="35"/>
     </row>
     <row r="407">
-      <c r="A407" s="37"/>
-      <c r="B407" s="37"/>
+      <c r="A407" s="35"/>
+      <c r="B407" s="35"/>
     </row>
     <row r="408">
-      <c r="A408" s="37"/>
-      <c r="B408" s="37"/>
+      <c r="A408" s="35"/>
+      <c r="B408" s="35"/>
     </row>
     <row r="409">
-      <c r="A409" s="37"/>
-      <c r="B409" s="37"/>
+      <c r="A409" s="35"/>
+      <c r="B409" s="35"/>
     </row>
     <row r="410">
-      <c r="A410" s="37"/>
-      <c r="B410" s="37"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="35"/>
     </row>
     <row r="411">
-      <c r="A411" s="37"/>
-      <c r="B411" s="37"/>
+      <c r="A411" s="35"/>
+      <c r="B411" s="35"/>
     </row>
     <row r="412">
-      <c r="A412" s="37"/>
-      <c r="B412" s="37"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="35"/>
     </row>
     <row r="413">
-      <c r="A413" s="37"/>
-      <c r="B413" s="37"/>
+      <c r="A413" s="35"/>
+      <c r="B413" s="35"/>
     </row>
     <row r="414">
-      <c r="A414" s="37"/>
-      <c r="B414" s="37"/>
+      <c r="A414" s="35"/>
+      <c r="B414" s="35"/>
     </row>
     <row r="415">
-      <c r="A415" s="37"/>
-      <c r="B415" s="37"/>
+      <c r="A415" s="35"/>
+      <c r="B415" s="35"/>
     </row>
     <row r="416">
-      <c r="A416" s="37"/>
-      <c r="B416" s="37"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="35"/>
     </row>
     <row r="417">
-      <c r="A417" s="37"/>
-      <c r="B417" s="37"/>
+      <c r="A417" s="35"/>
+      <c r="B417" s="35"/>
     </row>
     <row r="418">
-      <c r="A418" s="37"/>
-      <c r="B418" s="37"/>
+      <c r="A418" s="35"/>
+      <c r="B418" s="35"/>
     </row>
     <row r="419">
-      <c r="A419" s="37"/>
-      <c r="B419" s="37"/>
+      <c r="A419" s="35"/>
+      <c r="B419" s="35"/>
     </row>
     <row r="420">
-      <c r="A420" s="37"/>
-      <c r="B420" s="37"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="35"/>
     </row>
     <row r="421">
-      <c r="A421" s="37"/>
-      <c r="B421" s="37"/>
+      <c r="A421" s="35"/>
+      <c r="B421" s="35"/>
     </row>
     <row r="422">
-      <c r="A422" s="37"/>
-      <c r="B422" s="37"/>
+      <c r="A422" s="35"/>
+      <c r="B422" s="35"/>
     </row>
     <row r="423">
-      <c r="A423" s="37"/>
-      <c r="B423" s="37"/>
+      <c r="A423" s="35"/>
+      <c r="B423" s="35"/>
     </row>
     <row r="424">
-      <c r="A424" s="37"/>
-      <c r="B424" s="37"/>
+      <c r="A424" s="35"/>
+      <c r="B424" s="35"/>
     </row>
     <row r="425">
-      <c r="A425" s="37"/>
-      <c r="B425" s="37"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="35"/>
     </row>
     <row r="426">
-      <c r="A426" s="37"/>
-      <c r="B426" s="37"/>
+      <c r="A426" s="35"/>
+      <c r="B426" s="35"/>
     </row>
     <row r="427">
-      <c r="A427" s="37"/>
-      <c r="B427" s="37"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="35"/>
     </row>
     <row r="428">
-      <c r="A428" s="37"/>
-      <c r="B428" s="37"/>
+      <c r="A428" s="35"/>
+      <c r="B428" s="35"/>
     </row>
     <row r="429">
-      <c r="A429" s="37"/>
-      <c r="B429" s="37"/>
+      <c r="A429" s="35"/>
+      <c r="B429" s="35"/>
     </row>
     <row r="430">
-      <c r="A430" s="37"/>
-      <c r="B430" s="37"/>
+      <c r="A430" s="35"/>
+      <c r="B430" s="35"/>
     </row>
     <row r="431">
-      <c r="A431" s="37"/>
-      <c r="B431" s="37"/>
+      <c r="A431" s="35"/>
+      <c r="B431" s="35"/>
     </row>
     <row r="432">
-      <c r="A432" s="37"/>
-      <c r="B432" s="37"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="35"/>
     </row>
     <row r="433">
-      <c r="A433" s="37"/>
-      <c r="B433" s="37"/>
+      <c r="A433" s="35"/>
+      <c r="B433" s="35"/>
     </row>
     <row r="434">
-      <c r="A434" s="37"/>
-      <c r="B434" s="37"/>
+      <c r="A434" s="35"/>
+      <c r="B434" s="35"/>
     </row>
     <row r="435">
-      <c r="A435" s="37"/>
-      <c r="B435" s="37"/>
+      <c r="A435" s="35"/>
+      <c r="B435" s="35"/>
     </row>
     <row r="436">
-      <c r="A436" s="37"/>
-      <c r="B436" s="37"/>
+      <c r="A436" s="35"/>
+      <c r="B436" s="35"/>
     </row>
     <row r="437">
-      <c r="A437" s="37"/>
-      <c r="B437" s="37"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="35"/>
     </row>
     <row r="438">
-      <c r="A438" s="37"/>
-      <c r="B438" s="37"/>
+      <c r="A438" s="35"/>
+      <c r="B438" s="35"/>
     </row>
     <row r="439">
-      <c r="A439" s="37"/>
-      <c r="B439" s="37"/>
+      <c r="A439" s="35"/>
+      <c r="B439" s="35"/>
     </row>
     <row r="440">
-      <c r="A440" s="37"/>
-      <c r="B440" s="37"/>
+      <c r="A440" s="35"/>
+      <c r="B440" s="35"/>
     </row>
     <row r="441">
-      <c r="A441" s="37"/>
-      <c r="B441" s="37"/>
+      <c r="A441" s="35"/>
+      <c r="B441" s="35"/>
     </row>
     <row r="442">
-      <c r="A442" s="37"/>
-      <c r="B442" s="37"/>
+      <c r="A442" s="35"/>
+      <c r="B442" s="35"/>
     </row>
     <row r="443">
-      <c r="A443" s="37"/>
-      <c r="B443" s="37"/>
+      <c r="A443" s="35"/>
+      <c r="B443" s="35"/>
     </row>
     <row r="444">
-      <c r="A444" s="37"/>
-      <c r="B444" s="37"/>
+      <c r="A444" s="35"/>
+      <c r="B444" s="35"/>
     </row>
     <row r="445">
-      <c r="A445" s="37"/>
-      <c r="B445" s="37"/>
+      <c r="A445" s="35"/>
+      <c r="B445" s="35"/>
     </row>
     <row r="446">
-      <c r="A446" s="37"/>
-      <c r="B446" s="37"/>
+      <c r="A446" s="35"/>
+      <c r="B446" s="35"/>
     </row>
     <row r="447">
-      <c r="A447" s="37"/>
-      <c r="B447" s="37"/>
+      <c r="A447" s="35"/>
+      <c r="B447" s="35"/>
     </row>
     <row r="448">
-      <c r="A448" s="37"/>
-      <c r="B448" s="37"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="35"/>
     </row>
     <row r="449">
-      <c r="A449" s="37"/>
-      <c r="B449" s="37"/>
+      <c r="A449" s="35"/>
+      <c r="B449" s="35"/>
     </row>
     <row r="450">
-      <c r="A450" s="37"/>
-      <c r="B450" s="37"/>
+      <c r="A450" s="35"/>
+      <c r="B450" s="35"/>
     </row>
     <row r="451">
-      <c r="A451" s="37"/>
-      <c r="B451" s="37"/>
+      <c r="A451" s="35"/>
+      <c r="B451" s="35"/>
     </row>
     <row r="452">
-      <c r="A452" s="37"/>
-      <c r="B452" s="37"/>
+      <c r="A452" s="35"/>
+      <c r="B452" s="35"/>
     </row>
     <row r="453">
-      <c r="A453" s="37"/>
-      <c r="B453" s="37"/>
+      <c r="A453" s="35"/>
+      <c r="B453" s="35"/>
     </row>
     <row r="454">
-      <c r="A454" s="37"/>
-      <c r="B454" s="37"/>
+      <c r="A454" s="35"/>
+      <c r="B454" s="35"/>
     </row>
     <row r="455">
-      <c r="A455" s="37"/>
-      <c r="B455" s="37"/>
+      <c r="A455" s="35"/>
+      <c r="B455" s="35"/>
     </row>
     <row r="456">
-      <c r="A456" s="37"/>
-      <c r="B456" s="37"/>
+      <c r="A456" s="35"/>
+      <c r="B456" s="35"/>
     </row>
     <row r="457">
-      <c r="A457" s="37"/>
-      <c r="B457" s="37"/>
+      <c r="A457" s="35"/>
+      <c r="B457" s="35"/>
     </row>
     <row r="458">
-      <c r="A458" s="37"/>
-      <c r="B458" s="37"/>
+      <c r="A458" s="35"/>
+      <c r="B458" s="35"/>
     </row>
     <row r="459">
-      <c r="A459" s="37"/>
-      <c r="B459" s="37"/>
+      <c r="A459" s="35"/>
+      <c r="B459" s="35"/>
     </row>
     <row r="460">
-      <c r="A460" s="37"/>
-      <c r="B460" s="37"/>
+      <c r="A460" s="35"/>
+      <c r="B460" s="35"/>
     </row>
     <row r="461">
-      <c r="A461" s="37"/>
-      <c r="B461" s="37"/>
+      <c r="A461" s="35"/>
+      <c r="B461" s="35"/>
     </row>
     <row r="462">
-      <c r="A462" s="37"/>
-      <c r="B462" s="37"/>
+      <c r="A462" s="35"/>
+      <c r="B462" s="35"/>
     </row>
     <row r="463">
-      <c r="A463" s="37"/>
-      <c r="B463" s="37"/>
+      <c r="A463" s="35"/>
+      <c r="B463" s="35"/>
     </row>
     <row r="464">
-      <c r="A464" s="37"/>
-      <c r="B464" s="37"/>
+      <c r="A464" s="35"/>
+      <c r="B464" s="35"/>
     </row>
     <row r="465">
-      <c r="A465" s="37"/>
-      <c r="B465" s="37"/>
+      <c r="A465" s="35"/>
+      <c r="B465" s="35"/>
     </row>
     <row r="466">
-      <c r="A466" s="37"/>
-      <c r="B466" s="37"/>
+      <c r="A466" s="35"/>
+      <c r="B466" s="35"/>
     </row>
     <row r="467">
-      <c r="A467" s="37"/>
-      <c r="B467" s="37"/>
+      <c r="A467" s="35"/>
+      <c r="B467" s="35"/>
     </row>
     <row r="468">
-      <c r="A468" s="37"/>
-      <c r="B468" s="37"/>
+      <c r="A468" s="35"/>
+      <c r="B468" s="35"/>
     </row>
     <row r="469">
-      <c r="A469" s="37"/>
-      <c r="B469" s="37"/>
+      <c r="A469" s="35"/>
+      <c r="B469" s="35"/>
     </row>
     <row r="470">
-      <c r="A470" s="37"/>
-      <c r="B470" s="37"/>
+      <c r="A470" s="35"/>
+      <c r="B470" s="35"/>
     </row>
     <row r="471">
-      <c r="A471" s="37"/>
-      <c r="B471" s="37"/>
+      <c r="A471" s="35"/>
+      <c r="B471" s="35"/>
     </row>
     <row r="472">
-      <c r="A472" s="37"/>
-      <c r="B472" s="37"/>
+      <c r="A472" s="35"/>
+      <c r="B472" s="35"/>
     </row>
     <row r="473">
-      <c r="A473" s="37"/>
-      <c r="B473" s="37"/>
+      <c r="A473" s="35"/>
+      <c r="B473" s="35"/>
     </row>
     <row r="474">
-      <c r="A474" s="37"/>
-      <c r="B474" s="37"/>
+      <c r="A474" s="35"/>
+      <c r="B474" s="35"/>
     </row>
     <row r="475">
-      <c r="A475" s="37"/>
-      <c r="B475" s="37"/>
+      <c r="A475" s="35"/>
+      <c r="B475" s="35"/>
     </row>
     <row r="476">
-      <c r="A476" s="37"/>
-      <c r="B476" s="37"/>
+      <c r="A476" s="35"/>
+      <c r="B476" s="35"/>
     </row>
     <row r="477">
-      <c r="A477" s="37"/>
-      <c r="B477" s="37"/>
+      <c r="A477" s="35"/>
+      <c r="B477" s="35"/>
     </row>
     <row r="478">
-      <c r="A478" s="37"/>
-      <c r="B478" s="37"/>
+      <c r="A478" s="35"/>
+      <c r="B478" s="35"/>
     </row>
     <row r="479">
-      <c r="A479" s="37"/>
-      <c r="B479" s="37"/>
+      <c r="A479" s="35"/>
+      <c r="B479" s="35"/>
     </row>
     <row r="480">
-      <c r="A480" s="37"/>
-      <c r="B480" s="37"/>
+      <c r="A480" s="35"/>
+      <c r="B480" s="35"/>
     </row>
     <row r="481">
-      <c r="A481" s="37"/>
-      <c r="B481" s="37"/>
+      <c r="A481" s="35"/>
+      <c r="B481" s="35"/>
     </row>
     <row r="482">
-      <c r="A482" s="37"/>
-      <c r="B482" s="37"/>
+      <c r="A482" s="35"/>
+      <c r="B482" s="35"/>
     </row>
     <row r="483">
-      <c r="A483" s="37"/>
-      <c r="B483" s="37"/>
+      <c r="A483" s="35"/>
+      <c r="B483" s="35"/>
     </row>
     <row r="484">
-      <c r="A484" s="37"/>
-      <c r="B484" s="37"/>
+      <c r="A484" s="35"/>
+      <c r="B484" s="35"/>
     </row>
     <row r="485">
-      <c r="A485" s="37"/>
-      <c r="B485" s="37"/>
+      <c r="A485" s="35"/>
+      <c r="B485" s="35"/>
     </row>
     <row r="486">
-      <c r="A486" s="37"/>
-      <c r="B486" s="37"/>
+      <c r="A486" s="35"/>
+      <c r="B486" s="35"/>
     </row>
     <row r="487">
-      <c r="A487" s="37"/>
-      <c r="B487" s="37"/>
+      <c r="A487" s="35"/>
+      <c r="B487" s="35"/>
     </row>
     <row r="488">
-      <c r="A488" s="37"/>
-      <c r="B488" s="37"/>
+      <c r="A488" s="35"/>
+      <c r="B488" s="35"/>
     </row>
     <row r="489">
-      <c r="A489" s="37"/>
-      <c r="B489" s="37"/>
+      <c r="A489" s="35"/>
+      <c r="B489" s="35"/>
     </row>
     <row r="490">
-      <c r="A490" s="37"/>
-      <c r="B490" s="37"/>
+      <c r="A490" s="35"/>
+      <c r="B490" s="35"/>
     </row>
     <row r="491">
-      <c r="A491" s="37"/>
-      <c r="B491" s="37"/>
+      <c r="A491" s="35"/>
+      <c r="B491" s="35"/>
     </row>
     <row r="492">
-      <c r="A492" s="37"/>
-      <c r="B492" s="37"/>
+      <c r="A492" s="35"/>
+      <c r="B492" s="35"/>
     </row>
     <row r="493">
-      <c r="A493" s="37"/>
-      <c r="B493" s="37"/>
+      <c r="A493" s="35"/>
+      <c r="B493" s="35"/>
     </row>
     <row r="494">
-      <c r="A494" s="37"/>
-      <c r="B494" s="37"/>
+      <c r="A494" s="35"/>
+      <c r="B494" s="35"/>
     </row>
     <row r="495">
-      <c r="A495" s="37"/>
-      <c r="B495" s="37"/>
+      <c r="A495" s="35"/>
+      <c r="B495" s="35"/>
     </row>
     <row r="496">
-      <c r="A496" s="37"/>
-      <c r="B496" s="37"/>
+      <c r="A496" s="35"/>
+      <c r="B496" s="35"/>
     </row>
     <row r="497">
-      <c r="A497" s="37"/>
-      <c r="B497" s="37"/>
+      <c r="A497" s="35"/>
+      <c r="B497" s="35"/>
     </row>
     <row r="498">
-      <c r="A498" s="37"/>
-      <c r="B498" s="37"/>
+      <c r="A498" s="35"/>
+      <c r="B498" s="35"/>
     </row>
     <row r="499">
-      <c r="A499" s="37"/>
-      <c r="B499" s="37"/>
+      <c r="A499" s="35"/>
+      <c r="B499" s="35"/>
     </row>
     <row r="500">
-      <c r="A500" s="37"/>
-      <c r="B500" s="37"/>
+      <c r="A500" s="35"/>
+      <c r="B500" s="35"/>
     </row>
     <row r="501">
-      <c r="A501" s="37"/>
-      <c r="B501" s="37"/>
+      <c r="A501" s="35"/>
+      <c r="B501" s="35"/>
     </row>
     <row r="502">
-      <c r="A502" s="37"/>
-      <c r="B502" s="37"/>
+      <c r="A502" s="35"/>
+      <c r="B502" s="35"/>
     </row>
     <row r="503">
-      <c r="A503" s="37"/>
-      <c r="B503" s="37"/>
+      <c r="A503" s="35"/>
+      <c r="B503" s="35"/>
     </row>
     <row r="504">
-      <c r="A504" s="37"/>
-      <c r="B504" s="37"/>
+      <c r="A504" s="35"/>
+      <c r="B504" s="35"/>
     </row>
     <row r="505">
-      <c r="A505" s="37"/>
-      <c r="B505" s="37"/>
+      <c r="A505" s="35"/>
+      <c r="B505" s="35"/>
     </row>
     <row r="506">
-      <c r="A506" s="37"/>
-      <c r="B506" s="37"/>
+      <c r="A506" s="35"/>
+      <c r="B506" s="35"/>
     </row>
     <row r="507">
-      <c r="A507" s="37"/>
-      <c r="B507" s="37"/>
+      <c r="A507" s="35"/>
+      <c r="B507" s="35"/>
     </row>
     <row r="508">
-      <c r="A508" s="37"/>
-      <c r="B508" s="37"/>
+      <c r="A508" s="35"/>
+      <c r="B508" s="35"/>
     </row>
     <row r="509">
-      <c r="A509" s="37"/>
-      <c r="B509" s="37"/>
+      <c r="A509" s="35"/>
+      <c r="B509" s="35"/>
     </row>
     <row r="510">
-      <c r="A510" s="37"/>
-      <c r="B510" s="37"/>
+      <c r="A510" s="35"/>
+      <c r="B510" s="35"/>
     </row>
     <row r="511">
-      <c r="A511" s="37"/>
-      <c r="B511" s="37"/>
+      <c r="A511" s="35"/>
+      <c r="B511" s="35"/>
     </row>
     <row r="512">
-      <c r="A512" s="37"/>
-      <c r="B512" s="37"/>
+      <c r="A512" s="35"/>
+      <c r="B512" s="35"/>
     </row>
     <row r="513">
-      <c r="A513" s="37"/>
-      <c r="B513" s="37"/>
+      <c r="A513" s="35"/>
+      <c r="B513" s="35"/>
     </row>
     <row r="514">
-      <c r="A514" s="37"/>
-      <c r="B514" s="37"/>
+      <c r="A514" s="35"/>
+      <c r="B514" s="35"/>
     </row>
     <row r="515">
-      <c r="A515" s="37"/>
-      <c r="B515" s="37"/>
+      <c r="A515" s="35"/>
+      <c r="B515" s="35"/>
     </row>
     <row r="516">
-      <c r="A516" s="37"/>
-      <c r="B516" s="37"/>
+      <c r="A516" s="35"/>
+      <c r="B516" s="35"/>
     </row>
     <row r="517">
-      <c r="A517" s="37"/>
-      <c r="B517" s="37"/>
+      <c r="A517" s="35"/>
+      <c r="B517" s="35"/>
     </row>
     <row r="518">
-      <c r="A518" s="37"/>
-      <c r="B518" s="37"/>
+      <c r="A518" s="35"/>
+      <c r="B518" s="35"/>
     </row>
     <row r="519">
-      <c r="A519" s="37"/>
-      <c r="B519" s="37"/>
+      <c r="A519" s="35"/>
+      <c r="B519" s="35"/>
     </row>
     <row r="520">
-      <c r="A520" s="37"/>
-      <c r="B520" s="37"/>
+      <c r="A520" s="35"/>
+      <c r="B520" s="35"/>
     </row>
     <row r="521">
-      <c r="A521" s="37"/>
-      <c r="B521" s="37"/>
+      <c r="A521" s="35"/>
+      <c r="B521" s="35"/>
     </row>
     <row r="522">
-      <c r="A522" s="37"/>
-      <c r="B522" s="37"/>
+      <c r="A522" s="35"/>
+      <c r="B522" s="35"/>
     </row>
     <row r="523">
-      <c r="A523" s="37"/>
-      <c r="B523" s="37"/>
+      <c r="A523" s="35"/>
+      <c r="B523" s="35"/>
     </row>
     <row r="524">
-      <c r="A524" s="37"/>
-      <c r="B524" s="37"/>
+      <c r="A524" s="35"/>
+      <c r="B524" s="35"/>
     </row>
     <row r="525">
-      <c r="A525" s="37"/>
-      <c r="B525" s="37"/>
+      <c r="A525" s="35"/>
+      <c r="B525" s="35"/>
     </row>
     <row r="526">
-      <c r="A526" s="37"/>
-      <c r="B526" s="37"/>
+      <c r="A526" s="35"/>
+      <c r="B526" s="35"/>
     </row>
     <row r="527">
-      <c r="A527" s="37"/>
-      <c r="B527" s="37"/>
+      <c r="A527" s="35"/>
+      <c r="B527" s="35"/>
     </row>
     <row r="528">
-      <c r="A528" s="37"/>
-      <c r="B528" s="37"/>
+      <c r="A528" s="35"/>
+      <c r="B528" s="35"/>
     </row>
     <row r="529">
-      <c r="A529" s="37"/>
-      <c r="B529" s="37"/>
+      <c r="A529" s="35"/>
+      <c r="B529" s="35"/>
     </row>
     <row r="530">
-      <c r="A530" s="37"/>
-      <c r="B530" s="37"/>
+      <c r="A530" s="35"/>
+      <c r="B530" s="35"/>
     </row>
     <row r="531">
-      <c r="A531" s="37"/>
-      <c r="B531" s="37"/>
+      <c r="A531" s="35"/>
+      <c r="B531" s="35"/>
     </row>
     <row r="532">
-      <c r="A532" s="37"/>
-      <c r="B532" s="37"/>
+      <c r="A532" s="35"/>
+      <c r="B532" s="35"/>
     </row>
     <row r="533">
-      <c r="A533" s="37"/>
-      <c r="B533" s="37"/>
+      <c r="A533" s="35"/>
+      <c r="B533" s="35"/>
     </row>
     <row r="534">
-      <c r="A534" s="37"/>
-      <c r="B534" s="37"/>
+      <c r="A534" s="35"/>
+      <c r="B534" s="35"/>
     </row>
     <row r="535">
-      <c r="A535" s="37"/>
-      <c r="B535" s="37"/>
+      <c r="A535" s="35"/>
+      <c r="B535" s="35"/>
     </row>
     <row r="536">
-      <c r="A536" s="37"/>
-      <c r="B536" s="37"/>
+      <c r="A536" s="35"/>
+      <c r="B536" s="35"/>
     </row>
     <row r="537">
-      <c r="A537" s="37"/>
-      <c r="B537" s="37"/>
+      <c r="A537" s="35"/>
+      <c r="B537" s="35"/>
     </row>
     <row r="538">
-      <c r="A538" s="37"/>
-      <c r="B538" s="37"/>
+      <c r="A538" s="35"/>
+      <c r="B538" s="35"/>
     </row>
     <row r="539">
-      <c r="A539" s="37"/>
-      <c r="B539" s="37"/>
+      <c r="A539" s="35"/>
+      <c r="B539" s="35"/>
     </row>
     <row r="540">
-      <c r="A540" s="37"/>
-      <c r="B540" s="37"/>
+      <c r="A540" s="35"/>
+      <c r="B540" s="35"/>
     </row>
     <row r="541">
-      <c r="A541" s="37"/>
-      <c r="B541" s="37"/>
+      <c r="A541" s="35"/>
+      <c r="B541" s="35"/>
     </row>
     <row r="542">
-      <c r="A542" s="37"/>
-      <c r="B542" s="37"/>
+      <c r="A542" s="35"/>
+      <c r="B542" s="35"/>
     </row>
     <row r="543">
-      <c r="A543" s="37"/>
-      <c r="B543" s="37"/>
+      <c r="A543" s="35"/>
+      <c r="B543" s="35"/>
     </row>
     <row r="544">
-      <c r="A544" s="37"/>
-      <c r="B544" s="37"/>
+      <c r="A544" s="35"/>
+      <c r="B544" s="35"/>
     </row>
     <row r="545">
-      <c r="A545" s="37"/>
-      <c r="B545" s="37"/>
+      <c r="A545" s="35"/>
+      <c r="B545" s="35"/>
     </row>
     <row r="546">
-      <c r="A546" s="37"/>
-      <c r="B546" s="37"/>
+      <c r="A546" s="35"/>
+      <c r="B546" s="35"/>
     </row>
     <row r="547">
-      <c r="A547" s="37"/>
-      <c r="B547" s="37"/>
+      <c r="A547" s="35"/>
+      <c r="B547" s="35"/>
     </row>
     <row r="548">
-      <c r="A548" s="37"/>
-      <c r="B548" s="37"/>
+      <c r="A548" s="35"/>
+      <c r="B548" s="35"/>
     </row>
     <row r="549">
-      <c r="A549" s="37"/>
-      <c r="B549" s="37"/>
+      <c r="A549" s="35"/>
+      <c r="B549" s="35"/>
     </row>
     <row r="550">
-      <c r="A550" s="37"/>
-      <c r="B550" s="37"/>
+      <c r="A550" s="35"/>
+      <c r="B550" s="35"/>
     </row>
     <row r="551">
-      <c r="A551" s="37"/>
-      <c r="B551" s="37"/>
+      <c r="A551" s="35"/>
+      <c r="B551" s="35"/>
     </row>
     <row r="552">
-      <c r="A552" s="37"/>
-      <c r="B552" s="37"/>
+      <c r="A552" s="35"/>
+      <c r="B552" s="35"/>
     </row>
     <row r="553">
-      <c r="A553" s="37"/>
-      <c r="B553" s="37"/>
+      <c r="A553" s="35"/>
+      <c r="B553" s="35"/>
     </row>
     <row r="554">
-      <c r="A554" s="37"/>
-      <c r="B554" s="37"/>
+      <c r="A554" s="35"/>
+      <c r="B554" s="35"/>
     </row>
     <row r="555">
-      <c r="A555" s="37"/>
-      <c r="B555" s="37"/>
+      <c r="A555" s="35"/>
+      <c r="B555" s="35"/>
     </row>
     <row r="556">
-      <c r="A556" s="37"/>
-      <c r="B556" s="37"/>
+      <c r="A556" s="35"/>
+      <c r="B556" s="35"/>
     </row>
     <row r="557">
-      <c r="A557" s="37"/>
-      <c r="B557" s="37"/>
+      <c r="A557" s="35"/>
+      <c r="B557" s="35"/>
     </row>
     <row r="558">
-      <c r="A558" s="37"/>
-      <c r="B558" s="37"/>
+      <c r="A558" s="35"/>
+      <c r="B558" s="35"/>
     </row>
     <row r="559">
-      <c r="A559" s="37"/>
-      <c r="B559" s="37"/>
+      <c r="A559" s="35"/>
+      <c r="B559" s="35"/>
     </row>
     <row r="560">
-      <c r="A560" s="37"/>
-      <c r="B560" s="37"/>
+      <c r="A560" s="35"/>
+      <c r="B560" s="35"/>
     </row>
     <row r="561">
-      <c r="A561" s="37"/>
-      <c r="B561" s="37"/>
+      <c r="A561" s="35"/>
+      <c r="B561" s="35"/>
     </row>
     <row r="562">
-      <c r="A562" s="37"/>
-      <c r="B562" s="37"/>
+      <c r="A562" s="35"/>
+      <c r="B562" s="35"/>
     </row>
     <row r="563">
-      <c r="A563" s="37"/>
-      <c r="B563" s="37"/>
+      <c r="A563" s="35"/>
+      <c r="B563" s="35"/>
     </row>
     <row r="564">
-      <c r="A564" s="37"/>
-      <c r="B564" s="37"/>
+      <c r="A564" s="35"/>
+      <c r="B564" s="35"/>
     </row>
     <row r="565">
-      <c r="A565" s="37"/>
-      <c r="B565" s="37"/>
+      <c r="A565" s="35"/>
+      <c r="B565" s="35"/>
     </row>
     <row r="566">
-      <c r="A566" s="37"/>
-      <c r="B566" s="37"/>
+      <c r="A566" s="35"/>
+      <c r="B566" s="35"/>
     </row>
     <row r="567">
-      <c r="A567" s="37"/>
-      <c r="B567" s="37"/>
+      <c r="A567" s="35"/>
+      <c r="B567" s="35"/>
     </row>
     <row r="568">
-      <c r="A568" s="37"/>
-      <c r="B568" s="37"/>
+      <c r="A568" s="35"/>
+      <c r="B568" s="35"/>
     </row>
     <row r="569">
-      <c r="A569" s="37"/>
-      <c r="B569" s="37"/>
+      <c r="A569" s="35"/>
+      <c r="B569" s="35"/>
     </row>
     <row r="570">
-      <c r="A570" s="37"/>
-      <c r="B570" s="37"/>
+      <c r="A570" s="35"/>
+      <c r="B570" s="35"/>
     </row>
     <row r="571">
-      <c r="A571" s="37"/>
-      <c r="B571" s="37"/>
+      <c r="A571" s="35"/>
+      <c r="B571" s="35"/>
     </row>
     <row r="572">
-      <c r="A572" s="37"/>
-      <c r="B572" s="37"/>
+      <c r="A572" s="35"/>
+      <c r="B572" s="35"/>
     </row>
     <row r="573">
-      <c r="A573" s="37"/>
-      <c r="B573" s="37"/>
+      <c r="A573" s="35"/>
+      <c r="B573" s="35"/>
     </row>
     <row r="574">
-      <c r="A574" s="37"/>
-      <c r="B574" s="37"/>
+      <c r="A574" s="35"/>
+      <c r="B574" s="35"/>
     </row>
     <row r="575">
-      <c r="A575" s="37"/>
-      <c r="B575" s="37"/>
+      <c r="A575" s="35"/>
+      <c r="B575" s="35"/>
     </row>
     <row r="576">
-      <c r="A576" s="37"/>
-      <c r="B576" s="37"/>
+      <c r="A576" s="35"/>
+      <c r="B576" s="35"/>
     </row>
     <row r="577">
-      <c r="A577" s="37"/>
-      <c r="B577" s="37"/>
+      <c r="A577" s="35"/>
+      <c r="B577" s="35"/>
     </row>
     <row r="578">
-      <c r="A578" s="37"/>
-      <c r="B578" s="37"/>
+      <c r="A578" s="35"/>
+      <c r="B578" s="35"/>
     </row>
     <row r="579">
-      <c r="A579" s="37"/>
-      <c r="B579" s="37"/>
+      <c r="A579" s="35"/>
+      <c r="B579" s="35"/>
     </row>
     <row r="580">
-      <c r="A580" s="37"/>
-      <c r="B580" s="37"/>
+      <c r="A580" s="35"/>
+      <c r="B580" s="35"/>
     </row>
     <row r="581">
-      <c r="A581" s="37"/>
-      <c r="B581" s="37"/>
+      <c r="A581" s="35"/>
+      <c r="B581" s="35"/>
     </row>
     <row r="582">
-      <c r="A582" s="37"/>
-      <c r="B582" s="37"/>
+      <c r="A582" s="35"/>
+      <c r="B582" s="35"/>
     </row>
     <row r="583">
-      <c r="A583" s="37"/>
-      <c r="B583" s="37"/>
+      <c r="A583" s="35"/>
+      <c r="B583" s="35"/>
     </row>
     <row r="584">
-      <c r="A584" s="37"/>
-      <c r="B584" s="37"/>
+      <c r="A584" s="35"/>
+      <c r="B584" s="35"/>
     </row>
     <row r="585">
-      <c r="A585" s="37"/>
-      <c r="B585" s="37"/>
+      <c r="A585" s="35"/>
+      <c r="B585" s="35"/>
     </row>
     <row r="586">
-      <c r="A586" s="37"/>
-      <c r="B586" s="37"/>
+      <c r="A586" s="35"/>
+      <c r="B586" s="35"/>
     </row>
     <row r="587">
-      <c r="A587" s="37"/>
-      <c r="B587" s="37"/>
+      <c r="A587" s="35"/>
+      <c r="B587" s="35"/>
     </row>
     <row r="588">
-      <c r="A588" s="37"/>
-      <c r="B588" s="37"/>
+      <c r="A588" s="35"/>
+      <c r="B588" s="35"/>
     </row>
     <row r="589">
-      <c r="A589" s="37"/>
-      <c r="B589" s="37"/>
+      <c r="A589" s="35"/>
+      <c r="B589" s="35"/>
     </row>
     <row r="590">
-      <c r="A590" s="37"/>
-      <c r="B590" s="37"/>
+      <c r="A590" s="35"/>
+      <c r="B590" s="35"/>
     </row>
     <row r="591">
-      <c r="A591" s="37"/>
-      <c r="B591" s="37"/>
+      <c r="A591" s="35"/>
+      <c r="B591" s="35"/>
     </row>
     <row r="592">
-      <c r="A592" s="37"/>
-      <c r="B592" s="37"/>
+      <c r="A592" s="35"/>
+      <c r="B592" s="35"/>
     </row>
     <row r="593">
-      <c r="A593" s="37"/>
-      <c r="B593" s="37"/>
+      <c r="A593" s="35"/>
+      <c r="B593" s="35"/>
     </row>
     <row r="594">
-      <c r="A594" s="37"/>
-      <c r="B594" s="37"/>
+      <c r="A594" s="35"/>
+      <c r="B594" s="35"/>
     </row>
     <row r="595">
-      <c r="A595" s="37"/>
-      <c r="B595" s="37"/>
+      <c r="A595" s="35"/>
+      <c r="B595" s="35"/>
     </row>
     <row r="596">
-      <c r="A596" s="37"/>
-      <c r="B596" s="37"/>
+      <c r="A596" s="35"/>
+      <c r="B596" s="35"/>
     </row>
     <row r="597">
-      <c r="A597" s="37"/>
-      <c r="B597" s="37"/>
+      <c r="A597" s="35"/>
+      <c r="B597" s="35"/>
     </row>
     <row r="598">
-      <c r="A598" s="37"/>
-      <c r="B598" s="37"/>
+      <c r="A598" s="35"/>
+      <c r="B598" s="35"/>
     </row>
     <row r="599">
-      <c r="A599" s="37"/>
-      <c r="B599" s="37"/>
+      <c r="A599" s="35"/>
+      <c r="B599" s="35"/>
     </row>
     <row r="600">
-      <c r="A600" s="37"/>
-      <c r="B600" s="37"/>
+      <c r="A600" s="35"/>
+      <c r="B600" s="35"/>
     </row>
     <row r="601">
-      <c r="A601" s="37"/>
-      <c r="B601" s="37"/>
+      <c r="A601" s="35"/>
+      <c r="B601" s="35"/>
     </row>
     <row r="602">
-      <c r="A602" s="37"/>
-      <c r="B602" s="37"/>
+      <c r="A602" s="35"/>
+      <c r="B602" s="35"/>
     </row>
     <row r="603">
-      <c r="A603" s="37"/>
-      <c r="B603" s="37"/>
+      <c r="A603" s="35"/>
+      <c r="B603" s="35"/>
     </row>
     <row r="604">
-      <c r="A604" s="37"/>
-      <c r="B604" s="37"/>
+      <c r="A604" s="35"/>
+      <c r="B604" s="35"/>
     </row>
     <row r="605">
-      <c r="A605" s="37"/>
-      <c r="B605" s="37"/>
+      <c r="A605" s="35"/>
+      <c r="B605" s="35"/>
     </row>
     <row r="606">
-      <c r="A606" s="37"/>
-      <c r="B606" s="37"/>
+      <c r="A606" s="35"/>
+      <c r="B606" s="35"/>
     </row>
     <row r="607">
-      <c r="A607" s="37"/>
-      <c r="B607" s="37"/>
+      <c r="A607" s="35"/>
+      <c r="B607" s="35"/>
     </row>
     <row r="608">
-      <c r="A608" s="37"/>
-      <c r="B608" s="37"/>
+      <c r="A608" s="35"/>
+      <c r="B608" s="35"/>
     </row>
     <row r="609">
-      <c r="A609" s="37"/>
-      <c r="B609" s="37"/>
+      <c r="A609" s="35"/>
+      <c r="B609" s="35"/>
     </row>
     <row r="610">
-      <c r="A610" s="37"/>
-      <c r="B610" s="37"/>
+      <c r="A610" s="35"/>
+      <c r="B610" s="35"/>
     </row>
     <row r="611">
-      <c r="A611" s="37"/>
-      <c r="B611" s="37"/>
+      <c r="A611" s="35"/>
+      <c r="B611" s="35"/>
     </row>
     <row r="612">
-      <c r="A612" s="37"/>
-      <c r="B612" s="37"/>
+      <c r="A612" s="35"/>
+      <c r="B612" s="35"/>
     </row>
     <row r="613">
-      <c r="A613" s="37"/>
-      <c r="B613" s="37"/>
+      <c r="A613" s="35"/>
+      <c r="B613" s="35"/>
     </row>
     <row r="614">
-      <c r="A614" s="37"/>
-      <c r="B614" s="37"/>
+      <c r="A614" s="35"/>
+      <c r="B614" s="35"/>
     </row>
     <row r="615">
-      <c r="A615" s="37"/>
-      <c r="B615" s="37"/>
+      <c r="A615" s="35"/>
+      <c r="B615" s="35"/>
     </row>
     <row r="616">
-      <c r="A616" s="37"/>
-      <c r="B616" s="37"/>
+      <c r="A616" s="35"/>
+      <c r="B616" s="35"/>
     </row>
     <row r="617">
-      <c r="A617" s="37"/>
-      <c r="B617" s="37"/>
+      <c r="A617" s="35"/>
+      <c r="B617" s="35"/>
     </row>
     <row r="618">
-      <c r="A618" s="37"/>
-      <c r="B618" s="37"/>
+      <c r="A618" s="35"/>
+      <c r="B618" s="35"/>
     </row>
     <row r="619">
-      <c r="A619" s="37"/>
-      <c r="B619" s="37"/>
+      <c r="A619" s="35"/>
+      <c r="B619" s="35"/>
     </row>
     <row r="620">
-      <c r="A620" s="37"/>
-      <c r="B620" s="37"/>
+      <c r="A620" s="35"/>
+      <c r="B620" s="35"/>
     </row>
     <row r="621">
-      <c r="A621" s="37"/>
-      <c r="B621" s="37"/>
+      <c r="A621" s="35"/>
+      <c r="B621" s="35"/>
     </row>
     <row r="622">
-      <c r="A622" s="37"/>
-      <c r="B622" s="37"/>
+      <c r="A622" s="35"/>
+      <c r="B622" s="35"/>
     </row>
     <row r="623">
-      <c r="A623" s="37"/>
-      <c r="B623" s="37"/>
+      <c r="A623" s="35"/>
+      <c r="B623" s="35"/>
     </row>
     <row r="624">
-      <c r="A624" s="37"/>
-      <c r="B624" s="37"/>
+      <c r="A624" s="35"/>
+      <c r="B624" s="35"/>
     </row>
     <row r="625">
-      <c r="A625" s="37"/>
-      <c r="B625" s="37"/>
+      <c r="A625" s="35"/>
+      <c r="B625" s="35"/>
     </row>
     <row r="626">
-      <c r="A626" s="37"/>
-      <c r="B626" s="37"/>
+      <c r="A626" s="35"/>
+      <c r="B626" s="35"/>
     </row>
     <row r="627">
-      <c r="A627" s="37"/>
-      <c r="B627" s="37"/>
+      <c r="A627" s="35"/>
+      <c r="B627" s="35"/>
     </row>
     <row r="628">
-      <c r="A628" s="37"/>
-      <c r="B628" s="37"/>
+      <c r="A628" s="35"/>
+      <c r="B628" s="35"/>
     </row>
     <row r="629">
-      <c r="A629" s="37"/>
-      <c r="B629" s="37"/>
+      <c r="A629" s="35"/>
+      <c r="B629" s="35"/>
     </row>
     <row r="630">
-      <c r="A630" s="37"/>
-      <c r="B630" s="37"/>
+      <c r="A630" s="35"/>
+      <c r="B630" s="35"/>
     </row>
     <row r="631">
-      <c r="A631" s="37"/>
-      <c r="B631" s="37"/>
+      <c r="A631" s="35"/>
+      <c r="B631" s="35"/>
     </row>
     <row r="632">
-      <c r="A632" s="37"/>
-      <c r="B632" s="37"/>
+      <c r="A632" s="35"/>
+      <c r="B632" s="35"/>
     </row>
     <row r="633">
-      <c r="A633" s="37"/>
-      <c r="B633" s="37"/>
+      <c r="A633" s="35"/>
+      <c r="B633" s="35"/>
     </row>
     <row r="634">
-      <c r="A634" s="37"/>
-      <c r="B634" s="37"/>
+      <c r="A634" s="35"/>
+      <c r="B634" s="35"/>
     </row>
     <row r="635">
-      <c r="A635" s="37"/>
-      <c r="B635" s="37"/>
+      <c r="A635" s="35"/>
+      <c r="B635" s="35"/>
     </row>
     <row r="636">
-      <c r="A636" s="37"/>
-      <c r="B636" s="37"/>
+      <c r="A636" s="35"/>
+      <c r="B636" s="35"/>
     </row>
     <row r="637">
-      <c r="A637" s="37"/>
-      <c r="B637" s="37"/>
+      <c r="A637" s="35"/>
+      <c r="B637" s="35"/>
     </row>
     <row r="638">
-      <c r="A638" s="37"/>
-      <c r="B638" s="37"/>
+      <c r="A638" s="35"/>
+      <c r="B638" s="35"/>
     </row>
     <row r="639">
-      <c r="A639" s="37"/>
-      <c r="B639" s="37"/>
+      <c r="A639" s="35"/>
+      <c r="B639" s="35"/>
     </row>
     <row r="640">
-      <c r="A640" s="37"/>
-      <c r="B640" s="37"/>
+      <c r="A640" s="35"/>
+      <c r="B640" s="35"/>
     </row>
     <row r="641">
-      <c r="A641" s="37"/>
-      <c r="B641" s="37"/>
+      <c r="A641" s="35"/>
+      <c r="B641" s="35"/>
     </row>
     <row r="642">
-      <c r="A642" s="37"/>
-      <c r="B642" s="37"/>
+      <c r="A642" s="35"/>
+      <c r="B642" s="35"/>
     </row>
     <row r="643">
-      <c r="A643" s="37"/>
-      <c r="B643" s="37"/>
+      <c r="A643" s="35"/>
+      <c r="B643" s="35"/>
     </row>
     <row r="644">
-      <c r="A644" s="37"/>
-      <c r="B644" s="37"/>
+      <c r="A644" s="35"/>
+      <c r="B644" s="35"/>
     </row>
     <row r="645">
-      <c r="A645" s="37"/>
-      <c r="B645" s="37"/>
+      <c r="A645" s="35"/>
+      <c r="B645" s="35"/>
     </row>
     <row r="646">
-      <c r="A646" s="37"/>
-      <c r="B646" s="37"/>
+      <c r="A646" s="35"/>
+      <c r="B646" s="35"/>
     </row>
     <row r="647">
-      <c r="A647" s="37"/>
-      <c r="B647" s="37"/>
+      <c r="A647" s="35"/>
+      <c r="B647" s="35"/>
     </row>
     <row r="648">
-      <c r="A648" s="37"/>
-      <c r="B648" s="37"/>
+      <c r="A648" s="35"/>
+      <c r="B648" s="35"/>
     </row>
     <row r="649">
-      <c r="A649" s="37"/>
-      <c r="B649" s="37"/>
+      <c r="A649" s="35"/>
+      <c r="B649" s="35"/>
     </row>
     <row r="650">
-      <c r="A650" s="37"/>
-      <c r="B650" s="37"/>
+      <c r="A650" s="35"/>
+      <c r="B650" s="35"/>
     </row>
     <row r="651">
-      <c r="A651" s="37"/>
-      <c r="B651" s="37"/>
+      <c r="A651" s="35"/>
+      <c r="B651" s="35"/>
     </row>
     <row r="652">
-      <c r="A652" s="37"/>
-      <c r="B652" s="37"/>
+      <c r="A652" s="35"/>
+      <c r="B652" s="35"/>
     </row>
     <row r="653">
-      <c r="A653" s="37"/>
-      <c r="B653" s="37"/>
+      <c r="A653" s="35"/>
+      <c r="B653" s="35"/>
     </row>
     <row r="654">
-      <c r="A654" s="37"/>
-      <c r="B654" s="37"/>
+      <c r="A654" s="35"/>
+      <c r="B654" s="35"/>
     </row>
     <row r="655">
-      <c r="A655" s="37"/>
-      <c r="B655" s="37"/>
+      <c r="A655" s="35"/>
+      <c r="B655" s="35"/>
     </row>
     <row r="656">
-      <c r="A656" s="37"/>
-      <c r="B656" s="37"/>
+      <c r="A656" s="35"/>
+      <c r="B656" s="35"/>
     </row>
     <row r="657">
-      <c r="A657" s="37"/>
-      <c r="B657" s="37"/>
+      <c r="A657" s="35"/>
+      <c r="B657" s="35"/>
     </row>
     <row r="658">
-      <c r="A658" s="37"/>
-      <c r="B658" s="37"/>
+      <c r="A658" s="35"/>
+      <c r="B658" s="35"/>
     </row>
     <row r="659">
-      <c r="A659" s="37"/>
-      <c r="B659" s="37"/>
+      <c r="A659" s="35"/>
+      <c r="B659" s="35"/>
     </row>
     <row r="660">
-      <c r="A660" s="37"/>
-      <c r="B660" s="37"/>
+      <c r="A660" s="35"/>
+      <c r="B660" s="35"/>
     </row>
     <row r="661">
-      <c r="A661" s="37"/>
-      <c r="B661" s="37"/>
+      <c r="A661" s="35"/>
+      <c r="B661" s="35"/>
     </row>
     <row r="662">
-      <c r="A662" s="37"/>
-      <c r="B662" s="37"/>
+      <c r="A662" s="35"/>
+      <c r="B662" s="35"/>
     </row>
     <row r="663">
-      <c r="A663" s="37"/>
-      <c r="B663" s="37"/>
+      <c r="A663" s="35"/>
+      <c r="B663" s="35"/>
     </row>
     <row r="664">
-      <c r="A664" s="37"/>
-      <c r="B664" s="37"/>
+      <c r="A664" s="35"/>
+      <c r="B664" s="35"/>
     </row>
     <row r="665">
-      <c r="A665" s="37"/>
-      <c r="B665" s="37"/>
+      <c r="A665" s="35"/>
+      <c r="B665" s="35"/>
     </row>
     <row r="666">
-      <c r="A666" s="37"/>
-      <c r="B666" s="37"/>
+      <c r="A666" s="35"/>
+      <c r="B666" s="35"/>
     </row>
     <row r="667">
-      <c r="A667" s="37"/>
-      <c r="B667" s="37"/>
+      <c r="A667" s="35"/>
+      <c r="B667" s="35"/>
     </row>
     <row r="668">
-      <c r="A668" s="37"/>
-      <c r="B668" s="37"/>
+      <c r="A668" s="35"/>
+      <c r="B668" s="35"/>
     </row>
     <row r="669">
-      <c r="A669" s="37"/>
-      <c r="B669" s="37"/>
+      <c r="A669" s="35"/>
+      <c r="B669" s="35"/>
     </row>
     <row r="670">
-      <c r="A670" s="37"/>
-      <c r="B670" s="37"/>
+      <c r="A670" s="35"/>
+      <c r="B670" s="35"/>
     </row>
     <row r="671">
-      <c r="A671" s="37"/>
-      <c r="B671" s="37"/>
+      <c r="A671" s="35"/>
+      <c r="B671" s="35"/>
     </row>
     <row r="672">
-      <c r="A672" s="37"/>
-      <c r="B672" s="37"/>
+      <c r="A672" s="35"/>
+      <c r="B672" s="35"/>
     </row>
     <row r="673">
-      <c r="A673" s="37"/>
-      <c r="B673" s="37"/>
+      <c r="A673" s="35"/>
+      <c r="B673" s="35"/>
     </row>
     <row r="674">
-      <c r="A674" s="37"/>
-      <c r="B674" s="37"/>
+      <c r="A674" s="35"/>
+      <c r="B674" s="35"/>
     </row>
     <row r="675">
-      <c r="A675" s="37"/>
-      <c r="B675" s="37"/>
+      <c r="A675" s="35"/>
+      <c r="B675" s="35"/>
     </row>
     <row r="676">
-      <c r="A676" s="37"/>
-      <c r="B676" s="37"/>
+      <c r="A676" s="35"/>
+      <c r="B676" s="35"/>
     </row>
     <row r="677">
-      <c r="A677" s="37"/>
-      <c r="B677" s="37"/>
+      <c r="A677" s="35"/>
+      <c r="B677" s="35"/>
     </row>
     <row r="678">
-      <c r="A678" s="37"/>
-      <c r="B678" s="37"/>
+      <c r="A678" s="35"/>
+      <c r="B678" s="35"/>
     </row>
     <row r="679">
-      <c r="A679" s="37"/>
-      <c r="B679" s="37"/>
+      <c r="A679" s="35"/>
+      <c r="B679" s="35"/>
     </row>
     <row r="680">
-      <c r="A680" s="37"/>
-      <c r="B680" s="37"/>
+      <c r="A680" s="35"/>
+      <c r="B680" s="35"/>
     </row>
     <row r="681">
-      <c r="A681" s="37"/>
-      <c r="B681" s="37"/>
+      <c r="A681" s="35"/>
+      <c r="B681" s="35"/>
     </row>
     <row r="682">
-      <c r="A682" s="37"/>
-      <c r="B682" s="37"/>
+      <c r="A682" s="35"/>
+      <c r="B682" s="35"/>
     </row>
     <row r="683">
-      <c r="A683" s="37"/>
-      <c r="B683" s="37"/>
+      <c r="A683" s="35"/>
+      <c r="B683" s="35"/>
     </row>
     <row r="684">
-      <c r="A684" s="37"/>
-      <c r="B684" s="37"/>
+      <c r="A684" s="35"/>
+      <c r="B684" s="35"/>
     </row>
     <row r="685">
-      <c r="A685" s="37"/>
-      <c r="B685" s="37"/>
+      <c r="A685" s="35"/>
+      <c r="B685" s="35"/>
     </row>
     <row r="686">
-      <c r="A686" s="37"/>
-      <c r="B686" s="37"/>
+      <c r="A686" s="35"/>
+      <c r="B686" s="35"/>
     </row>
     <row r="687">
-      <c r="A687" s="37"/>
-      <c r="B687" s="37"/>
+      <c r="A687" s="35"/>
+      <c r="B687" s="35"/>
     </row>
     <row r="688">
-      <c r="A688" s="37"/>
-      <c r="B688" s="37"/>
+      <c r="A688" s="35"/>
+      <c r="B688" s="35"/>
     </row>
     <row r="689">
-      <c r="A689" s="37"/>
-      <c r="B689" s="37"/>
+      <c r="A689" s="35"/>
+      <c r="B689" s="35"/>
     </row>
     <row r="690">
-      <c r="A690" s="37"/>
-      <c r="B690" s="37"/>
+      <c r="A690" s="35"/>
+      <c r="B690" s="35"/>
     </row>
     <row r="691">
-      <c r="A691" s="37"/>
-      <c r="B691" s="37"/>
+      <c r="A691" s="35"/>
+      <c r="B691" s="35"/>
     </row>
     <row r="692">
-      <c r="A692" s="37"/>
-      <c r="B692" s="37"/>
+      <c r="A692" s="35"/>
+      <c r="B692" s="35"/>
     </row>
     <row r="693">
-      <c r="A693" s="37"/>
-      <c r="B693" s="37"/>
+      <c r="A693" s="35"/>
+      <c r="B693" s="35"/>
     </row>
     <row r="694">
-      <c r="A694" s="37"/>
-      <c r="B694" s="37"/>
+      <c r="A694" s="35"/>
+      <c r="B694" s="35"/>
     </row>
     <row r="695">
-      <c r="A695" s="37"/>
-      <c r="B695" s="37"/>
+      <c r="A695" s="35"/>
+      <c r="B695" s="35"/>
     </row>
     <row r="696">
-      <c r="A696" s="37"/>
-      <c r="B696" s="37"/>
+      <c r="A696" s="35"/>
+      <c r="B696" s="35"/>
     </row>
     <row r="697">
-      <c r="A697" s="37"/>
-      <c r="B697" s="37"/>
+      <c r="A697" s="35"/>
+      <c r="B697" s="35"/>
     </row>
     <row r="698">
-      <c r="A698" s="37"/>
-      <c r="B698" s="37"/>
+      <c r="A698" s="35"/>
+      <c r="B698" s="35"/>
     </row>
     <row r="699">
-      <c r="A699" s="37"/>
-      <c r="B699" s="37"/>
+      <c r="A699" s="35"/>
+      <c r="B699" s="35"/>
     </row>
     <row r="700">
-      <c r="A700" s="37"/>
-      <c r="B700" s="37"/>
+      <c r="A700" s="35"/>
+      <c r="B700" s="35"/>
     </row>
     <row r="701">
-      <c r="A701" s="37"/>
-      <c r="B701" s="37"/>
+      <c r="A701" s="35"/>
+      <c r="B701" s="35"/>
     </row>
     <row r="702">
-      <c r="A702" s="37"/>
-      <c r="B702" s="37"/>
+      <c r="A702" s="35"/>
+      <c r="B702" s="35"/>
     </row>
     <row r="703">
-      <c r="A703" s="37"/>
-      <c r="B703" s="37"/>
+      <c r="A703" s="35"/>
+      <c r="B703" s="35"/>
     </row>
     <row r="704">
-      <c r="A704" s="37"/>
-      <c r="B704" s="37"/>
+      <c r="A704" s="35"/>
+      <c r="B704" s="35"/>
     </row>
     <row r="705">
-      <c r="A705" s="37"/>
-      <c r="B705" s="37"/>
+      <c r="A705" s="35"/>
+      <c r="B705" s="35"/>
     </row>
     <row r="706">
-      <c r="A706" s="37"/>
-      <c r="B706" s="37"/>
+      <c r="A706" s="35"/>
+      <c r="B706" s="35"/>
     </row>
     <row r="707">
-      <c r="A707" s="37"/>
-      <c r="B707" s="37"/>
+      <c r="A707" s="35"/>
+      <c r="B707" s="35"/>
     </row>
     <row r="708">
-      <c r="A708" s="37"/>
-      <c r="B708" s="37"/>
+      <c r="A708" s="35"/>
+      <c r="B708" s="35"/>
     </row>
     <row r="709">
-      <c r="A709" s="37"/>
-      <c r="B709" s="37"/>
+      <c r="A709" s="35"/>
+      <c r="B709" s="35"/>
     </row>
     <row r="710">
-      <c r="A710" s="37"/>
-      <c r="B710" s="37"/>
+      <c r="A710" s="35"/>
+      <c r="B710" s="35"/>
     </row>
     <row r="711">
-      <c r="A711" s="37"/>
-      <c r="B711" s="37"/>
+      <c r="A711" s="35"/>
+      <c r="B711" s="35"/>
     </row>
     <row r="712">
-      <c r="A712" s="37"/>
-      <c r="B712" s="37"/>
+      <c r="A712" s="35"/>
+      <c r="B712" s="35"/>
     </row>
     <row r="713">
-      <c r="A713" s="37"/>
-      <c r="B713" s="37"/>
+      <c r="A713" s="35"/>
+      <c r="B713" s="35"/>
     </row>
     <row r="714">
-      <c r="A714" s="37"/>
-      <c r="B714" s="37"/>
+      <c r="A714" s="35"/>
+      <c r="B714" s="35"/>
     </row>
     <row r="715">
-      <c r="A715" s="37"/>
-      <c r="B715" s="37"/>
+      <c r="A715" s="35"/>
+      <c r="B715" s="35"/>
     </row>
     <row r="716">
-      <c r="A716" s="37"/>
-      <c r="B716" s="37"/>
+      <c r="A716" s="35"/>
+      <c r="B716" s="35"/>
     </row>
     <row r="717">
-      <c r="A717" s="37"/>
-      <c r="B717" s="37"/>
+      <c r="A717" s="35"/>
+      <c r="B717" s="35"/>
     </row>
     <row r="718">
-      <c r="A718" s="37"/>
-      <c r="B718" s="37"/>
+      <c r="A718" s="35"/>
+      <c r="B718" s="35"/>
     </row>
     <row r="719">
-      <c r="A719" s="37"/>
-      <c r="B719" s="37"/>
+      <c r="A719" s="35"/>
+      <c r="B719" s="35"/>
     </row>
     <row r="720">
-      <c r="A720" s="37"/>
-      <c r="B720" s="37"/>
+      <c r="A720" s="35"/>
+      <c r="B720" s="35"/>
     </row>
     <row r="721">
-      <c r="A721" s="37"/>
-      <c r="B721" s="37"/>
+      <c r="A721" s="35"/>
+      <c r="B721" s="35"/>
     </row>
     <row r="722">
-      <c r="A722" s="37"/>
-      <c r="B722" s="37"/>
+      <c r="A722" s="35"/>
+      <c r="B722" s="35"/>
     </row>
     <row r="723">
-      <c r="A723" s="37"/>
-      <c r="B723" s="37"/>
+      <c r="A723" s="35"/>
+      <c r="B723" s="35"/>
     </row>
     <row r="724">
-      <c r="A724" s="37"/>
-      <c r="B724" s="37"/>
+      <c r="A724" s="35"/>
+      <c r="B724" s="35"/>
     </row>
     <row r="725">
-      <c r="A725" s="37"/>
-      <c r="B725" s="37"/>
+      <c r="A725" s="35"/>
+      <c r="B725" s="35"/>
     </row>
     <row r="726">
-      <c r="A726" s="37"/>
-      <c r="B726" s="37"/>
+      <c r="A726" s="35"/>
+      <c r="B726" s="35"/>
     </row>
     <row r="727">
-      <c r="A727" s="37"/>
-      <c r="B727" s="37"/>
+      <c r="A727" s="35"/>
+      <c r="B727" s="35"/>
     </row>
     <row r="728">
-      <c r="A728" s="37"/>
-      <c r="B728" s="37"/>
+      <c r="A728" s="35"/>
+      <c r="B728" s="35"/>
     </row>
     <row r="729">
-      <c r="A729" s="37"/>
-      <c r="B729" s="37"/>
+      <c r="A729" s="35"/>
+      <c r="B729" s="35"/>
     </row>
     <row r="730">
-      <c r="A730" s="37"/>
-      <c r="B730" s="37"/>
+      <c r="A730" s="35"/>
+      <c r="B730" s="35"/>
     </row>
     <row r="731">
-      <c r="A731" s="37"/>
-      <c r="B731" s="37"/>
+      <c r="A731" s="35"/>
+      <c r="B731" s="35"/>
     </row>
     <row r="732">
-      <c r="A732" s="37"/>
-      <c r="B732" s="37"/>
+      <c r="A732" s="35"/>
+      <c r="B732" s="35"/>
     </row>
     <row r="733">
-      <c r="A733" s="37"/>
-      <c r="B733" s="37"/>
+      <c r="A733" s="35"/>
+      <c r="B733" s="35"/>
     </row>
     <row r="734">
-      <c r="A734" s="37"/>
-      <c r="B734" s="37"/>
+      <c r="A734" s="35"/>
+      <c r="B734" s="35"/>
     </row>
     <row r="735">
-      <c r="A735" s="37"/>
-      <c r="B735" s="37"/>
+      <c r="A735" s="35"/>
+      <c r="B735" s="35"/>
     </row>
     <row r="736">
-      <c r="A736" s="37"/>
-      <c r="B736" s="37"/>
+      <c r="A736" s="35"/>
+      <c r="B736" s="35"/>
     </row>
     <row r="737">
-      <c r="A737" s="37"/>
-      <c r="B737" s="37"/>
+      <c r="A737" s="35"/>
+      <c r="B737" s="35"/>
     </row>
     <row r="738">
-      <c r="A738" s="37"/>
-      <c r="B738" s="37"/>
+      <c r="A738" s="35"/>
+      <c r="B738" s="35"/>
     </row>
     <row r="739">
-      <c r="A739" s="37"/>
-      <c r="B739" s="37"/>
+      <c r="A739" s="35"/>
+      <c r="B739" s="35"/>
     </row>
     <row r="740">
-      <c r="A740" s="37"/>
-      <c r="B740" s="37"/>
+      <c r="A740" s="35"/>
+      <c r="B740" s="35"/>
     </row>
     <row r="741">
-      <c r="A741" s="37"/>
-      <c r="B741" s="37"/>
+      <c r="A741" s="35"/>
+      <c r="B741" s="35"/>
     </row>
     <row r="742">
-      <c r="A742" s="37"/>
-      <c r="B742" s="37"/>
+      <c r="A742" s="35"/>
+      <c r="B742" s="35"/>
     </row>
     <row r="743">
-      <c r="A743" s="37"/>
-      <c r="B743" s="37"/>
+      <c r="A743" s="35"/>
+      <c r="B743" s="35"/>
     </row>
     <row r="744">
-      <c r="A744" s="37"/>
-      <c r="B744" s="37"/>
+      <c r="A744" s="35"/>
+      <c r="B744" s="35"/>
     </row>
     <row r="745">
-      <c r="A745" s="37"/>
-      <c r="B745" s="37"/>
+      <c r="A745" s="35"/>
+      <c r="B745" s="35"/>
     </row>
     <row r="746">
-      <c r="A746" s="37"/>
-      <c r="B746" s="37"/>
+      <c r="A746" s="35"/>
+      <c r="B746" s="35"/>
     </row>
     <row r="747">
-      <c r="A747" s="37"/>
-      <c r="B747" s="37"/>
+      <c r="A747" s="35"/>
+      <c r="B747" s="35"/>
     </row>
     <row r="748">
-      <c r="A748" s="37"/>
-      <c r="B748" s="37"/>
+      <c r="A748" s="35"/>
+      <c r="B748" s="35"/>
     </row>
     <row r="749">
-      <c r="A749" s="37"/>
-      <c r="B749" s="37"/>
+      <c r="A749" s="35"/>
+      <c r="B749" s="35"/>
     </row>
     <row r="750">
-      <c r="A750" s="37"/>
-      <c r="B750" s="37"/>
+      <c r="A750" s="35"/>
+      <c r="B750" s="35"/>
     </row>
     <row r="751">
-      <c r="A751" s="37"/>
-      <c r="B751" s="37"/>
+      <c r="A751" s="35"/>
+      <c r="B751" s="35"/>
     </row>
     <row r="752">
-      <c r="A752" s="37"/>
-      <c r="B752" s="37"/>
+      <c r="A752" s="35"/>
+      <c r="B752" s="35"/>
     </row>
     <row r="753">
-      <c r="A753" s="37"/>
-      <c r="B753" s="37"/>
+      <c r="A753" s="35"/>
+      <c r="B753" s="35"/>
     </row>
     <row r="754">
-      <c r="A754" s="37"/>
-      <c r="B754" s="37"/>
+      <c r="A754" s="35"/>
+      <c r="B754" s="35"/>
     </row>
     <row r="755">
-      <c r="A755" s="37"/>
-      <c r="B755" s="37"/>
+      <c r="A755" s="35"/>
+      <c r="B755" s="35"/>
     </row>
     <row r="756">
-      <c r="A756" s="37"/>
-      <c r="B756" s="37"/>
+      <c r="A756" s="35"/>
+      <c r="B756" s="35"/>
     </row>
     <row r="757">
-      <c r="A757" s="37"/>
-      <c r="B757" s="37"/>
+      <c r="A757" s="35"/>
+      <c r="B757" s="35"/>
     </row>
     <row r="758">
-      <c r="A758" s="37"/>
-      <c r="B758" s="37"/>
+      <c r="A758" s="35"/>
+      <c r="B758" s="35"/>
     </row>
     <row r="759">
-      <c r="A759" s="37"/>
-      <c r="B759" s="37"/>
+      <c r="A759" s="35"/>
+      <c r="B759" s="35"/>
     </row>
     <row r="760">
-      <c r="A760" s="37"/>
-      <c r="B760" s="37"/>
+      <c r="A760" s="35"/>
+      <c r="B760" s="35"/>
     </row>
     <row r="761">
-      <c r="A761" s="37"/>
-      <c r="B761" s="37"/>
+      <c r="A761" s="35"/>
+      <c r="B761" s="35"/>
     </row>
     <row r="762">
-      <c r="A762" s="37"/>
-      <c r="B762" s="37"/>
+      <c r="A762" s="35"/>
+      <c r="B762" s="35"/>
     </row>
     <row r="763">
-      <c r="A763" s="37"/>
-      <c r="B763" s="37"/>
+      <c r="A763" s="35"/>
+      <c r="B763" s="35"/>
     </row>
     <row r="764">
-      <c r="A764" s="37"/>
-      <c r="B764" s="37"/>
+      <c r="A764" s="35"/>
+      <c r="B764" s="35"/>
     </row>
     <row r="765">
-      <c r="A765" s="37"/>
-      <c r="B765" s="37"/>
+      <c r="A765" s="35"/>
+      <c r="B765" s="35"/>
     </row>
     <row r="766">
-      <c r="A766" s="37"/>
-      <c r="B766" s="37"/>
+      <c r="A766" s="35"/>
+      <c r="B766" s="35"/>
     </row>
     <row r="767">
-      <c r="A767" s="37"/>
-      <c r="B767" s="37"/>
+      <c r="A767" s="35"/>
+      <c r="B767" s="35"/>
     </row>
     <row r="768">
-      <c r="A768" s="37"/>
-      <c r="B768" s="37"/>
+      <c r="A768" s="35"/>
+      <c r="B768" s="35"/>
     </row>
     <row r="769">
-      <c r="A769" s="37"/>
-      <c r="B769" s="37"/>
+      <c r="A769" s="35"/>
+      <c r="B769" s="35"/>
     </row>
     <row r="770">
-      <c r="A770" s="37"/>
-      <c r="B770" s="37"/>
+      <c r="A770" s="35"/>
+      <c r="B770" s="35"/>
     </row>
     <row r="771">
-      <c r="A771" s="37"/>
-      <c r="B771" s="37"/>
+      <c r="A771" s="35"/>
+      <c r="B771" s="35"/>
     </row>
     <row r="772">
-      <c r="A772" s="37"/>
-      <c r="B772" s="37"/>
+      <c r="A772" s="35"/>
+      <c r="B772" s="35"/>
     </row>
     <row r="773">
-      <c r="A773" s="37"/>
-      <c r="B773" s="37"/>
+      <c r="A773" s="35"/>
+      <c r="B773" s="35"/>
     </row>
     <row r="774">
-      <c r="A774" s="37"/>
-      <c r="B774" s="37"/>
+      <c r="A774" s="35"/>
+      <c r="B774" s="35"/>
     </row>
     <row r="775">
-      <c r="A775" s="37"/>
-      <c r="B775" s="37"/>
+      <c r="A775" s="35"/>
+      <c r="B775" s="35"/>
     </row>
     <row r="776">
-      <c r="A776" s="37"/>
-      <c r="B776" s="37"/>
+      <c r="A776" s="35"/>
+      <c r="B776" s="35"/>
     </row>
     <row r="777">
-      <c r="A777" s="37"/>
-      <c r="B777" s="37"/>
+      <c r="A777" s="35"/>
+      <c r="B777" s="35"/>
     </row>
     <row r="778">
-      <c r="A778" s="37"/>
-      <c r="B778" s="37"/>
+      <c r="A778" s="35"/>
+      <c r="B778" s="35"/>
     </row>
     <row r="779">
-      <c r="A779" s="37"/>
-      <c r="B779" s="37"/>
+      <c r="A779" s="35"/>
+      <c r="B779" s="35"/>
     </row>
     <row r="780">
-      <c r="A780" s="37"/>
-      <c r="B780" s="37"/>
+      <c r="A780" s="35"/>
+      <c r="B780" s="35"/>
     </row>
     <row r="781">
-      <c r="A781" s="37"/>
-      <c r="B781" s="37"/>
+      <c r="A781" s="35"/>
+      <c r="B781" s="35"/>
     </row>
     <row r="782">
-      <c r="A782" s="37"/>
-      <c r="B782" s="37"/>
+      <c r="A782" s="35"/>
+      <c r="B782" s="35"/>
     </row>
     <row r="783">
-      <c r="A783" s="37"/>
-      <c r="B783" s="37"/>
+      <c r="A783" s="35"/>
+      <c r="B783" s="35"/>
     </row>
     <row r="784">
-      <c r="A784" s="37"/>
-      <c r="B784" s="37"/>
+      <c r="A784" s="35"/>
+      <c r="B784" s="35"/>
     </row>
     <row r="785">
-      <c r="A785" s="37"/>
-      <c r="B785" s="37"/>
+      <c r="A785" s="35"/>
+      <c r="B785" s="35"/>
     </row>
     <row r="786">
-      <c r="A786" s="37"/>
-      <c r="B786" s="37"/>
+      <c r="A786" s="35"/>
+      <c r="B786" s="35"/>
     </row>
     <row r="787">
-      <c r="A787" s="37"/>
-      <c r="B787" s="37"/>
+      <c r="A787" s="35"/>
+      <c r="B787" s="35"/>
     </row>
     <row r="788">
-      <c r="A788" s="37"/>
-      <c r="B788" s="37"/>
+      <c r="A788" s="35"/>
+      <c r="B788" s="35"/>
     </row>
     <row r="789">
-      <c r="A789" s="37"/>
-      <c r="B789" s="37"/>
+      <c r="A789" s="35"/>
+      <c r="B789" s="35"/>
     </row>
     <row r="790">
-      <c r="A790" s="37"/>
-      <c r="B790" s="37"/>
+      <c r="A790" s="35"/>
+      <c r="B790" s="35"/>
     </row>
     <row r="791">
-      <c r="A791" s="37"/>
-      <c r="B791" s="37"/>
+      <c r="A791" s="35"/>
+      <c r="B791" s="35"/>
     </row>
     <row r="792">
-      <c r="A792" s="37"/>
-      <c r="B792" s="37"/>
+      <c r="A792" s="35"/>
+      <c r="B792" s="35"/>
     </row>
     <row r="793">
-      <c r="A793" s="37"/>
-      <c r="B793" s="37"/>
+      <c r="A793" s="35"/>
+      <c r="B793" s="35"/>
     </row>
     <row r="794">
-      <c r="A794" s="37"/>
-      <c r="B794" s="37"/>
+      <c r="A794" s="35"/>
+      <c r="B794" s="35"/>
     </row>
     <row r="795">
-      <c r="A795" s="37"/>
-      <c r="B795" s="37"/>
+      <c r="A795" s="35"/>
+      <c r="B795" s="35"/>
     </row>
     <row r="796">
-      <c r="A796" s="37"/>
-      <c r="B796" s="37"/>
+      <c r="A796" s="35"/>
+      <c r="B796" s="35"/>
     </row>
     <row r="797">
-      <c r="A797" s="37"/>
-      <c r="B797" s="37"/>
+      <c r="A797" s="35"/>
+      <c r="B797" s="35"/>
     </row>
     <row r="798">
-      <c r="A798" s="37"/>
-      <c r="B798" s="37"/>
+      <c r="A798" s="35"/>
+      <c r="B798" s="35"/>
     </row>
     <row r="799">
-      <c r="A799" s="37"/>
-      <c r="B799" s="37"/>
+      <c r="A799" s="35"/>
+      <c r="B799" s="35"/>
     </row>
     <row r="800">
-      <c r="A800" s="37"/>
-      <c r="B800" s="37"/>
+      <c r="A800" s="35"/>
+      <c r="B800" s="35"/>
     </row>
     <row r="801">
-      <c r="A801" s="37"/>
-      <c r="B801" s="37"/>
+      <c r="A801" s="35"/>
+      <c r="B801" s="35"/>
     </row>
     <row r="802">
-      <c r="A802" s="37"/>
-      <c r="B802" s="37"/>
+      <c r="A802" s="35"/>
+      <c r="B802" s="35"/>
     </row>
     <row r="803">
-      <c r="A803" s="37"/>
-      <c r="B803" s="37"/>
+      <c r="A803" s="35"/>
+      <c r="B803" s="35"/>
     </row>
     <row r="804">
-      <c r="A804" s="37"/>
-      <c r="B804" s="37"/>
+      <c r="A804" s="35"/>
+      <c r="B804" s="35"/>
     </row>
     <row r="805">
-      <c r="A805" s="37"/>
-      <c r="B805" s="37"/>
+      <c r="A805" s="35"/>
+      <c r="B805" s="35"/>
     </row>
     <row r="806">
-      <c r="A806" s="37"/>
-      <c r="B806" s="37"/>
+      <c r="A806" s="35"/>
+      <c r="B806" s="35"/>
     </row>
     <row r="807">
-      <c r="A807" s="37"/>
-      <c r="B807" s="37"/>
+      <c r="A807" s="35"/>
+      <c r="B807" s="35"/>
     </row>
     <row r="808">
-      <c r="A808" s="37"/>
-      <c r="B808" s="37"/>
+      <c r="A808" s="35"/>
+      <c r="B808" s="35"/>
     </row>
     <row r="809">
-      <c r="A809" s="37"/>
-      <c r="B809" s="37"/>
+      <c r="A809" s="35"/>
+      <c r="B809" s="35"/>
     </row>
     <row r="810">
-      <c r="A810" s="37"/>
-      <c r="B810" s="37"/>
+      <c r="A810" s="35"/>
+      <c r="B810" s="35"/>
     </row>
     <row r="811">
-      <c r="A811" s="37"/>
-      <c r="B811" s="37"/>
+      <c r="A811" s="35"/>
+      <c r="B811" s="35"/>
     </row>
     <row r="812">
-      <c r="A812" s="37"/>
-      <c r="B812" s="37"/>
+      <c r="A812" s="35"/>
+      <c r="B812" s="35"/>
     </row>
     <row r="813">
-      <c r="A813" s="37"/>
-      <c r="B813" s="37"/>
+      <c r="A813" s="35"/>
+      <c r="B813" s="35"/>
     </row>
     <row r="814">
-      <c r="A814" s="37"/>
-      <c r="B814" s="37"/>
+      <c r="A814" s="35"/>
+      <c r="B814" s="35"/>
     </row>
     <row r="815">
-      <c r="A815" s="37"/>
-      <c r="B815" s="37"/>
+      <c r="A815" s="35"/>
+      <c r="B815" s="35"/>
     </row>
     <row r="816">
-      <c r="A816" s="37"/>
-      <c r="B816" s="37"/>
+      <c r="A816" s="35"/>
+      <c r="B816" s="35"/>
     </row>
     <row r="817">
-      <c r="A817" s="37"/>
-      <c r="B817" s="37"/>
+      <c r="A817" s="35"/>
+      <c r="B817" s="35"/>
     </row>
     <row r="818">
-      <c r="A818" s="37"/>
-      <c r="B818" s="37"/>
+      <c r="A818" s="35"/>
+      <c r="B818" s="35"/>
     </row>
     <row r="819">
-      <c r="A819" s="37"/>
-      <c r="B819" s="37"/>
+      <c r="A819" s="35"/>
+      <c r="B819" s="35"/>
     </row>
     <row r="820">
-      <c r="A820" s="37"/>
-      <c r="B820" s="37"/>
+      <c r="A820" s="35"/>
+      <c r="B820" s="35"/>
     </row>
     <row r="821">
-      <c r="A821" s="37"/>
-      <c r="B821" s="37"/>
+      <c r="A821" s="35"/>
+      <c r="B821" s="35"/>
     </row>
     <row r="822">
-      <c r="A822" s="37"/>
-      <c r="B822" s="37"/>
+      <c r="A822" s="35"/>
+      <c r="B822" s="35"/>
     </row>
     <row r="823">
-      <c r="A823" s="37"/>
-      <c r="B823" s="37"/>
+      <c r="A823" s="35"/>
+      <c r="B823" s="35"/>
     </row>
     <row r="824">
-      <c r="A824" s="37"/>
-      <c r="B824" s="37"/>
+      <c r="A824" s="35"/>
+      <c r="B824" s="35"/>
     </row>
     <row r="825">
-      <c r="A825" s="37"/>
-      <c r="B825" s="37"/>
+      <c r="A825" s="35"/>
+      <c r="B825" s="35"/>
     </row>
     <row r="826">
-      <c r="A826" s="37"/>
-      <c r="B826" s="37"/>
+      <c r="A826" s="35"/>
+      <c r="B826" s="35"/>
     </row>
     <row r="827">
-      <c r="A827" s="37"/>
-      <c r="B827" s="37"/>
+      <c r="A827" s="35"/>
+      <c r="B827" s="35"/>
     </row>
     <row r="828">
-      <c r="A828" s="37"/>
-      <c r="B828" s="37"/>
+      <c r="A828" s="35"/>
+      <c r="B828" s="35"/>
     </row>
     <row r="829">
-      <c r="A829" s="37"/>
-      <c r="B829" s="37"/>
+      <c r="A829" s="35"/>
+      <c r="B829" s="35"/>
     </row>
     <row r="830">
-      <c r="A830" s="37"/>
-      <c r="B830" s="37"/>
+      <c r="A830" s="35"/>
+      <c r="B830" s="35"/>
     </row>
     <row r="831">
-      <c r="A831" s="37"/>
-      <c r="B831" s="37"/>
+      <c r="A831" s="35"/>
+      <c r="B831" s="35"/>
     </row>
     <row r="832">
-      <c r="A832" s="37"/>
-      <c r="B832" s="37"/>
+      <c r="A832" s="35"/>
+      <c r="B832" s="35"/>
     </row>
     <row r="833">
-      <c r="A833" s="37"/>
-      <c r="B833" s="37"/>
+      <c r="A833" s="35"/>
+      <c r="B833" s="35"/>
     </row>
     <row r="834">
-      <c r="A834" s="37"/>
-      <c r="B834" s="37"/>
+      <c r="A834" s="35"/>
+      <c r="B834" s="35"/>
     </row>
     <row r="835">
-      <c r="A835" s="37"/>
-      <c r="B835" s="37"/>
+      <c r="A835" s="35"/>
+      <c r="B835" s="35"/>
     </row>
     <row r="836">
-      <c r="A836" s="37"/>
-      <c r="B836" s="37"/>
+      <c r="A836" s="35"/>
+      <c r="B836" s="35"/>
     </row>
     <row r="837">
-      <c r="A837" s="37"/>
-      <c r="B837" s="37"/>
+      <c r="A837" s="35"/>
+      <c r="B837" s="35"/>
     </row>
     <row r="838">
-      <c r="A838" s="37"/>
-      <c r="B838" s="37"/>
+      <c r="A838" s="35"/>
+      <c r="B838" s="35"/>
     </row>
     <row r="839">
-      <c r="A839" s="37"/>
-      <c r="B839" s="37"/>
+      <c r="A839" s="35"/>
+      <c r="B839" s="35"/>
     </row>
     <row r="840">
-      <c r="A840" s="37"/>
-      <c r="B840" s="37"/>
+      <c r="A840" s="35"/>
+      <c r="B840" s="35"/>
     </row>
     <row r="841">
-      <c r="A841" s="37"/>
-      <c r="B841" s="37"/>
+      <c r="A841" s="35"/>
+      <c r="B841" s="35"/>
     </row>
     <row r="842">
-      <c r="A842" s="37"/>
-      <c r="B842" s="37"/>
+      <c r="A842" s="35"/>
+      <c r="B842" s="35"/>
     </row>
     <row r="843">
-      <c r="A843" s="37"/>
-      <c r="B843" s="37"/>
+      <c r="A843" s="35"/>
+      <c r="B843" s="35"/>
     </row>
     <row r="844">
-      <c r="A844" s="37"/>
-      <c r="B844" s="37"/>
+      <c r="A844" s="35"/>
+      <c r="B844" s="35"/>
     </row>
     <row r="845">
-      <c r="A845" s="37"/>
-      <c r="B845" s="37"/>
+      <c r="A845" s="35"/>
+      <c r="B845" s="35"/>
     </row>
     <row r="846">
-      <c r="A846" s="37"/>
-      <c r="B846" s="37"/>
+      <c r="A846" s="35"/>
+      <c r="B846" s="35"/>
     </row>
     <row r="847">
-      <c r="A847" s="37"/>
-      <c r="B847" s="37"/>
+      <c r="A847" s="35"/>
+      <c r="B847" s="35"/>
     </row>
     <row r="848">
-      <c r="A848" s="37"/>
-      <c r="B848" s="37"/>
+      <c r="A848" s="35"/>
+      <c r="B848" s="35"/>
     </row>
     <row r="849">
-      <c r="A849" s="37"/>
-      <c r="B849" s="37"/>
+      <c r="A849" s="35"/>
+      <c r="B849" s="35"/>
     </row>
     <row r="850">
-      <c r="A850" s="37"/>
-      <c r="B850" s="37"/>
+      <c r="A850" s="35"/>
+      <c r="B850" s="35"/>
     </row>
     <row r="851">
-      <c r="A851" s="37"/>
-      <c r="B851" s="37"/>
+      <c r="A851" s="35"/>
+      <c r="B851" s="35"/>
     </row>
     <row r="852">
-      <c r="A852" s="37"/>
-      <c r="B852" s="37"/>
+      <c r="A852" s="35"/>
+      <c r="B852" s="35"/>
     </row>
     <row r="853">
-      <c r="A853" s="37"/>
-      <c r="B853" s="37"/>
+      <c r="A853" s="35"/>
+      <c r="B853" s="35"/>
     </row>
     <row r="854">
-      <c r="A854" s="37"/>
-      <c r="B854" s="37"/>
+      <c r="A854" s="35"/>
+      <c r="B854" s="35"/>
     </row>
     <row r="855">
-      <c r="A855" s="37"/>
-      <c r="B855" s="37"/>
+      <c r="A855" s="35"/>
+      <c r="B855" s="35"/>
     </row>
     <row r="856">
-      <c r="A856" s="37"/>
-      <c r="B856" s="37"/>
+      <c r="A856" s="35"/>
+      <c r="B856" s="35"/>
     </row>
     <row r="857">
-      <c r="A857" s="37"/>
-      <c r="B857" s="37"/>
+      <c r="A857" s="35"/>
+      <c r="B857" s="35"/>
     </row>
     <row r="858">
-      <c r="A858" s="37"/>
-      <c r="B858" s="37"/>
+      <c r="A858" s="35"/>
+      <c r="B858" s="35"/>
     </row>
     <row r="859">
-      <c r="A859" s="37"/>
-      <c r="B859" s="37"/>
+      <c r="A859" s="35"/>
+      <c r="B859" s="35"/>
     </row>
     <row r="860">
-      <c r="A860" s="37"/>
-      <c r="B860" s="37"/>
+      <c r="A860" s="35"/>
+      <c r="B860" s="35"/>
     </row>
     <row r="861">
-      <c r="A861" s="37"/>
-      <c r="B861" s="37"/>
+      <c r="A861" s="35"/>
+      <c r="B861" s="35"/>
     </row>
     <row r="862">
-      <c r="A862" s="37"/>
-      <c r="B862" s="37"/>
+      <c r="A862" s="35"/>
+      <c r="B862" s="35"/>
     </row>
     <row r="863">
-      <c r="A863" s="37"/>
-      <c r="B863" s="37"/>
+      <c r="A863" s="35"/>
+      <c r="B863" s="35"/>
     </row>
     <row r="864">
-      <c r="A864" s="37"/>
-      <c r="B864" s="37"/>
+      <c r="A864" s="35"/>
+      <c r="B864" s="35"/>
     </row>
     <row r="865">
-      <c r="A865" s="37"/>
-      <c r="B865" s="37"/>
+      <c r="A865" s="35"/>
+      <c r="B865" s="35"/>
     </row>
     <row r="866">
-      <c r="A866" s="37"/>
-      <c r="B866" s="37"/>
+      <c r="A866" s="35"/>
+      <c r="B866" s="35"/>
     </row>
     <row r="867">
-      <c r="A867" s="37"/>
-      <c r="B867" s="37"/>
+      <c r="A867" s="35"/>
+      <c r="B867" s="35"/>
     </row>
     <row r="868">
-      <c r="A868" s="37"/>
-      <c r="B868" s="37"/>
+      <c r="A868" s="35"/>
+      <c r="B868" s="35"/>
     </row>
     <row r="869">
-      <c r="A869" s="37"/>
-      <c r="B869" s="37"/>
+      <c r="A869" s="35"/>
+      <c r="B869" s="35"/>
     </row>
     <row r="870">
-      <c r="A870" s="37"/>
-      <c r="B870" s="37"/>
+      <c r="A870" s="35"/>
+      <c r="B870" s="35"/>
     </row>
     <row r="871">
-      <c r="A871" s="37"/>
-      <c r="B871" s="37"/>
+      <c r="A871" s="35"/>
+      <c r="B871" s="35"/>
     </row>
     <row r="872">
-      <c r="A872" s="37"/>
-      <c r="B872" s="37"/>
+      <c r="A872" s="35"/>
+      <c r="B872" s="35"/>
     </row>
     <row r="873">
-      <c r="A873" s="37"/>
-      <c r="B873" s="37"/>
+      <c r="A873" s="35"/>
+      <c r="B873" s="35"/>
     </row>
     <row r="874">
-      <c r="A874" s="37"/>
-      <c r="B874" s="37"/>
+      <c r="A874" s="35"/>
+      <c r="B874" s="35"/>
     </row>
     <row r="875">
-      <c r="A875" s="37"/>
-      <c r="B875" s="37"/>
+      <c r="A875" s="35"/>
+      <c r="B875" s="35"/>
     </row>
     <row r="876">
-      <c r="A876" s="37"/>
-      <c r="B876" s="37"/>
+      <c r="A876" s="35"/>
+      <c r="B876" s="35"/>
     </row>
     <row r="877">
-      <c r="A877" s="37"/>
-      <c r="B877" s="37"/>
+      <c r="A877" s="35"/>
+      <c r="B877" s="35"/>
     </row>
     <row r="878">
-      <c r="A878" s="37"/>
-      <c r="B878" s="37"/>
+      <c r="A878" s="35"/>
+      <c r="B878" s="35"/>
     </row>
     <row r="879">
-      <c r="A879" s="37"/>
-      <c r="B879" s="37"/>
+      <c r="A879" s="35"/>
+      <c r="B879" s="35"/>
     </row>
     <row r="880">
-      <c r="A880" s="37"/>
-      <c r="B880" s="37"/>
+      <c r="A880" s="35"/>
+      <c r="B880" s="35"/>
     </row>
     <row r="881">
-      <c r="A881" s="37"/>
-      <c r="B881" s="37"/>
+      <c r="A881" s="35"/>
+      <c r="B881" s="35"/>
     </row>
     <row r="882">
-      <c r="A882" s="37"/>
-      <c r="B882" s="37"/>
+      <c r="A882" s="35"/>
+      <c r="B882" s="35"/>
     </row>
     <row r="883">
-      <c r="A883" s="37"/>
-      <c r="B883" s="37"/>
+      <c r="A883" s="35"/>
+      <c r="B883" s="35"/>
     </row>
     <row r="884">
-      <c r="A884" s="37"/>
-      <c r="B884" s="37"/>
+      <c r="A884" s="35"/>
+      <c r="B884" s="35"/>
     </row>
     <row r="885">
-      <c r="A885" s="37"/>
-      <c r="B885" s="37"/>
+      <c r="A885" s="35"/>
+      <c r="B885" s="35"/>
     </row>
     <row r="886">
-      <c r="A886" s="37"/>
-      <c r="B886" s="37"/>
+      <c r="A886" s="35"/>
+      <c r="B886" s="35"/>
     </row>
     <row r="887">
-      <c r="A887" s="37"/>
-      <c r="B887" s="37"/>
+      <c r="A887" s="35"/>
+      <c r="B887" s="35"/>
     </row>
     <row r="888">
-      <c r="A888" s="37"/>
-      <c r="B888" s="37"/>
+      <c r="A888" s="35"/>
+      <c r="B888" s="35"/>
     </row>
     <row r="889">
-      <c r="A889" s="37"/>
-      <c r="B889" s="37"/>
+      <c r="A889" s="35"/>
+      <c r="B889" s="35"/>
     </row>
     <row r="890">
-      <c r="A890" s="37"/>
-      <c r="B890" s="37"/>
+      <c r="A890" s="35"/>
+      <c r="B890" s="35"/>
     </row>
     <row r="891">
-      <c r="A891" s="37"/>
-      <c r="B891" s="37"/>
+      <c r="A891" s="35"/>
+      <c r="B891" s="35"/>
     </row>
     <row r="892">
-      <c r="A892" s="37"/>
-      <c r="B892" s="37"/>
+      <c r="A892" s="35"/>
+      <c r="B892" s="35"/>
     </row>
     <row r="893">
-      <c r="A893" s="37"/>
-      <c r="B893" s="37"/>
+      <c r="A893" s="35"/>
+      <c r="B893" s="35"/>
     </row>
     <row r="894">
-      <c r="A894" s="37"/>
-      <c r="B894" s="37"/>
+      <c r="A894" s="35"/>
+      <c r="B894" s="35"/>
     </row>
     <row r="895">
-      <c r="A895" s="37"/>
-      <c r="B895" s="37"/>
+      <c r="A895" s="35"/>
+      <c r="B895" s="35"/>
     </row>
     <row r="896">
-      <c r="A896" s="37"/>
-      <c r="B896" s="37"/>
+      <c r="A896" s="35"/>
+      <c r="B896" s="35"/>
     </row>
     <row r="897">
-      <c r="A897" s="37"/>
-      <c r="B897" s="37"/>
+      <c r="A897" s="35"/>
+      <c r="B897" s="35"/>
     </row>
     <row r="898">
-      <c r="A898" s="37"/>
-      <c r="B898" s="37"/>
+      <c r="A898" s="35"/>
+      <c r="B898" s="35"/>
     </row>
     <row r="899">
-      <c r="A899" s="37"/>
-      <c r="B899" s="37"/>
+      <c r="A899" s="35"/>
+      <c r="B899" s="35"/>
     </row>
     <row r="900">
-      <c r="A900" s="37"/>
-      <c r="B900" s="37"/>
+      <c r="A900" s="35"/>
+      <c r="B900" s="35"/>
     </row>
     <row r="901">
-      <c r="A901" s="37"/>
-      <c r="B901" s="37"/>
+      <c r="A901" s="35"/>
+      <c r="B901" s="35"/>
     </row>
     <row r="902">
-      <c r="A902" s="37"/>
-      <c r="B902" s="37"/>
+      <c r="A902" s="35"/>
+      <c r="B902" s="35"/>
     </row>
     <row r="903">
-      <c r="A903" s="37"/>
-      <c r="B903" s="37"/>
+      <c r="A903" s="35"/>
+      <c r="B903" s="35"/>
     </row>
     <row r="904">
-      <c r="A904" s="37"/>
-      <c r="B904" s="37"/>
+      <c r="A904" s="35"/>
+      <c r="B904" s="35"/>
     </row>
     <row r="905">
-      <c r="A905" s="37"/>
-      <c r="B905" s="37"/>
+      <c r="A905" s="35"/>
+      <c r="B905" s="35"/>
     </row>
     <row r="906">
-      <c r="A906" s="37"/>
-      <c r="B906" s="37"/>
+      <c r="A906" s="35"/>
+      <c r="B906" s="35"/>
     </row>
     <row r="907">
-      <c r="A907" s="37"/>
-      <c r="B907" s="37"/>
+      <c r="A907" s="35"/>
+      <c r="B907" s="35"/>
     </row>
     <row r="908">
-      <c r="A908" s="37"/>
-      <c r="B908" s="37"/>
+      <c r="A908" s="35"/>
+      <c r="B908" s="35"/>
     </row>
     <row r="909">
-      <c r="A909" s="37"/>
-      <c r="B909" s="37"/>
+      <c r="A909" s="35"/>
+      <c r="B909" s="35"/>
     </row>
     <row r="910">
-      <c r="A910" s="37"/>
-      <c r="B910" s="37"/>
+      <c r="A910" s="35"/>
+      <c r="B910" s="35"/>
     </row>
     <row r="911">
-      <c r="A911" s="37"/>
-      <c r="B911" s="37"/>
+      <c r="A911" s="35"/>
+      <c r="B911" s="35"/>
     </row>
     <row r="912">
-      <c r="A912" s="37"/>
-      <c r="B912" s="37"/>
+      <c r="A912" s="35"/>
+      <c r="B912" s="35"/>
     </row>
     <row r="913">
-      <c r="A913" s="37"/>
-      <c r="B913" s="37"/>
+      <c r="A913" s="35"/>
+      <c r="B913" s="35"/>
     </row>
     <row r="914">
-      <c r="A914" s="37"/>
-      <c r="B914" s="37"/>
+      <c r="A914" s="35"/>
+      <c r="B914" s="35"/>
     </row>
     <row r="915">
-      <c r="A915" s="37"/>
-      <c r="B915" s="37"/>
+      <c r="A915" s="35"/>
+      <c r="B915" s="35"/>
     </row>
     <row r="916">
-      <c r="A916" s="37"/>
-      <c r="B916" s="37"/>
+      <c r="A916" s="35"/>
+      <c r="B916" s="35"/>
     </row>
     <row r="917">
-      <c r="A917" s="37"/>
-      <c r="B917" s="37"/>
+      <c r="A917" s="35"/>
+      <c r="B917" s="35"/>
     </row>
     <row r="918">
-      <c r="A918" s="37"/>
-      <c r="B918" s="37"/>
+      <c r="A918" s="35"/>
+      <c r="B918" s="35"/>
     </row>
     <row r="919">
-      <c r="A919" s="37"/>
-      <c r="B919" s="37"/>
+      <c r="A919" s="35"/>
+      <c r="B919" s="35"/>
     </row>
     <row r="920">
-      <c r="A920" s="37"/>
-      <c r="B920" s="37"/>
+      <c r="A920" s="35"/>
+      <c r="B920" s="35"/>
     </row>
     <row r="921">
-      <c r="A921" s="37"/>
-      <c r="B921" s="37"/>
+      <c r="A921" s="35"/>
+      <c r="B921" s="35"/>
     </row>
     <row r="922">
-      <c r="A922" s="37"/>
-      <c r="B922" s="37"/>
+      <c r="A922" s="35"/>
+      <c r="B922" s="35"/>
     </row>
     <row r="923">
-      <c r="A923" s="37"/>
-      <c r="B923" s="37"/>
+      <c r="A923" s="35"/>
+      <c r="B923" s="35"/>
     </row>
     <row r="924">
-      <c r="A924" s="37"/>
-      <c r="B924" s="37"/>
+      <c r="A924" s="35"/>
+      <c r="B924" s="35"/>
     </row>
     <row r="925">
-      <c r="A925" s="37"/>
-      <c r="B925" s="37"/>
+      <c r="A925" s="35"/>
+      <c r="B925" s="35"/>
     </row>
     <row r="926">
-      <c r="A926" s="37"/>
-      <c r="B926" s="37"/>
+      <c r="A926" s="35"/>
+      <c r="B926" s="35"/>
     </row>
     <row r="927">
-      <c r="A927" s="37"/>
-      <c r="B927" s="37"/>
+      <c r="A927" s="35"/>
+      <c r="B927" s="35"/>
     </row>
     <row r="928">
-      <c r="A928" s="37"/>
-      <c r="B928" s="37"/>
+      <c r="A928" s="35"/>
+      <c r="B928" s="35"/>
     </row>
     <row r="929">
-      <c r="A929" s="37"/>
-      <c r="B929" s="37"/>
+      <c r="A929" s="35"/>
+      <c r="B929" s="35"/>
     </row>
     <row r="930">
-      <c r="A930" s="37"/>
-      <c r="B930" s="37"/>
+      <c r="A930" s="35"/>
+      <c r="B930" s="35"/>
     </row>
     <row r="931">
-      <c r="A931" s="37"/>
-      <c r="B931" s="37"/>
+      <c r="A931" s="35"/>
+      <c r="B931" s="35"/>
     </row>
     <row r="932">
-      <c r="A932" s="37"/>
-      <c r="B932" s="37"/>
+      <c r="A932" s="35"/>
+      <c r="B932" s="35"/>
     </row>
     <row r="933">
-      <c r="A933" s="37"/>
-      <c r="B933" s="37"/>
+      <c r="A933" s="35"/>
+      <c r="B933" s="35"/>
     </row>
     <row r="934">
-      <c r="A934" s="37"/>
-      <c r="B934" s="37"/>
+      <c r="A934" s="35"/>
+      <c r="B934" s="35"/>
     </row>
     <row r="935">
-      <c r="A935" s="37"/>
-      <c r="B935" s="37"/>
+      <c r="A935" s="35"/>
+      <c r="B935" s="35"/>
     </row>
     <row r="936">
-      <c r="A936" s="37"/>
-      <c r="B936" s="37"/>
+      <c r="A936" s="35"/>
+      <c r="B936" s="35"/>
     </row>
     <row r="937">
-      <c r="A937" s="37"/>
-      <c r="B937" s="37"/>
+      <c r="A937" s="35"/>
+      <c r="B937" s="35"/>
     </row>
     <row r="938">
-      <c r="A938" s="37"/>
-      <c r="B938" s="37"/>
+      <c r="A938" s="35"/>
+      <c r="B938" s="35"/>
     </row>
     <row r="939">
-      <c r="A939" s="37"/>
-      <c r="B939" s="37"/>
+      <c r="A939" s="35"/>
+      <c r="B939" s="35"/>
     </row>
     <row r="940">
-      <c r="A940" s="37"/>
-      <c r="B940" s="37"/>
+      <c r="A940" s="35"/>
+      <c r="B940" s="35"/>
     </row>
     <row r="941">
-      <c r="A941" s="37"/>
-      <c r="B941" s="37"/>
+      <c r="A941" s="35"/>
+      <c r="B941" s="35"/>
     </row>
     <row r="942">
-      <c r="A942" s="37"/>
-      <c r="B942" s="37"/>
+      <c r="A942" s="35"/>
+      <c r="B942" s="35"/>
     </row>
     <row r="943">
-      <c r="A943" s="37"/>
-      <c r="B943" s="37"/>
+      <c r="A943" s="35"/>
+      <c r="B943" s="35"/>
     </row>
     <row r="944">
-      <c r="A944" s="37"/>
-      <c r="B944" s="37"/>
+      <c r="A944" s="35"/>
+      <c r="B944" s="35"/>
     </row>
     <row r="945">
-      <c r="A945" s="37"/>
-      <c r="B945" s="37"/>
+      <c r="A945" s="35"/>
+      <c r="B945" s="35"/>
     </row>
     <row r="946">
-      <c r="A946" s="37"/>
-      <c r="B946" s="37"/>
+      <c r="A946" s="35"/>
+      <c r="B946" s="35"/>
     </row>
     <row r="947">
-      <c r="A947" s="37"/>
-      <c r="B947" s="37"/>
+      <c r="A947" s="35"/>
+      <c r="B947" s="35"/>
     </row>
     <row r="948">
-      <c r="A948" s="37"/>
-      <c r="B948" s="37"/>
+      <c r="A948" s="35"/>
+      <c r="B948" s="35"/>
     </row>
     <row r="949">
-      <c r="A949" s="37"/>
-      <c r="B949" s="37"/>
+      <c r="A949" s="35"/>
+      <c r="B949" s="35"/>
     </row>
     <row r="950">
-      <c r="A950" s="37"/>
-      <c r="B950" s="37"/>
+      <c r="A950" s="35"/>
+      <c r="B950" s="35"/>
     </row>
     <row r="951">
-      <c r="A951" s="37"/>
-      <c r="B951" s="37"/>
+      <c r="A951" s="35"/>
+      <c r="B951" s="35"/>
     </row>
     <row r="952">
-      <c r="A952" s="37"/>
-      <c r="B952" s="37"/>
+      <c r="A952" s="35"/>
+      <c r="B952" s="35"/>
     </row>
     <row r="953">
-      <c r="A953" s="37"/>
-      <c r="B953" s="37"/>
+      <c r="A953" s="35"/>
+      <c r="B953" s="35"/>
     </row>
     <row r="954">
-      <c r="A954" s="37"/>
-      <c r="B954" s="37"/>
+      <c r="A954" s="35"/>
+      <c r="B954" s="35"/>
     </row>
     <row r="955">
-      <c r="A955" s="37"/>
-      <c r="B955" s="37"/>
+      <c r="A955" s="35"/>
+      <c r="B955" s="35"/>
     </row>
     <row r="956">
-      <c r="A956" s="37"/>
-      <c r="B956" s="37"/>
+      <c r="A956" s="35"/>
+      <c r="B956" s="35"/>
     </row>
     <row r="957">
-      <c r="A957" s="37"/>
-      <c r="B957" s="37"/>
+      <c r="A957" s="35"/>
+      <c r="B957" s="35"/>
     </row>
     <row r="958">
-      <c r="A958" s="37"/>
-      <c r="B958" s="37"/>
+      <c r="A958" s="35"/>
+      <c r="B958" s="35"/>
     </row>
     <row r="959">
-      <c r="A959" s="37"/>
-      <c r="B959" s="37"/>
+      <c r="A959" s="35"/>
+      <c r="B959" s="35"/>
     </row>
     <row r="960">
-      <c r="A960" s="37"/>
-      <c r="B960" s="37"/>
+      <c r="A960" s="35"/>
+      <c r="B960" s="35"/>
     </row>
     <row r="961">
-      <c r="A961" s="37"/>
-      <c r="B961" s="37"/>
+      <c r="A961" s="35"/>
+      <c r="B961" s="35"/>
     </row>
     <row r="962">
-      <c r="A962" s="37"/>
-      <c r="B962" s="37"/>
+      <c r="A962" s="35"/>
+      <c r="B962" s="35"/>
     </row>
     <row r="963">
-      <c r="A963" s="37"/>
-      <c r="B963" s="37"/>
+      <c r="A963" s="35"/>
+      <c r="B963" s="35"/>
     </row>
     <row r="964">
-      <c r="A964" s="37"/>
-      <c r="B964" s="37"/>
+      <c r="A964" s="35"/>
+      <c r="B964" s="35"/>
     </row>
     <row r="965">
-      <c r="A965" s="37"/>
-      <c r="B965" s="37"/>
+      <c r="A965" s="35"/>
+      <c r="B965" s="35"/>
     </row>
     <row r="966">
-      <c r="A966" s="37"/>
-      <c r="B966" s="37"/>
+      <c r="A966" s="35"/>
+      <c r="B966" s="35"/>
     </row>
     <row r="967">
-      <c r="A967" s="37"/>
-      <c r="B967" s="37"/>
+      <c r="A967" s="35"/>
+      <c r="B967" s="35"/>
     </row>
     <row r="968">
-      <c r="A968" s="37"/>
-      <c r="B968" s="37"/>
+      <c r="A968" s="35"/>
+      <c r="B968" s="35"/>
     </row>
     <row r="969">
-      <c r="A969" s="37"/>
-      <c r="B969" s="37"/>
+      <c r="A969" s="35"/>
+      <c r="B969" s="35"/>
     </row>
     <row r="970">
-      <c r="A970" s="37"/>
-      <c r="B970" s="37"/>
+      <c r="A970" s="35"/>
+      <c r="B970" s="35"/>
     </row>
     <row r="971">
-      <c r="A971" s="37"/>
-      <c r="B971" s="37"/>
+      <c r="A971" s="35"/>
+      <c r="B971" s="35"/>
     </row>
     <row r="972">
-      <c r="A972" s="37"/>
-      <c r="B972" s="37"/>
+      <c r="A972" s="35"/>
+      <c r="B972" s="35"/>
     </row>
     <row r="973">
-      <c r="A973" s="37"/>
-      <c r="B973" s="37"/>
+      <c r="A973" s="35"/>
+      <c r="B973" s="35"/>
     </row>
     <row r="974">
-      <c r="A974" s="37"/>
-      <c r="B974" s="37"/>
+      <c r="A974" s="35"/>
+      <c r="B974" s="35"/>
     </row>
     <row r="975">
-      <c r="A975" s="37"/>
-      <c r="B975" s="37"/>
+      <c r="A975" s="35"/>
+      <c r="B975" s="35"/>
     </row>
     <row r="976">
-      <c r="A976" s="37"/>
-      <c r="B976" s="37"/>
+      <c r="A976" s="35"/>
+      <c r="B976" s="35"/>
     </row>
     <row r="977">
-      <c r="A977" s="37"/>
-      <c r="B977" s="37"/>
+      <c r="A977" s="35"/>
+      <c r="B977" s="35"/>
     </row>
     <row r="978">
-      <c r="A978" s="37"/>
-      <c r="B978" s="37"/>
+      <c r="A978" s="35"/>
+      <c r="B978" s="35"/>
     </row>
     <row r="979">
-      <c r="A979" s="37"/>
-      <c r="B979" s="37"/>
+      <c r="A979" s="35"/>
+      <c r="B979" s="35"/>
     </row>
     <row r="980">
-      <c r="A980" s="37"/>
-      <c r="B980" s="37"/>
+      <c r="A980" s="35"/>
+      <c r="B980" s="35"/>
     </row>
     <row r="981">
-      <c r="A981" s="37"/>
-      <c r="B981" s="37"/>
+      <c r="A981" s="35"/>
+      <c r="B981" s="35"/>
     </row>
     <row r="982">
-      <c r="A982" s="37"/>
-      <c r="B982" s="37"/>
+      <c r="A982" s="35"/>
+      <c r="B982" s="35"/>
     </row>
     <row r="983">
-      <c r="A983" s="37"/>
-      <c r="B983" s="37"/>
+      <c r="A983" s="35"/>
+      <c r="B983" s="35"/>
     </row>
     <row r="984">
-      <c r="A984" s="37"/>
-      <c r="B984" s="37"/>
+      <c r="A984" s="35"/>
+      <c r="B984" s="35"/>
     </row>
     <row r="985">
-      <c r="A985" s="37"/>
-      <c r="B985" s="37"/>
+      <c r="A985" s="35"/>
+      <c r="B985" s="35"/>
     </row>
     <row r="986">
-      <c r="A986" s="37"/>
-      <c r="B986" s="37"/>
+      <c r="A986" s="35"/>
+      <c r="B986" s="35"/>
     </row>
     <row r="987">
-      <c r="A987" s="37"/>
-      <c r="B987" s="37"/>
+      <c r="A987" s="35"/>
+      <c r="B987" s="35"/>
     </row>
     <row r="988">
-      <c r="A988" s="37"/>
-      <c r="B988" s="37"/>
+      <c r="A988" s="35"/>
+      <c r="B988" s="35"/>
     </row>
     <row r="989">
-      <c r="A989" s="37"/>
-      <c r="B989" s="37"/>
+      <c r="A989" s="35"/>
+      <c r="B989" s="35"/>
     </row>
     <row r="990">
-      <c r="A990" s="37"/>
-      <c r="B990" s="37"/>
+      <c r="A990" s="35"/>
+      <c r="B990" s="35"/>
     </row>
     <row r="991">
-      <c r="A991" s="37"/>
-      <c r="B991" s="37"/>
+      <c r="A991" s="35"/>
+      <c r="B991" s="35"/>
     </row>
     <row r="992">
-      <c r="A992" s="37"/>
-      <c r="B992" s="37"/>
+      <c r="A992" s="35"/>
+      <c r="B992" s="35"/>
     </row>
     <row r="993">
-      <c r="A993" s="37"/>
-      <c r="B993" s="37"/>
+      <c r="A993" s="35"/>
+      <c r="B993" s="35"/>
     </row>
     <row r="994">
-      <c r="A994" s="37"/>
-      <c r="B994" s="37"/>
+      <c r="A994" s="35"/>
+      <c r="B994" s="35"/>
     </row>
     <row r="995">
-      <c r="A995" s="37"/>
-      <c r="B995" s="37"/>
+      <c r="A995" s="35"/>
+      <c r="B995" s="35"/>
     </row>
     <row r="996">
-      <c r="A996" s="37"/>
-      <c r="B996" s="37"/>
+      <c r="A996" s="35"/>
+      <c r="B996" s="35"/>
     </row>
     <row r="997">
-      <c r="A997" s="37"/>
-      <c r="B997" s="37"/>
+      <c r="A997" s="35"/>
+      <c r="B997" s="35"/>
     </row>
     <row r="998">
-      <c r="A998" s="37"/>
-      <c r="B998" s="37"/>
+      <c r="A998" s="35"/>
+      <c r="B998" s="35"/>
     </row>
     <row r="999">
-      <c r="A999" s="37"/>
-      <c r="B999" s="37"/>
+      <c r="A999" s="35"/>
+      <c r="B999" s="35"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="37"/>
-      <c r="B1000" s="37"/>
+      <c r="A1000" s="35"/>
+      <c r="B1000" s="35"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8024,196 +8001,196 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="356">
   <si>
     <t>edificio los venados</t>
   </si>
@@ -518,10 +518,7 @@
     <t>puntoRuido</t>
   </si>
   <si>
-    <t>pm25 puntos fijos</t>
-  </si>
-  <si>
-    <t>ebc puntos fijos</t>
+    <t>idAire</t>
   </si>
   <si>
     <t xml:space="preserve">Txt 15 minutos </t>
@@ -2399,19 +2396,18 @@
     <col customWidth="1" min="5" max="5" width="12.38"/>
     <col customWidth="1" min="6" max="6" width="11.5"/>
     <col customWidth="1" min="7" max="7" width="15.25"/>
-    <col customWidth="1" min="8" max="8" width="14.13"/>
-    <col customWidth="1" min="9" max="9" width="13.25"/>
-    <col customWidth="1" min="10" max="10" width="10.0"/>
-    <col customWidth="1" min="11" max="11" width="10.5"/>
-    <col customWidth="1" min="12" max="12" width="8.63"/>
-    <col customWidth="1" min="13" max="13" width="13.38"/>
-    <col customWidth="1" min="14" max="14" width="15.38"/>
-    <col customWidth="1" min="15" max="15" width="15.75"/>
-    <col customWidth="1" min="16" max="16" width="8.5"/>
-    <col customWidth="1" min="17" max="17" width="8.0"/>
-    <col customWidth="1" min="18" max="18" width="7.0"/>
-    <col customWidth="1" min="19" max="19" width="40.88"/>
-    <col customWidth="1" min="20" max="20" width="20.88"/>
+    <col customWidth="1" min="8" max="8" width="13.25"/>
+    <col customWidth="1" min="9" max="9" width="10.0"/>
+    <col customWidth="1" min="10" max="10" width="10.5"/>
+    <col customWidth="1" min="11" max="11" width="8.63"/>
+    <col customWidth="1" min="12" max="12" width="13.38"/>
+    <col customWidth="1" min="13" max="13" width="15.38"/>
+    <col customWidth="1" min="14" max="14" width="15.75"/>
+    <col customWidth="1" min="15" max="15" width="8.5"/>
+    <col customWidth="1" min="16" max="16" width="8.0"/>
+    <col customWidth="1" min="17" max="17" width="7.0"/>
+    <col customWidth="1" min="18" max="18" width="40.88"/>
+    <col customWidth="1" min="19" max="19" width="20.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2472,16 +2468,13 @@
       <c r="S1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="22">
         <v>4.59779533018865</v>
@@ -2490,13 +2483,13 @@
         <v>-74.0756536703986</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>164</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3">
@@ -2504,7 +2497,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="22">
         <v>4.601444</v>
@@ -2513,29 +2506,29 @@
         <v>-74.073396</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="24" t="s">
+      <c r="R3" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="S3" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="T3" s="27"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="22">
         <v>4.605297</v>
@@ -2544,19 +2537,19 @@
         <v>-74.071588</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>176</v>
+      <c r="Q4" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -2564,7 +2557,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="22">
         <v>4.61134</v>
@@ -2573,28 +2566,28 @@
         <v>-74.069874</v>
       </c>
       <c r="E5" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>179</v>
-      </c>
+      <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="S5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="22">
         <v>4.618599</v>
@@ -2603,34 +2596,34 @@
         <v>-74.068069</v>
       </c>
       <c r="E6" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>179</v>
-      </c>
+      <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="P6" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>181</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="T6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="25">
         <v>6.0</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="22">
         <v>4.62475</v>
@@ -2639,24 +2632,24 @@
         <v>-74.066423</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="29">
         <v>1.0</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>179</v>
-      </c>
+      <c r="I7" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="S7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -2672,30 +2665,30 @@
         <v>-74.064257</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>179</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="24"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24" t="s">
-        <v>187</v>
-      </c>
+      <c r="L8" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="S8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="25">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="22">
         <v>4.6282521</v>
@@ -2704,28 +2697,28 @@
         <v>-74.0670904</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>190</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="22">
         <v>4.639489</v>
@@ -2734,37 +2727,34 @@
         <v>-74.062897</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="29">
         <v>2.0</v>
       </c>
       <c r="G10" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>198</v>
-      </c>
+      <c r="N10" s="24"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
     </row>
     <row r="11">
       <c r="A11" s="25">
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="22">
         <v>4.641975</v>
@@ -2773,27 +2763,27 @@
         <v>-74.062267</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="I11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="22">
         <v>4.645357</v>
@@ -2802,26 +2792,26 @@
         <v>-74.061291</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="29">
         <v>3.0</v>
       </c>
       <c r="G12" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>206</v>
       </c>
@@ -2837,17 +2827,14 @@
       <c r="R12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="25">
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="22">
         <v>4.6507</v>
@@ -2856,21 +2843,21 @@
         <v>-74.05822</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P13" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14">
@@ -2878,7 +2865,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="22">
         <v>4.652758</v>
@@ -2887,19 +2874,19 @@
         <v>-74.056551</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>209</v>
+      <c r="P14" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15">
@@ -2907,7 +2894,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="22">
         <v>4.65487400724876</v>
@@ -2916,31 +2903,31 @@
         <v>-74.0554333681108</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="22">
         <v>4.65671780613089</v>
@@ -2949,24 +2936,24 @@
         <v>-74.0543665308446</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="25">
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="22">
         <v>4.65869671902702</v>
@@ -2975,26 +2962,26 @@
         <v>-74.0527981659214</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="24" t="s">
-        <v>222</v>
-      </c>
+      <c r="M17" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="N17" s="24"/>
       <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="22">
         <v>4.66306901162081</v>
@@ -3003,39 +2990,36 @@
         <v>-74.0486994996409</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>224</v>
-      </c>
       <c r="I18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="T18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="25">
         <v>18.0</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="22">
         <v>4.66516565077258</v>
@@ -3044,23 +3028,23 @@
         <v>-74.0468160288417</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" s="29">
         <v>4.0</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="I19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="22">
         <v>4.67138521212362</v>
@@ -3069,28 +3053,28 @@
         <v>-74.0438000439461</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="T20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="25">
         <v>20.0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="22">
         <v>4.67447260123109</v>
@@ -3099,28 +3083,28 @@
         <v>-74.0417018437693</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="S21" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="22">
         <v>4.67985737530602</v>
@@ -3129,22 +3113,22 @@
         <v>-74.0382125791768</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="Q22" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23">
@@ -3152,7 +3136,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="22">
         <v>4.6851414298036</v>
@@ -3161,37 +3145,34 @@
         <v>-74.0356604991655</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23" s="29">
         <v>5.0</v>
       </c>
       <c r="G23" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>239</v>
-      </c>
+      <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="S23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="22">
         <v>4.69366275843025</v>
@@ -3200,28 +3181,28 @@
         <v>-74.0332252216773</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="S24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="T24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="25">
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="22">
         <v>4.70213634871971</v>
@@ -3230,24 +3211,24 @@
         <v>-74.0285922020549</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="22">
         <v>4.71168163739051</v>
@@ -3256,33 +3237,30 @@
         <v>-74.029166381959</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="29">
         <v>6.0</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
     </row>
     <row r="27">
       <c r="A27" s="25">
         <v>26.0</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="22">
         <v>4.71618941013746</v>
@@ -3291,30 +3269,30 @@
         <v>-74.028746372056</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24" t="s">
+      <c r="M27" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="R27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="S27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="T27" s="1"/>
+      <c r="S27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="22">
         <v>4.72271112809495</v>
@@ -3323,24 +3301,24 @@
         <v>-74.0261459774934</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
     </row>
     <row r="29">
       <c r="A29" s="25">
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="22">
         <v>4.72561860463364</v>
@@ -3349,19 +3327,19 @@
         <v>-74.0248846037107</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="R29" s="1" t="s">
-        <v>253</v>
+      <c r="Q29" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30">
@@ -3369,7 +3347,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="22">
         <v>4.72759203191308</v>
@@ -3378,27 +3356,27 @@
         <v>-74.0246188787511</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
     </row>
     <row r="31">
       <c r="A31" s="25">
         <v>30.0</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="22">
         <v>4.73504479371492</v>
@@ -3407,37 +3385,34 @@
         <v>-74.0243405599811</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>257</v>
-      </c>
       <c r="I31" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J31" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
       <c r="M31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="22">
         <v>4.73928285919624</v>
@@ -3446,21 +3421,21 @@
         <v>-74.0227685844767</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="25">
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="22">
         <v>4.74104500723192</v>
@@ -3469,22 +3444,22 @@
         <v>-74.0223245655917</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="T33" s="1"/>
+      <c r="S33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="22">
         <v>4.74704550134667</v>
@@ -3493,26 +3468,23 @@
         <v>-74.0226372775582</v>
       </c>
       <c r="E34" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="J34" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H34" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1" t="s">
-        <v>271</v>
+      <c r="P34" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -3520,7 +3492,7 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="22">
         <v>4.75396347261005</v>
@@ -3529,10 +3501,10 @@
         <v>-74.0244240661433</v>
       </c>
       <c r="E35" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="36">
@@ -3540,7 +3512,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="22">
         <v>4.75617544590708</v>
@@ -3549,19 +3521,19 @@
         <v>-74.0246792916686</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="T36" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="25">
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="22">
         <v>4.76052434895997</v>
@@ -3570,19 +3542,19 @@
         <v>-74.0263419552712</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="T37" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="22">
         <v>4.76566235110988</v>
@@ -3591,16 +3563,13 @@
         <v>-74.027549403371</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="39">
@@ -3608,7 +3577,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="22">
         <v>4.7689779473818</v>
@@ -3617,7 +3586,7 @@
         <v>-74.0273381986581</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40">
@@ -3625,7 +3594,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="22">
         <v>4.76966052997788</v>
@@ -3634,19 +3603,19 @@
         <v>-74.0270269840824</v>
       </c>
       <c r="E40" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="T40" s="1"/>
+      <c r="S40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="25">
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" s="22">
         <v>4.7771118817951</v>
@@ -3655,19 +3624,19 @@
         <v>-74.0260495949368</v>
       </c>
       <c r="E41" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="T41" s="1"/>
+      <c r="S41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C42" s="22">
         <v>4.79861514914944</v>
@@ -3676,7 +3645,7 @@
         <v>-74.0307002114146</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3704,21 +3673,21 @@
         <v>143</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -3726,13 +3695,13 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -3750,13 +3719,13 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -3769,354 +3738,354 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>302</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>304</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
@@ -8001,196 +7970,196 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="354">
   <si>
     <t>edificio los venados</t>
   </si>
@@ -545,10 +545,10 @@
     <t>Txt Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">Podcast </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfil </t>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>perfil</t>
   </si>
   <si>
     <t>ilustracion</t>
@@ -1095,9 +1095,6 @@
     <t>ruta archivo</t>
   </si>
   <si>
-    <t>podcast</t>
-  </si>
-  <si>
     <t>aire_ruido</t>
   </si>
   <si>
@@ -1108,9 +1105,6 @@
   </si>
   <si>
     <t>habitabilidad</t>
-  </si>
-  <si>
-    <t>perfil</t>
   </si>
   <si>
     <t>habitabilidad_1</t>
@@ -7987,14 +7981,14 @@
         <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -8002,14 +7996,14 @@
         <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
@@ -8017,14 +8011,14 @@
         <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
@@ -8032,14 +8026,14 @@
         <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6">
@@ -8047,29 +8041,29 @@
         <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
@@ -8077,14 +8071,14 @@
         <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
@@ -8092,29 +8086,29 @@
         <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
@@ -8122,14 +8116,14 @@
         <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
@@ -8137,29 +8131,29 @@
         <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Cuatro cuadras" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Textos" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Elementos" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cuatro cuadras" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Textos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Elementos" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Autoría desconocida</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -33,8 +33,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">sugiero invertir el orden de estos dos porque la Javeriana queda antes de la 45 yendo de sur a norte
 	-Antonia Bu
@@ -49,8 +51,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Los datos tomados son en la cll 37
 	-Antonia Bu</t>
@@ -62,8 +66,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">hay datos en la 61
 	-Antonia Bu</t>
@@ -75,8 +81,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">la 84 no existe, cambié por 84A
 	-Antonia Bu</t>
@@ -88,8 +96,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Hay datos en la 86
 	-Antonia Bu</t>
@@ -101,8 +111,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Hay datos en la 108A
 	-Antonia Bu</t>
@@ -114,8 +126,10 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Hay datos en la calle 132
 	-Antonia Bu</t>
@@ -127,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="354">
   <si>
     <t xml:space="preserve">edificio los venados</t>
   </si>
@@ -625,6 +639,9 @@
   </si>
   <si>
     <t xml:space="preserve">tfp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaza_de_bolivar</t>
   </si>
   <si>
     <t xml:space="preserve">Avenida Jiménez</t>
@@ -1203,7 +1220,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1228,7 +1245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1236,15 +1253,10 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1252,19 +1264,6 @@
       <name val="&quot;Google Sans&quot;"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1283,7 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFF6D01"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
@@ -1319,7 +1318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF46BDC6"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
@@ -1391,7 +1390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1484,11 +1483,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1500,10 +1499,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1512,7 +1507,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1520,23 +1515,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1612,180 +1603,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285f4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ea4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="fbbc04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34a853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="ff6d01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46bdc6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155cc"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155cc"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -1799,7 +1618,7 @@
       <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -1808,19 +1627,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="26.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="32.13"/>
@@ -2590,38 +2409,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q36" activeCellId="0" sqref="Q36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.88"/>
   </cols>
   <sheetData>
@@ -2706,13 +2525,16 @@
       <c r="N2" s="25" t="s">
         <v>165</v>
       </c>
+      <c r="R2" s="0" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>4.601444</v>
@@ -2720,30 +2542,30 @@
       <c r="D3" s="23" t="n">
         <v>-74.073396</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="R3" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="S3" s="28"/>
+      <c r="R3" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>4.605297</v>
@@ -2752,19 +2574,19 @@
         <v>-74.071588</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>4.61134</v>
@@ -2781,10 +2603,10 @@
         <v>-74.069874</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -2802,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>4.618599</v>
@@ -2811,10 +2633,10 @@
         <v>-74.068069</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -2823,13 +2645,13 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S6" s="1"/>
     </row>
@@ -2837,8 +2659,8 @@
       <c r="A7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>183</v>
+      <c r="B7" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>4.62475</v>
@@ -2847,13 +2669,13 @@
         <v>-74.066423</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="29" t="n">
+        <v>185</v>
+      </c>
+      <c r="F7" s="28" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -2862,7 +2684,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="R7" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -2880,21 +2702,21 @@
         <v>-74.064257</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="R8" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S8" s="1"/>
     </row>
@@ -2903,7 +2725,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>4.6282521</v>
@@ -2912,17 +2734,17 @@
         <v>-74.0670904</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2932,8 +2754,8 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>193</v>
+      <c r="B10" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>4.639489</v>
@@ -2942,24 +2764,24 @@
         <v>-74.062897</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="29" t="n">
+        <v>195</v>
+      </c>
+      <c r="F10" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>195</v>
+      <c r="G10" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -2969,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>4.641975</v>
@@ -2978,13 +2800,13 @@
         <v>-74.062267</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2997,8 +2819,8 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>201</v>
+      <c r="B12" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>4.645357</v>
@@ -3007,40 +2829,40 @@
         <v>-74.061291</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="29" t="n">
+        <v>203</v>
+      </c>
+      <c r="F12" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>203</v>
+      <c r="G12" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S12" s="1"/>
     </row>
@@ -3049,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>4.6507</v>
@@ -3058,10 +2880,10 @@
         <v>-74.05822</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3069,10 +2891,10 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,7 +2902,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>4.652758</v>
@@ -3089,10 +2911,10 @@
         <v>-74.056551</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3101,7 +2923,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>4.65487400724876</v>
@@ -3118,10 +2940,10 @@
         <v>-74.0554333681108</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3130,10 +2952,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S15" s="1"/>
     </row>
@@ -3142,7 +2964,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>4.65671780613089</v>
@@ -3151,10 +2973,10 @@
         <v>-74.0543665308446</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3168,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>4.65869671902702</v>
@@ -3177,16 +2999,16 @@
         <v>-74.0527981659214</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -3195,8 +3017,8 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>222</v>
+      <c r="B18" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>4.66306901162081</v>
@@ -3207,25 +3029,25 @@
       <c r="E18" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>223</v>
+      <c r="G18" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S18" s="1"/>
     </row>
@@ -3233,8 +3055,8 @@
       <c r="A19" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>227</v>
+      <c r="B19" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>4.66516565077258</v>
@@ -3243,13 +3065,13 @@
         <v>-74.0468160288417</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="29" t="n">
+        <v>195</v>
+      </c>
+      <c r="F19" s="28" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3259,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>4.67138521212362</v>
@@ -3268,10 +3090,10 @@
         <v>-74.0438000439461</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3280,7 +3102,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S20" s="1"/>
     </row>
@@ -3289,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>4.67447260123109</v>
@@ -3298,10 +3120,10 @@
         <v>-74.0417018437693</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3310,7 +3132,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S21" s="1"/>
     </row>
@@ -3319,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>4.67985737530602</v>
@@ -3328,10 +3150,10 @@
         <v>-74.0382125791768</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3340,18 +3162,18 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>236</v>
+      <c r="B23" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>4.6851414298036</v>
@@ -3360,16 +3182,16 @@
         <v>-74.0356604991655</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="29" t="n">
+        <v>200</v>
+      </c>
+      <c r="F23" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>237</v>
+      <c r="G23" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -3378,7 +3200,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="R23" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S23" s="1"/>
     </row>
@@ -3387,7 +3209,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>4.69366275843025</v>
@@ -3396,10 +3218,10 @@
         <v>-74.0332252216773</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -3408,7 +3230,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="R24" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S24" s="1"/>
     </row>
@@ -3417,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>4.70213634871971</v>
@@ -3426,10 +3248,10 @@
         <v>-74.0285922020549</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3442,8 +3264,8 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>244</v>
+      <c r="B26" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>4.71168163739051</v>
@@ -3452,16 +3274,16 @@
         <v>-74.029166381959</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" s="29" t="n">
+        <v>185</v>
+      </c>
+      <c r="F26" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>245</v>
+      <c r="G26" s="28" t="s">
+        <v>246</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -3475,7 +3297,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>4.71618941013746</v>
@@ -3484,21 +3306,21 @@
         <v>-74.028746372056</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="R27" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S27" s="1"/>
     </row>
@@ -3507,7 +3329,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>4.72271112809495</v>
@@ -3516,10 +3338,10 @@
         <v>-74.0261459774934</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -3533,7 +3355,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>4.72561860463364</v>
@@ -3542,10 +3364,10 @@
         <v>-74.0248846037107</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -3554,7 +3376,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="Q29" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,7 +3384,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>4.72759203191308</v>
@@ -3571,13 +3393,13 @@
         <v>-74.0246188787511</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -3590,8 +3412,8 @@
       <c r="A31" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>255</v>
+      <c r="B31" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>4.73504479371492</v>
@@ -3600,24 +3422,24 @@
         <v>-74.0243405599811</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>256</v>
+        <v>173</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>257</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3627,7 +3449,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>4.73928285919624</v>
@@ -3636,10 +3458,10 @@
         <v>-74.0227685844767</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3650,7 +3472,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>4.74104500723192</v>
@@ -3659,13 +3481,13 @@
         <v>-74.0223245655917</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S33" s="1"/>
     </row>
@@ -3673,8 +3495,8 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>265</v>
+      <c r="B34" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>4.74704550134667</v>
@@ -3683,23 +3505,23 @@
         <v>-74.0226372775582</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="29" t="s">
         <v>267</v>
       </c>
+      <c r="G34" s="28" t="s">
+        <v>268</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3529,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>4.75396347261005</v>
@@ -3716,10 +3538,10 @@
         <v>-74.0244240661433</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,7 +3549,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>4.75617544590708</v>
@@ -3736,13 +3558,13 @@
         <v>-74.0246792916686</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q36" s="30" t="s">
-        <v>275</v>
+        <v>230</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>276</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S36" s="1"/>
     </row>
@@ -3751,7 +3573,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>4.76052434895997</v>
@@ -3760,10 +3582,10 @@
         <v>-74.0263419552712</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S37" s="1"/>
     </row>
@@ -3771,8 +3593,8 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>279</v>
+      <c r="B38" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>4.76566235110988</v>
@@ -3783,11 +3605,11 @@
       <c r="E38" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>280</v>
+      <c r="G38" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +3617,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>4.7689779473818</v>
@@ -3804,7 +3626,7 @@
         <v>-74.0273381986581</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3634,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>4.76966052997788</v>
@@ -3821,10 +3643,10 @@
         <v>-74.0270269840824</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S40" s="1"/>
     </row>
@@ -3833,7 +3655,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>4.7771118817951</v>
@@ -3842,10 +3664,10 @@
         <v>-74.0260495949368</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S41" s="1"/>
     </row>
@@ -3854,7 +3676,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>4.79861514914944</v>
@@ -3863,7 +3685,7 @@
         <v>-74.0307002114146</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3888,288 +3710,288 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>292</v>
+      <c r="B1" s="30" t="s">
+        <v>293</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+        <v>295</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+        <v>295</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="32" t="s">
         <v>299</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="32" t="s">
         <v>303</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="32" t="s">
         <v>307</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>312</v>
+        <v>307</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>314</v>
+        <v>307</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="32" t="s">
         <v>316</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,74 +4001,74 @@
       <c r="B24" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>322</v>
+      <c r="C24" s="31" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>323</v>
+      <c r="C25" s="31" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>324</v>
+      <c r="C26" s="31" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>325</v>
+      <c r="C27" s="31" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>326</v>
+      <c r="C28" s="31" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>327</v>
+      <c r="C29" s="31" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>328</v>
+      <c r="C30" s="31" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,65 +4076,65 @@
         <v>165</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C31" s="32" t="s">
         <v>330</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>332</v>
+      <c r="C33" s="31" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>333</v>
+      <c r="C34" s="31" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>334</v>
+      <c r="C35" s="31" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>335</v>
+      <c r="C36" s="31" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8193,9 +8015,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.51"/>
@@ -8206,21 +8028,21 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>158</v>
@@ -8228,14 +8050,14 @@
       <c r="C2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>158</v>
@@ -8243,14 +8065,14 @@
       <c r="C3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
@@ -8258,14 +8080,14 @@
       <c r="C4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>158</v>
@@ -8273,14 +8095,14 @@
       <c r="C5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>159</v>
@@ -8288,14 +8110,14 @@
       <c r="C6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>159</v>
@@ -8303,14 +8125,14 @@
       <c r="C7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>159</v>
@@ -8318,14 +8140,14 @@
       <c r="C8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>159</v>
@@ -8333,14 +8155,14 @@
       <c r="C9" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>159</v>
@@ -8348,14 +8170,14 @@
       <c r="C10" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36" t="s">
-        <v>348</v>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>159</v>
@@ -8363,14 +8185,14 @@
       <c r="C11" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>159</v>
@@ -8378,14 +8200,14 @@
       <c r="C12" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>159</v>
@@ -8393,9 +8215,9 @@
       <c r="C13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="353">
   <si>
     <t xml:space="preserve">edificio los venados</t>
   </si>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">criterio</t>
   </si>
   <si>
-    <t xml:space="preserve">Plaza Bolivar </t>
+    <t xml:space="preserve">Plaza de Bolívar</t>
   </si>
   <si>
     <t xml:space="preserve">avenida jiménez</t>
@@ -627,9 +627,6 @@
   </si>
   <si>
     <t xml:space="preserve">Texto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaza de Bolívar</t>
   </si>
   <si>
     <t xml:space="preserve">0,53</t>
@@ -1610,15 +1607,15 @@
   </sheetPr>
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -1627,11 +1624,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.63"/>
@@ -1639,7 +1636,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="26.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="32.13"/>
@@ -1825,7 +1822,7 @@
       <c r="AQ4" s="5"/>
       <c r="AR4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>38</v>
@@ -2415,13 +2412,13 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -2429,7 +2426,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.51"/>
@@ -2437,7 +2434,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="40.88"/>
@@ -2508,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="C2" s="23" t="n">
         <v>4.59779533018865</v>
@@ -2517,16 +2514,16 @@
         <v>-74.0756536703986</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="R2" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>4.601444</v>
@@ -2544,19 +2541,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="S3" s="27"/>
     </row>
@@ -2565,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>4.605297</v>
@@ -2574,19 +2571,19 @@
         <v>-74.071588</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>4.61134</v>
@@ -2603,10 +2600,10 @@
         <v>-74.069874</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -2624,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>4.618599</v>
@@ -2633,10 +2630,10 @@
         <v>-74.068069</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -2645,13 +2642,13 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="S6" s="1"/>
     </row>
@@ -2660,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>4.62475</v>
@@ -2669,13 +2666,13 @@
         <v>-74.066423</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="28" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -2684,7 +2681,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="R7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -2702,21 +2699,21 @@
         <v>-74.064257</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="R8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S8" s="1"/>
     </row>
@@ -2725,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>4.6282521</v>
@@ -2734,17 +2731,17 @@
         <v>-74.0670904</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2755,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>4.639489</v>
@@ -2764,24 +2761,24 @@
         <v>-74.062897</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -2791,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>4.641975</v>
@@ -2800,13 +2797,13 @@
         <v>-74.062267</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>201</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2820,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>4.645357</v>
@@ -2829,40 +2826,40 @@
         <v>-74.061291</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="28" t="n">
         <v>3</v>
       </c>
       <c r="G12" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="S12" s="1"/>
     </row>
@@ -2871,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>4.6507</v>
@@ -2880,10 +2877,10 @@
         <v>-74.05822</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2891,10 +2888,10 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,7 +2899,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>4.652758</v>
@@ -2911,10 +2908,10 @@
         <v>-74.056551</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2923,7 +2920,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,7 +2928,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>4.65487400724876</v>
@@ -2940,10 +2937,10 @@
         <v>-74.0554333681108</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2952,10 +2949,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S15" s="1"/>
     </row>
@@ -2964,7 +2961,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>4.65671780613089</v>
@@ -2973,10 +2970,10 @@
         <v>-74.0543665308446</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2990,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>4.65869671902702</v>
@@ -2999,16 +2996,16 @@
         <v>-74.0527981659214</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -3018,7 +3015,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>4.66306901162081</v>
@@ -3027,27 +3024,27 @@
         <v>-74.0486994996409</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S18" s="1"/>
     </row>
@@ -3056,7 +3053,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>4.66516565077258</v>
@@ -3065,13 +3062,13 @@
         <v>-74.0468160288417</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3081,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>4.67138521212362</v>
@@ -3090,10 +3087,10 @@
         <v>-74.0438000439461</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3102,7 +3099,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S20" s="1"/>
     </row>
@@ -3111,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>4.67447260123109</v>
@@ -3120,10 +3117,10 @@
         <v>-74.0417018437693</v>
       </c>
       <c r="E21" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3132,7 +3129,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S21" s="1"/>
     </row>
@@ -3141,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>4.67985737530602</v>
@@ -3150,10 +3147,10 @@
         <v>-74.0382125791768</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3162,10 +3159,10 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3170,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>4.6851414298036</v>
@@ -3182,16 +3179,16 @@
         <v>-74.0356604991655</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -3200,7 +3197,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="R23" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S23" s="1"/>
     </row>
@@ -3209,7 +3206,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>4.69366275843025</v>
@@ -3218,10 +3215,10 @@
         <v>-74.0332252216773</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -3230,7 +3227,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="R24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S24" s="1"/>
     </row>
@@ -3239,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>4.70213634871971</v>
@@ -3248,10 +3245,10 @@
         <v>-74.0285922020549</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3265,7 +3262,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>4.71168163739051</v>
@@ -3274,16 +3271,16 @@
         <v>-74.029166381959</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>6</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -3297,7 +3294,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>4.71618941013746</v>
@@ -3306,21 +3303,21 @@
         <v>-74.028746372056</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="R27" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S27" s="1"/>
     </row>
@@ -3329,7 +3326,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>4.72271112809495</v>
@@ -3338,10 +3335,10 @@
         <v>-74.0261459774934</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -3355,7 +3352,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>4.72561860463364</v>
@@ -3364,10 +3361,10 @@
         <v>-74.0248846037107</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -3376,7 +3373,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="Q29" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3381,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>4.72759203191308</v>
@@ -3393,13 +3390,13 @@
         <v>-74.0246188787511</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -3413,7 +3410,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>4.73504479371492</v>
@@ -3422,24 +3419,24 @@
         <v>-74.0243405599811</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>258</v>
-      </c>
       <c r="I31" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3449,7 +3446,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>4.73928285919624</v>
@@ -3458,10 +3455,10 @@
         <v>-74.0227685844767</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3472,7 +3469,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>4.74104500723192</v>
@@ -3481,13 +3478,13 @@
         <v>-74.0223245655917</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="S33" s="1"/>
     </row>
@@ -3496,7 +3493,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>4.74704550134667</v>
@@ -3505,23 +3502,23 @@
         <v>-74.0226372775582</v>
       </c>
       <c r="E34" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="J34" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,7 +3526,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>4.75396347261005</v>
@@ -3538,10 +3535,10 @@
         <v>-74.0244240661433</v>
       </c>
       <c r="E35" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,7 +3546,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>4.75617544590708</v>
@@ -3558,13 +3555,13 @@
         <v>-74.0246792916686</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="S36" s="1"/>
     </row>
@@ -3573,7 +3570,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>4.76052434895997</v>
@@ -3582,10 +3579,10 @@
         <v>-74.0263419552712</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S37" s="1"/>
     </row>
@@ -3594,7 +3591,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>4.76566235110988</v>
@@ -3603,13 +3600,13 @@
         <v>-74.027549403371</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G38" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,7 +3614,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>4.7689779473818</v>
@@ -3626,7 +3623,7 @@
         <v>-74.0273381986581</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,7 +3631,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>4.76966052997788</v>
@@ -3643,10 +3640,10 @@
         <v>-74.0270269840824</v>
       </c>
       <c r="E40" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="S40" s="1"/>
     </row>
@@ -3655,7 +3652,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>4.7771118817951</v>
@@ -3664,10 +3661,10 @@
         <v>-74.0260495949368</v>
       </c>
       <c r="E41" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="S41" s="1"/>
     </row>
@@ -3676,7 +3673,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>4.79861514914944</v>
@@ -3685,7 +3682,7 @@
         <v>-74.0307002114146</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3707,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
@@ -3722,21 +3719,21 @@
         <v>143</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -3744,13 +3741,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -3768,13 +3765,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -3787,354 +3784,354 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>299</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>305</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>307</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>316</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>330</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,7 +8012,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>
@@ -8028,21 +8025,21 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>158</v>
@@ -8052,12 +8049,12 @@
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>158</v>
@@ -8067,12 +8064,12 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
@@ -8082,12 +8079,12 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>158</v>
@@ -8097,12 +8094,12 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>159</v>
@@ -8112,12 +8109,12 @@
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>159</v>
@@ -8127,12 +8124,12 @@
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>159</v>
@@ -8142,12 +8139,12 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>159</v>
@@ -8157,12 +8154,12 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>159</v>
@@ -8172,12 +8169,12 @@
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>159</v>
@@ -8187,12 +8184,12 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>159</v>
@@ -8202,12 +8199,12 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>159</v>
@@ -8217,7 +8214,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -689,9 +689,6 @@
     <t xml:space="preserve">pe1</t>
   </si>
   <si>
-    <t xml:space="preserve">centro_internacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calle 36</t>
   </si>
   <si>
@@ -785,6 +782,9 @@
     <t xml:space="preserve">tsa3</t>
   </si>
   <si>
+    <t xml:space="preserve">edificio_caracol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calle 70</t>
   </si>
   <si>
@@ -839,18 +839,18 @@
     <t xml:space="preserve">Calle 94</t>
   </si>
   <si>
+    <t xml:space="preserve">Calle 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe7</t>
+  </si>
+  <si>
     <t xml:space="preserve">seminario_conciliar</t>
   </si>
   <si>
-    <t xml:space="preserve">Calle 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calle 106</t>
   </si>
   <si>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">0,68</t>
   </si>
   <si>
-    <t xml:space="preserve">fundacion_santa_fe; centro_comercial_santa_barbara</t>
+    <t xml:space="preserve">hacienda_santa_barbara</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 127</t>
@@ -1607,15 +1607,15 @@
   </sheetPr>
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="R20 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -2412,13 +2412,13 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="R20" activeCellId="0" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -2647,9 +2647,7 @@
       <c r="Q6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>4.62475</v>
@@ -2666,7 +2664,7 @@
         <v>-74.066423</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="28" t="n">
         <v>1</v>
@@ -2681,7 +2679,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="R7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -2699,7 +2697,7 @@
         <v>-74.064257</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>178</v>
@@ -2707,13 +2705,13 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="R8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S8" s="1"/>
     </row>
@@ -2722,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>4.6282521</v>
@@ -2731,17 +2729,17 @@
         <v>-74.0670904</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2752,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>4.639489</v>
@@ -2761,24 +2759,24 @@
         <v>-74.062897</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>196</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>197</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -2788,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>4.641975</v>
@@ -2797,13 +2795,13 @@
         <v>-74.062267</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>200</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2817,7 +2815,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>4.645357</v>
@@ -2826,40 +2824,40 @@
         <v>-74.061291</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="28" t="n">
         <v>3</v>
       </c>
       <c r="G12" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="S12" s="1"/>
     </row>
@@ -2868,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>4.6507</v>
@@ -2877,10 +2875,10 @@
         <v>-74.05822</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2888,10 +2886,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,10 +2909,10 @@
         <v>-74.056551</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2920,7 +2921,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,7 +2941,7 @@
         <v>216</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2949,7 +2950,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>217</v>
@@ -2973,7 +2974,7 @@
         <v>219</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2999,7 +3000,7 @@
         <v>216</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3033,7 +3034,7 @@
         <v>224</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3048,7 +3049,7 @@
       </c>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
         <v>18</v>
       </c>
@@ -3062,18 +3063,18 @@
         <v>-74.0468160288417</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>229</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3103,7 +3104,7 @@
       </c>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>20</v>
       </c>
@@ -3117,10 +3118,10 @@
         <v>-74.0417018437693</v>
       </c>
       <c r="E21" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3128,17 +3129,14 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>4.67985737530602</v>
@@ -3150,7 +3148,7 @@
         <v>229</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3159,9 +3157,12 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
         <v>-74.0356604991655</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>5</v>
@@ -3245,7 +3246,7 @@
         <v>-74.0285922020549</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>238</v>
@@ -3271,7 +3272,7 @@
         <v>-74.029166381959</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>6</v>
@@ -3303,7 +3304,7 @@
         <v>-74.028746372056</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>238</v>
@@ -3361,7 +3362,7 @@
         <v>-74.0248846037107</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>238</v>
@@ -3579,7 +3580,7 @@
         <v>-74.0263419552712</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>278</v>
@@ -3704,10 +3705,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
@@ -3741,7 +3742,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>294</v>
@@ -3795,7 +3796,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>298</v>
@@ -3850,7 +3851,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>306</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>306</v>
@@ -3872,7 +3873,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>306</v>
@@ -3927,7 +3928,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>315</v>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>315</v>
@@ -4015,7 +4016,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>147</v>
@@ -4026,7 +4027,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>147</v>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>329</v>
@@ -4103,7 +4104,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>119</v>
@@ -4114,7 +4115,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>119</v>
@@ -8009,10 +8010,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>
@@ -8054,7 +8055,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>158</v>
@@ -8069,7 +8070,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
@@ -8144,7 +8145,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>159</v>
@@ -8189,7 +8190,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>159</v>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -1612,10 +1612,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="R20 C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="R15 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -2413,12 +2413,12 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R20" activeCellId="0" sqref="R20"/>
+      <selection pane="bottomLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -2924,7 +2924,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>14</v>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="n">
         <v>34</v>
       </c>
@@ -3705,10 +3705,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
@@ -8010,10 +8010,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -638,9 +638,6 @@
     <t xml:space="preserve">tfp1</t>
   </si>
   <si>
-    <t xml:space="preserve">plaza_de_bolivar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avenida Jiménez</t>
   </si>
   <si>
@@ -653,7 +650,7 @@
     <t xml:space="preserve">tsa1</t>
   </si>
   <si>
-    <t xml:space="preserve">iglesia_san_francisco</t>
+    <t xml:space="preserve">Iglesia San Francisco</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 19</t>
@@ -680,6 +677,9 @@
     <t xml:space="preserve">tpj1</t>
   </si>
   <si>
+    <t xml:space="preserve">Planetario de Bogotá</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calle 32</t>
   </si>
   <si>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">0,6</t>
   </si>
   <si>
-    <t xml:space="preserve">parque_nacional</t>
+    <t xml:space="preserve">Parque Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">tca2</t>
   </si>
   <si>
-    <t xml:space="preserve">universidad_javeriana</t>
+    <t xml:space="preserve">Universidad Javeriana</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 45</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">pe4</t>
   </si>
   <si>
-    <t xml:space="preserve">parque_hippies</t>
+    <t xml:space="preserve">Parque de los Hippies</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 67</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">tsa3</t>
   </si>
   <si>
-    <t xml:space="preserve">edificio_caracol</t>
+    <t xml:space="preserve">Edificio Caracol</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 70</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">0,58</t>
   </si>
   <si>
-    <t xml:space="preserve">edificio_venados</t>
+    <t xml:space="preserve">Edificio Los Venados</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 74</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">tca5</t>
   </si>
   <si>
-    <t xml:space="preserve">subida_patios</t>
+    <t xml:space="preserve">Subida a Patios</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 85</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">0,5</t>
   </si>
   <si>
-    <t xml:space="preserve">museo_del_chico</t>
+    <t xml:space="preserve">Museo del Chicó</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 94</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">pe7</t>
   </si>
   <si>
-    <t xml:space="preserve">seminario_conciliar</t>
+    <t xml:space="preserve">Seminario Conciliar</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 106</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">tpj3</t>
   </si>
   <si>
-    <t xml:space="preserve">escuela_caballeria</t>
+    <t xml:space="preserve">Escuela de Caballería</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 116</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">0,68</t>
   </si>
   <si>
-    <t xml:space="preserve">hacienda_santa_barbara</t>
+    <t xml:space="preserve">Hacienda Santa Bárbara</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 127</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">tcm6</t>
   </si>
   <si>
-    <t xml:space="preserve">centro_comercial_palatino</t>
+    <t xml:space="preserve">Centro Comercial Palatino</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 147</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">t15m6</t>
   </si>
   <si>
-    <t xml:space="preserve">hospital_simon_bolivar</t>
+    <t xml:space="preserve">Hospital Simón Bolívar</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 170</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">pe5</t>
   </si>
   <si>
-    <t xml:space="preserve">abastos_codabas</t>
+    <t xml:space="preserve">Abasto Codabas</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 183</t>
   </si>
   <si>
-    <t xml:space="preserve">barrio_el_codito</t>
+    <t xml:space="preserve">Barrio El Codito</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 189</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">0,35</t>
   </si>
   <si>
-    <t xml:space="preserve">finca_la_suiza</t>
+    <t xml:space="preserve">Finca La Suiza</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 200</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">0,37</t>
   </si>
   <si>
-    <t xml:space="preserve">subestacion_torca</t>
+    <t xml:space="preserve">Subestación Torca</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 220</t>
@@ -1612,7 +1612,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="R15 C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,9 +2413,9 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
+      <selection pane="bottomLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2523,7 +2523,7 @@
         <v>164</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>4.601444</v>
@@ -2541,19 +2541,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>170</v>
       </c>
       <c r="S3" s="27"/>
     </row>
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>4.605297</v>
@@ -2571,19 +2571,19 @@
         <v>-74.071588</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>4.61134</v>
@@ -2600,10 +2600,10 @@
         <v>-74.069874</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -2612,7 +2612,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="R5" s="1" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="S5" s="1"/>
     </row>
@@ -2630,10 +2630,10 @@
         <v>-74.068069</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -2700,7 +2700,7 @@
         <v>183</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -3420,7 +3420,7 @@
         <v>-74.0243405599811</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>256</v>
@@ -3479,7 +3479,7 @@
         <v>-74.0223245655917</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>263</v>
@@ -3705,7 +3705,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>294</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>298</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>302</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>306</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>147</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>119</v>
@@ -8010,7 +8010,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>159</v>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -971,7 +971,7 @@
     <t xml:space="preserve">pe5</t>
   </si>
   <si>
-    <t xml:space="preserve">Abasto Codabas</t>
+    <t xml:space="preserve">Centro de abastos Codabas</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 183</t>
@@ -1608,11 +1608,11 @@
   <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AR6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="AR1" activeCellId="0" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="R36 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,9 +2413,9 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="R36" activeCellId="0" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3705,7 +3705,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R36 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8010,7 +8010,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R36 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -596,7 +596,7 @@
     <t xml:space="preserve">Txt 15 minutos </t>
   </si>
   <si>
-    <t xml:space="preserve">Txt Pájaros</t>
+    <t xml:space="preserve">txtPajaros</t>
   </si>
   <si>
     <t xml:space="preserve">Txt Basuras</t>
@@ -1612,10 +1612,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AR1" activeCellId="0" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="R36 C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -2415,10 +2415,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R36" activeCellId="0" sqref="R36"/>
+      <selection pane="bottomLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -3705,10 +3705,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R36 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
@@ -8010,10 +8010,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R36 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="353">
   <si>
     <t xml:space="preserve">edificio los venados</t>
   </si>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">tsa2</t>
   </si>
   <si>
+    <t xml:space="preserve">pe4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque de los Hippies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsa3</t>
+  </si>
+  <si>
     <t xml:space="preserve">pd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parque de los Hippies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsa3</t>
   </si>
   <si>
     <t xml:space="preserve">Edificio Caracol</t>
@@ -1615,7 +1615,7 @@
       <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -2413,12 +2413,12 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -2850,14 +2850,12 @@
       <c r="O12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="S12" s="1"/>
     </row>
@@ -2866,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>4.6507</v>
@@ -2875,7 +2873,7 @@
         <v>-74.05822</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>189</v>
@@ -2886,16 +2884,16 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2920,9 +2918,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
@@ -2949,9 +2945,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="R15" s="1" t="s">
         <v>217</v>
       </c>
@@ -3304,7 +3298,7 @@
         <v>-74.028746372056</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>238</v>
@@ -3580,7 +3574,7 @@
         <v>-74.0263419552712</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>278</v>
@@ -3708,7 +3702,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
@@ -4115,7 +4109,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>119</v>
@@ -8013,7 +8007,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>
@@ -8055,7 +8049,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>158</v>
@@ -8145,7 +8139,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>159</v>

--- a/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
+++ b/aplicaciones/procesador/datos/Mapa 7ma - Datos.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="353">
   <si>
     <t xml:space="preserve">edificio los venados</t>
   </si>
@@ -686,307 +686,304 @@
     <t xml:space="preserve">pd4</t>
   </si>
   <si>
+    <t xml:space="preserve">Calle 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Javeriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpj2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t15m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t15m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsa2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque de los Hippies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsa3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edificio Caracol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edificio Los Venados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcm5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK7XCL81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t15m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subida a Patios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo del Chicó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminario Conciliar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpj3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escuela de Caballería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacienda Santa Bárbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcm6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Comercial Palatino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t15m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t15m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcm7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t15m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Simón Bolívar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tca8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro de abastos Codabas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrio El Codito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR7XCL186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsa4</t>
+  </si>
+  <si>
     <t xml:space="preserve">pe1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parque Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Javeriana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpj2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tb2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t15m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t15m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsa2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parque de los Hippies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsa3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edificio Caracol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edificio Los Venados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcm5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK7XCL81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t15m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subida a Patios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Museo del Chicó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminario Conciliar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpj3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escuela de Caballería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacienda Santa Bárbara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcm6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Comercial Palatino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t15m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t15m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcm7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t15m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Simón Bolívar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tb3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tca8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro de abastos Codabas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrio El Codito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR7XCL186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsa4</t>
   </si>
   <si>
     <t xml:space="preserve">Calle 192</t>
@@ -1198,6 +1195,9 @@
   </si>
   <si>
     <t xml:space="preserve">flujo_personas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe7</t>
   </si>
   <si>
     <t xml:space="preserve">delito_peatones</t>
@@ -1612,10 +1612,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AR1" activeCellId="0" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="Q38 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.25"/>
@@ -2412,13 +2412,13 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -2644,9 +2644,6 @@
       <c r="P6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
@@ -2655,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>4.62475</v>
@@ -2664,7 +2661,7 @@
         <v>-74.066423</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="28" t="n">
         <v>1</v>
@@ -2679,7 +2676,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="R7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -2697,7 +2694,7 @@
         <v>-74.064257</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>177</v>
@@ -2705,13 +2702,13 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="R8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S8" s="1"/>
     </row>
@@ -2720,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>4.6282521</v>
@@ -2729,28 +2726,28 @@
         <v>-74.0670904</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>4.639489</v>
@@ -2759,27 +2756,30 @@
         <v>-74.062897</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
+      <c r="Q10" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
@@ -2801,7 +2801,7 @@
         <v>199</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2810,7 +2810,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>203</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2851,11 +2851,8 @@
         <v>206</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="S12" s="1"/>
     </row>
@@ -2864,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>4.6507</v>
@@ -2873,10 +2870,10 @@
         <v>-74.05822</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2884,13 +2881,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="R13" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>4.652758</v>
@@ -2907,10 +2904,10 @@
         <v>-74.056551</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2925,7 +2922,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>4.65487400724876</v>
@@ -2934,10 +2931,10 @@
         <v>-74.0554333681108</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2947,7 +2944,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S15" s="1"/>
     </row>
@@ -2956,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>4.65671780613089</v>
@@ -2965,10 +2962,10 @@
         <v>-74.0543665308446</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2982,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>4.65869671902702</v>
@@ -2991,16 +2988,16 @@
         <v>-74.0527981659214</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -3010,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>4.66306901162081</v>
@@ -3022,24 +3019,24 @@
         <v>162</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S18" s="1"/>
     </row>
@@ -3048,7 +3045,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>4.66516565077258</v>
@@ -3057,13 +3054,13 @@
         <v>-74.0468160288417</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3073,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>4.67138521212362</v>
@@ -3082,10 +3079,10 @@
         <v>-74.0438000439461</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3094,7 +3091,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S20" s="1"/>
     </row>
@@ -3103,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>4.67447260123109</v>
@@ -3112,10 +3109,10 @@
         <v>-74.0417018437693</v>
       </c>
       <c r="E21" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3130,7 +3127,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>4.67985737530602</v>
@@ -3139,10 +3136,10 @@
         <v>-74.0382125791768</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3151,13 +3148,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3160,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>4.6851414298036</v>
@@ -3180,10 +3175,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -3191,8 +3186,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
+      <c r="Q23" s="0" t="s">
+        <v>237</v>
+      </c>
       <c r="R23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S23" s="1"/>
     </row>
@@ -3201,7 +3199,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>4.69366275843025</v>
@@ -3210,10 +3208,10 @@
         <v>-74.0332252216773</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -3222,7 +3220,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="R24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S24" s="1"/>
     </row>
@@ -3231,7 +3229,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>4.70213634871971</v>
@@ -3243,7 +3241,7 @@
         <v>201</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -3257,7 +3255,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>4.71168163739051</v>
@@ -3266,16 +3264,16 @@
         <v>-74.029166381959</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>6</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -3289,7 +3287,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>4.71618941013746</v>
@@ -3298,21 +3296,21 @@
         <v>-74.028746372056</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="R27" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S27" s="1"/>
     </row>
@@ -3321,7 +3319,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>4.72271112809495</v>
@@ -3330,10 +3328,10 @@
         <v>-74.0261459774934</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -3347,7 +3345,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>4.72561860463364</v>
@@ -3356,10 +3354,10 @@
         <v>-74.0248846037107</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -3368,7 +3366,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="Q29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3374,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>4.72759203191308</v>
@@ -3385,13 +3383,13 @@
         <v>-74.0246188787511</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -3405,7 +3403,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>4.73504479371492</v>
@@ -3417,21 +3415,21 @@
         <v>171</v>
       </c>
       <c r="G31" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>257</v>
-      </c>
       <c r="I31" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3441,7 +3439,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>4.73928285919624</v>
@@ -3450,10 +3448,10 @@
         <v>-74.0227685844767</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3464,7 +3462,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>4.74104500723192</v>
@@ -3476,10 +3474,10 @@
         <v>171</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="S33" s="1"/>
     </row>
@@ -3488,7 +3486,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>4.74704550134667</v>
@@ -3497,23 +3495,23 @@
         <v>-74.0226372775582</v>
       </c>
       <c r="E34" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="J34" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3519,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>4.75396347261005</v>
@@ -3530,10 +3528,10 @@
         <v>-74.0244240661433</v>
       </c>
       <c r="E35" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q35" s="29" t="s">
         <v>272</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,7 +3539,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>4.75617544590708</v>
@@ -3550,22 +3548,19 @@
         <v>-74.0246792916686</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q36" s="29" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>4.76052434895997</v>
@@ -3574,19 +3569,19 @@
         <v>-74.0263419552712</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>4.76566235110988</v>
@@ -3598,10 +3593,13 @@
         <v>162</v>
       </c>
       <c r="G38" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q38" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3607,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>4.7689779473818</v>
@@ -3618,7 +3616,7 @@
         <v>-74.0273381986581</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>4.76966052997788</v>
@@ -3635,10 +3633,10 @@
         <v>-74.0270269840824</v>
       </c>
       <c r="E40" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="S40" s="1"/>
     </row>
@@ -3647,7 +3645,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>4.7771118817951</v>
@@ -3656,10 +3654,10 @@
         <v>-74.0260495949368</v>
       </c>
       <c r="E41" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="S41" s="1"/>
     </row>
@@ -3668,7 +3666,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>4.79861514914944</v>
@@ -3677,7 +3675,7 @@
         <v>-74.0307002114146</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3697,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q38 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
@@ -3714,10 +3712,10 @@
         <v>143</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,10 +3723,10 @@
         <v>177</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -3736,13 +3734,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -3760,13 +3758,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -3782,32 +3780,32 @@
         <v>166</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,21 +3813,21 @@
         <v>172</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>302</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>304</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,87 +3835,87 @@
         <v>173</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,10 +3923,10 @@
         <v>199</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,54 +3934,54 @@
         <v>203</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,7 +3992,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,18 +4003,18 @@
         <v>147</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,40 +4025,40 @@
         <v>147</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,10 +4066,10 @@
         <v>164</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,10 +4077,10 @@
         <v>205</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,7 +4091,7 @@
         <v>119</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,29 +4102,29 @@
         <v>119</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,10 +8002,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q38 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.75"/>
@@ -8020,21 +8018,21 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>158</v>
@@ -8044,12 +8042,12 @@
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>158</v>
@@ -8059,12 +8057,12 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
@@ -8074,7 +8072,7 @@
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,12 +8087,12 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>159</v>
@@ -8104,12 +8102,12 @@
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>159</v>
@@ -8119,12 +8117,12 @@
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>159</v>
@@ -8134,12 +8132,12 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>159</v>
@@ -8149,12 +8147,12 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>159</v>
@@ -8164,7 +8162,7 @@
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,12 +8177,12 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>349</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>159</v>
